--- a/AAII_Financials/Quarterly/LN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LN_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>LN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,124 +665,131 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>555400</v>
+        <v>550200</v>
       </c>
       <c r="E8" s="3">
-        <v>522100</v>
+        <v>567600</v>
       </c>
       <c r="F8" s="3">
-        <v>515300</v>
+        <v>533600</v>
       </c>
       <c r="G8" s="3">
-        <v>504300</v>
+        <v>526600</v>
       </c>
       <c r="H8" s="3">
-        <v>662200</v>
+        <v>515400</v>
       </c>
       <c r="I8" s="3">
-        <v>472200</v>
+        <v>676800</v>
       </c>
       <c r="J8" s="3">
+        <v>482600</v>
+      </c>
+      <c r="K8" s="3">
         <v>547900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>453900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>419500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>389000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>456300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>348100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>338300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>320200</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -828,8 +835,11 @@
       <c r="Q9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -875,8 +885,11 @@
       <c r="Q10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1035,55 +1055,61 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>58300</v>
+        <v>60300</v>
       </c>
       <c r="E15" s="3">
-        <v>52300</v>
+        <v>59600</v>
       </c>
       <c r="F15" s="3">
-        <v>49000</v>
+        <v>53500</v>
       </c>
       <c r="G15" s="3">
-        <v>47100</v>
+        <v>50000</v>
       </c>
       <c r="H15" s="3">
-        <v>29800</v>
+        <v>48200</v>
       </c>
       <c r="I15" s="3">
-        <v>26400</v>
+        <v>30500</v>
       </c>
       <c r="J15" s="3">
+        <v>27000</v>
+      </c>
+      <c r="K15" s="3">
         <v>23800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>21100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>20400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>16900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>13900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>13100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>12800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>659700</v>
+        <v>590600</v>
       </c>
       <c r="E17" s="3">
-        <v>573900</v>
+        <v>674200</v>
       </c>
       <c r="F17" s="3">
-        <v>641900</v>
+        <v>586600</v>
       </c>
       <c r="G17" s="3">
-        <v>576000</v>
+        <v>656000</v>
       </c>
       <c r="H17" s="3">
-        <v>577100</v>
+        <v>588700</v>
       </c>
       <c r="I17" s="3">
-        <v>504700</v>
+        <v>589800</v>
       </c>
       <c r="J17" s="3">
+        <v>515800</v>
+      </c>
+      <c r="K17" s="3">
         <v>465500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>442600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>414100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>336100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>324300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>312400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>324100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>276500</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-104300</v>
+        <v>-40500</v>
       </c>
       <c r="E18" s="3">
-        <v>-51900</v>
+        <v>-106600</v>
       </c>
       <c r="F18" s="3">
-        <v>-126600</v>
+        <v>-53000</v>
       </c>
       <c r="G18" s="3">
-        <v>-71700</v>
+        <v>-129400</v>
       </c>
       <c r="H18" s="3">
-        <v>85100</v>
+        <v>-73300</v>
       </c>
       <c r="I18" s="3">
-        <v>-32500</v>
+        <v>87000</v>
       </c>
       <c r="J18" s="3">
+        <v>-33200</v>
+      </c>
+      <c r="K18" s="3">
         <v>82500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>11300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>52900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>132000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>35700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>14200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>43700</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,102 +1244,109 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-35600</v>
+        <v>-53200</v>
       </c>
       <c r="E20" s="3">
-        <v>-18400</v>
+        <v>-36400</v>
       </c>
       <c r="F20" s="3">
-        <v>-30000</v>
+        <v>-18800</v>
       </c>
       <c r="G20" s="3">
-        <v>-30700</v>
+        <v>-30600</v>
       </c>
       <c r="H20" s="3">
-        <v>-52600</v>
+        <v>-31400</v>
       </c>
       <c r="I20" s="3">
-        <v>-29900</v>
+        <v>-53700</v>
       </c>
       <c r="J20" s="3">
+        <v>-30500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-20900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-12500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-33000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-14600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-10900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-4100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>9900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
+      <c r="D21" s="3">
+        <v>-33400</v>
       </c>
       <c r="E21" s="3">
-        <v>-18000</v>
+        <v>-83400</v>
       </c>
       <c r="F21" s="3">
-        <v>-107600</v>
+        <v>-18400</v>
       </c>
       <c r="G21" s="3">
-        <v>-55300</v>
+        <v>-109900</v>
       </c>
       <c r="H21" s="3">
-        <v>62400</v>
+        <v>-56500</v>
       </c>
       <c r="I21" s="3">
-        <v>-36000</v>
+        <v>63800</v>
       </c>
       <c r="J21" s="3">
+        <v>-36800</v>
+      </c>
+      <c r="K21" s="3">
         <v>85400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>19800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-7200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>55200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>135000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>44700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>36900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>53300</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1352,102 +1392,111 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-139900</v>
+        <v>-93700</v>
       </c>
       <c r="E23" s="3">
-        <v>-70300</v>
+        <v>-143000</v>
       </c>
       <c r="F23" s="3">
-        <v>-156500</v>
+        <v>-71800</v>
       </c>
       <c r="G23" s="3">
-        <v>-102400</v>
+        <v>-160000</v>
       </c>
       <c r="H23" s="3">
-        <v>32500</v>
+        <v>-104700</v>
       </c>
       <c r="I23" s="3">
-        <v>-62400</v>
+        <v>33300</v>
       </c>
       <c r="J23" s="3">
+        <v>-63700</v>
+      </c>
+      <c r="K23" s="3">
         <v>61600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-27600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>38300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>121100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>31600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>24200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>40600</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-2000</v>
+        <v>4600</v>
       </c>
       <c r="E24" s="3">
-        <v>9700</v>
+        <v>-2100</v>
       </c>
       <c r="F24" s="3">
+        <v>9900</v>
+      </c>
+      <c r="G24" s="3">
         <v>800</v>
       </c>
-      <c r="G24" s="3">
-        <v>-5000</v>
-      </c>
       <c r="H24" s="3">
-        <v>18700</v>
+        <v>-5100</v>
       </c>
       <c r="I24" s="3">
-        <v>24800</v>
+        <v>19100</v>
       </c>
       <c r="J24" s="3">
+        <v>25400</v>
+      </c>
+      <c r="K24" s="3">
         <v>28200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>14800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>8300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>23500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>40400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>17100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>9600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-137900</v>
+        <v>-98200</v>
       </c>
       <c r="E26" s="3">
-        <v>-80000</v>
+        <v>-140900</v>
       </c>
       <c r="F26" s="3">
-        <v>-157300</v>
+        <v>-81800</v>
       </c>
       <c r="G26" s="3">
-        <v>-97500</v>
+        <v>-160800</v>
       </c>
       <c r="H26" s="3">
-        <v>13900</v>
+        <v>-99600</v>
       </c>
       <c r="I26" s="3">
-        <v>-87200</v>
+        <v>14200</v>
       </c>
       <c r="J26" s="3">
+        <v>-89100</v>
+      </c>
+      <c r="K26" s="3">
         <v>33400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-16000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-35900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>14800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>80600</v>
-      </c>
-      <c r="O26" s="3">
-        <v>14500</v>
       </c>
       <c r="P26" s="3">
         <v>14500</v>
       </c>
       <c r="Q26" s="3">
+        <v>14500</v>
+      </c>
+      <c r="R26" s="3">
         <v>25900</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-122800</v>
+        <v>-76900</v>
       </c>
       <c r="E27" s="3">
-        <v>-66700</v>
+        <v>-125500</v>
       </c>
       <c r="F27" s="3">
-        <v>-148200</v>
+        <v>-68200</v>
       </c>
       <c r="G27" s="3">
-        <v>-93800</v>
+        <v>-151400</v>
       </c>
       <c r="H27" s="3">
-        <v>18000</v>
+        <v>-95900</v>
       </c>
       <c r="I27" s="3">
-        <v>-81600</v>
+        <v>18400</v>
       </c>
       <c r="J27" s="3">
+        <v>-83400</v>
+      </c>
+      <c r="K27" s="3">
         <v>39000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-12500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-36100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>16300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>79900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>12800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>14800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>25300</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,16 +1692,19 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>5300</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
+        <v>5400</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -1652,10 +1713,10 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>3400</v>
+        <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -1676,13 +1737,16 @@
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1842,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>35600</v>
+        <v>53200</v>
       </c>
       <c r="E32" s="3">
-        <v>18400</v>
+        <v>36400</v>
       </c>
       <c r="F32" s="3">
-        <v>30000</v>
+        <v>18800</v>
       </c>
       <c r="G32" s="3">
-        <v>30700</v>
+        <v>30600</v>
       </c>
       <c r="H32" s="3">
-        <v>52600</v>
+        <v>31400</v>
       </c>
       <c r="I32" s="3">
-        <v>29900</v>
+        <v>53700</v>
       </c>
       <c r="J32" s="3">
+        <v>30500</v>
+      </c>
+      <c r="K32" s="3">
         <v>20900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>12500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>33000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>14600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>10900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>4100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-9900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-117500</v>
+        <v>-76900</v>
       </c>
       <c r="E33" s="3">
-        <v>-66700</v>
+        <v>-120100</v>
       </c>
       <c r="F33" s="3">
-        <v>-148200</v>
+        <v>-68200</v>
       </c>
       <c r="G33" s="3">
-        <v>-93800</v>
+        <v>-151500</v>
       </c>
       <c r="H33" s="3">
-        <v>21400</v>
+        <v>-95800</v>
       </c>
       <c r="I33" s="3">
-        <v>-81600</v>
+        <v>21800</v>
       </c>
       <c r="J33" s="3">
+        <v>-83400</v>
+      </c>
+      <c r="K33" s="3">
         <v>39000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-12500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-36100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>16300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>79900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>12700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>12800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-117500</v>
+        <v>-76900</v>
       </c>
       <c r="E35" s="3">
-        <v>-66700</v>
+        <v>-120100</v>
       </c>
       <c r="F35" s="3">
-        <v>-148200</v>
+        <v>-68200</v>
       </c>
       <c r="G35" s="3">
-        <v>-93800</v>
+        <v>-151500</v>
       </c>
       <c r="H35" s="3">
-        <v>21400</v>
+        <v>-95800</v>
       </c>
       <c r="I35" s="3">
-        <v>-81600</v>
+        <v>21800</v>
       </c>
       <c r="J35" s="3">
+        <v>-83400</v>
+      </c>
+      <c r="K35" s="3">
         <v>39000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-12500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-36100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>16300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>79900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>12700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>12800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,431 +2139,459 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1975700</v>
+        <v>1660700</v>
       </c>
       <c r="E41" s="3">
-        <v>1820500</v>
+        <v>2019100</v>
       </c>
       <c r="F41" s="3">
-        <v>2054700</v>
+        <v>1860600</v>
       </c>
       <c r="G41" s="3">
-        <v>2261900</v>
+        <v>2099900</v>
       </c>
       <c r="H41" s="3">
-        <v>2335900</v>
+        <v>2311700</v>
       </c>
       <c r="I41" s="3">
-        <v>2367200</v>
+        <v>2387300</v>
       </c>
       <c r="J41" s="3">
+        <v>2419300</v>
+      </c>
+      <c r="K41" s="3">
         <v>924800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>969700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1117400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1120800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1134600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1131700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1194800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1148800</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>182900</v>
+        <v>183500</v>
       </c>
       <c r="E42" s="3">
-        <v>246200</v>
+        <v>186900</v>
       </c>
       <c r="F42" s="3">
-        <v>218400</v>
+        <v>251600</v>
       </c>
       <c r="G42" s="3">
-        <v>205100</v>
+        <v>223200</v>
       </c>
       <c r="H42" s="3">
-        <v>26900</v>
+        <v>209600</v>
       </c>
       <c r="I42" s="3">
-        <v>38200</v>
+        <v>27500</v>
       </c>
       <c r="J42" s="3">
+        <v>39100</v>
+      </c>
+      <c r="K42" s="3">
         <v>32500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>27800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>7700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>26000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>43900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>35700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>44500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>390200</v>
+        <v>421300</v>
       </c>
       <c r="E43" s="3">
-        <v>373200</v>
+        <v>398700</v>
       </c>
       <c r="F43" s="3">
-        <v>359800</v>
+        <v>381400</v>
       </c>
       <c r="G43" s="3">
-        <v>376100</v>
+        <v>367700</v>
       </c>
       <c r="H43" s="3">
-        <v>350700</v>
+        <v>384400</v>
       </c>
       <c r="I43" s="3">
-        <v>375500</v>
+        <v>358400</v>
       </c>
       <c r="J43" s="3">
+        <v>383800</v>
+      </c>
+      <c r="K43" s="3">
         <v>349400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>355800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>389600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>328500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>302600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>282700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>249800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>224500</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>43100</v>
+        <v>55900</v>
       </c>
       <c r="E44" s="3">
-        <v>57100</v>
+        <v>44000</v>
       </c>
       <c r="F44" s="3">
-        <v>35000</v>
+        <v>58400</v>
       </c>
       <c r="G44" s="3">
-        <v>47900</v>
+        <v>35800</v>
       </c>
       <c r="H44" s="3">
-        <v>44400</v>
+        <v>48900</v>
       </c>
       <c r="I44" s="3">
-        <v>55100</v>
+        <v>45400</v>
       </c>
       <c r="J44" s="3">
+        <v>56300</v>
+      </c>
+      <c r="K44" s="3">
         <v>29500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>26000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>31200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>26400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>22800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>12400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>8500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>95600</v>
+        <v>81700</v>
       </c>
       <c r="E45" s="3">
-        <v>95800</v>
+        <v>97700</v>
       </c>
       <c r="F45" s="3">
-        <v>93900</v>
+        <v>97900</v>
       </c>
       <c r="G45" s="3">
-        <v>114400</v>
+        <v>96000</v>
       </c>
       <c r="H45" s="3">
-        <v>201000</v>
+        <v>116900</v>
       </c>
       <c r="I45" s="3">
-        <v>201300</v>
+        <v>205400</v>
       </c>
       <c r="J45" s="3">
+        <v>205700</v>
+      </c>
+      <c r="K45" s="3">
         <v>200900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>200600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>177500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>86800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>54300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>60500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>52000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>41400</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2687400</v>
+        <v>2403000</v>
       </c>
       <c r="E46" s="3">
-        <v>2592800</v>
+        <v>2746500</v>
       </c>
       <c r="F46" s="3">
-        <v>2761800</v>
+        <v>2649900</v>
       </c>
       <c r="G46" s="3">
-        <v>3005400</v>
+        <v>2822600</v>
       </c>
       <c r="H46" s="3">
-        <v>2958900</v>
+        <v>3071500</v>
       </c>
       <c r="I46" s="3">
-        <v>3037400</v>
+        <v>3024000</v>
       </c>
       <c r="J46" s="3">
+        <v>3104200</v>
+      </c>
+      <c r="K46" s="3">
         <v>1537200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1579900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1723500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1588400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1558300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1523100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1549600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1422700</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1053800</v>
+        <v>1186300</v>
       </c>
       <c r="E47" s="3">
-        <v>1060700</v>
+        <v>1077000</v>
       </c>
       <c r="F47" s="3">
-        <v>1003900</v>
+        <v>1084100</v>
       </c>
       <c r="G47" s="3">
-        <v>858600</v>
+        <v>1026000</v>
       </c>
       <c r="H47" s="3">
-        <v>790100</v>
+        <v>877500</v>
       </c>
       <c r="I47" s="3">
-        <v>671000</v>
+        <v>807500</v>
       </c>
       <c r="J47" s="3">
+        <v>685800</v>
+      </c>
+      <c r="K47" s="3">
         <v>611300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>526600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>456500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>433300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>419800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>283500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>355900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>169200</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>721400</v>
+        <v>813100</v>
       </c>
       <c r="E48" s="3">
-        <v>742800</v>
+        <v>737300</v>
       </c>
       <c r="F48" s="3">
-        <v>747000</v>
+        <v>759100</v>
       </c>
       <c r="G48" s="3">
-        <v>672100</v>
+        <v>763400</v>
       </c>
       <c r="H48" s="3">
-        <v>224800</v>
+        <v>686900</v>
       </c>
       <c r="I48" s="3">
-        <v>210600</v>
+        <v>229700</v>
       </c>
       <c r="J48" s="3">
+        <v>215200</v>
+      </c>
+      <c r="K48" s="3">
         <v>174000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>162900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>136700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>123600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>115800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>118400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>80100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>73500</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>231400</v>
+        <v>241100</v>
       </c>
       <c r="E49" s="3">
-        <v>227900</v>
+        <v>236400</v>
       </c>
       <c r="F49" s="3">
-        <v>234300</v>
+        <v>232900</v>
       </c>
       <c r="G49" s="3">
-        <v>209900</v>
+        <v>239500</v>
       </c>
       <c r="H49" s="3">
-        <v>203600</v>
+        <v>214500</v>
       </c>
       <c r="I49" s="3">
-        <v>211200</v>
+        <v>208000</v>
       </c>
       <c r="J49" s="3">
+        <v>215900</v>
+      </c>
+      <c r="K49" s="3">
         <v>207000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>208500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>210200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>123100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>67400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>44400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>46600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>44900</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2687,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>227000</v>
+        <v>232000</v>
       </c>
       <c r="E52" s="3">
-        <v>197500</v>
+        <v>231900</v>
       </c>
       <c r="F52" s="3">
-        <v>176300</v>
+        <v>201800</v>
       </c>
       <c r="G52" s="3">
-        <v>171600</v>
+        <v>180200</v>
       </c>
       <c r="H52" s="3">
-        <v>245700</v>
+        <v>175400</v>
       </c>
       <c r="I52" s="3">
-        <v>240300</v>
+        <v>251100</v>
       </c>
       <c r="J52" s="3">
+        <v>245600</v>
+      </c>
+      <c r="K52" s="3">
         <v>215300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>215400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>216200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>293700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>285000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>321400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>239300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>224100</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4920900</v>
+        <v>4875500</v>
       </c>
       <c r="E54" s="3">
-        <v>4821700</v>
+        <v>5029200</v>
       </c>
       <c r="F54" s="3">
-        <v>4923300</v>
+        <v>4927800</v>
       </c>
       <c r="G54" s="3">
-        <v>4917700</v>
+        <v>5031600</v>
       </c>
       <c r="H54" s="3">
-        <v>4423100</v>
+        <v>5025900</v>
       </c>
       <c r="I54" s="3">
-        <v>4370500</v>
+        <v>4520400</v>
       </c>
       <c r="J54" s="3">
+        <v>4466700</v>
+      </c>
+      <c r="K54" s="3">
         <v>2744900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2693300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2743100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2562000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2446300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2290800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2271500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1934400</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,8 +2879,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2796,243 +2927,261 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>104400</v>
+        <v>122200</v>
       </c>
       <c r="E58" s="3">
+        <v>106700</v>
+      </c>
+      <c r="F58" s="3">
+        <v>104800</v>
+      </c>
+      <c r="G58" s="3">
         <v>102600</v>
       </c>
-      <c r="F58" s="3">
-        <v>100400</v>
-      </c>
-      <c r="G58" s="3">
-        <v>85900</v>
-      </c>
       <c r="H58" s="3">
-        <v>209700</v>
+        <v>87800</v>
       </c>
       <c r="I58" s="3">
-        <v>211200</v>
+        <v>214300</v>
       </c>
       <c r="J58" s="3">
+        <v>215900</v>
+      </c>
+      <c r="K58" s="3">
         <v>201700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>202700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>201300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>199700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>180400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>185100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>194500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1365100</v>
+        <v>1289500</v>
       </c>
       <c r="E59" s="3">
-        <v>1207800</v>
+        <v>1395100</v>
       </c>
       <c r="F59" s="3">
-        <v>1227000</v>
+        <v>1234400</v>
       </c>
       <c r="G59" s="3">
-        <v>1165800</v>
+        <v>1254000</v>
       </c>
       <c r="H59" s="3">
-        <v>910400</v>
+        <v>1191500</v>
       </c>
       <c r="I59" s="3">
-        <v>831900</v>
+        <v>930400</v>
       </c>
       <c r="J59" s="3">
+        <v>850200</v>
+      </c>
+      <c r="K59" s="3">
         <v>716500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>705700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>715500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>614400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>560400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>535600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>572200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>466900</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1469500</v>
+        <v>1411700</v>
       </c>
       <c r="E60" s="3">
-        <v>1310400</v>
+        <v>1501800</v>
       </c>
       <c r="F60" s="3">
-        <v>1327400</v>
+        <v>1339200</v>
       </c>
       <c r="G60" s="3">
-        <v>1251700</v>
+        <v>1356600</v>
       </c>
       <c r="H60" s="3">
-        <v>1120100</v>
+        <v>1279300</v>
       </c>
       <c r="I60" s="3">
-        <v>1043100</v>
+        <v>1144800</v>
       </c>
       <c r="J60" s="3">
+        <v>1066100</v>
+      </c>
+      <c r="K60" s="3">
         <v>918200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>908400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>916800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>814100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>740800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>720700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>766700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>469200</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1708900</v>
+        <v>1819900</v>
       </c>
       <c r="E61" s="3">
-        <v>1718500</v>
+        <v>1746500</v>
       </c>
       <c r="F61" s="3">
-        <v>1719000</v>
+        <v>1756300</v>
       </c>
       <c r="G61" s="3">
-        <v>1656300</v>
+        <v>1756800</v>
       </c>
       <c r="H61" s="3">
-        <v>1292000</v>
+        <v>1692700</v>
       </c>
       <c r="I61" s="3">
-        <v>1290100</v>
+        <v>1320400</v>
       </c>
       <c r="J61" s="3">
+        <v>1318500</v>
+      </c>
+      <c r="K61" s="3">
         <v>2900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>300</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>154800</v>
+        <v>154200</v>
       </c>
       <c r="E62" s="3">
-        <v>134000</v>
+        <v>158200</v>
       </c>
       <c r="F62" s="3">
-        <v>126700</v>
+        <v>136900</v>
       </c>
       <c r="G62" s="3">
-        <v>124700</v>
+        <v>129500</v>
       </c>
       <c r="H62" s="3">
-        <v>115600</v>
+        <v>127500</v>
       </c>
       <c r="I62" s="3">
-        <v>114200</v>
+        <v>118100</v>
       </c>
       <c r="J62" s="3">
+        <v>116700</v>
+      </c>
+      <c r="K62" s="3">
         <v>102800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>108100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>103400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>108100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>103300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>101200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>76600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>74700</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3483500</v>
+        <v>3518500</v>
       </c>
       <c r="E66" s="3">
-        <v>3323300</v>
+        <v>3560100</v>
       </c>
       <c r="F66" s="3">
-        <v>3362500</v>
+        <v>3396400</v>
       </c>
       <c r="G66" s="3">
-        <v>3203700</v>
+        <v>3436500</v>
       </c>
       <c r="H66" s="3">
-        <v>2614900</v>
+        <v>3274200</v>
       </c>
       <c r="I66" s="3">
-        <v>2553700</v>
+        <v>2672500</v>
       </c>
       <c r="J66" s="3">
+        <v>2609900</v>
+      </c>
+      <c r="K66" s="3">
         <v>1055500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1056200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1070000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>959500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>852300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>825700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>844900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>546500</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-486500</v>
+        <v>-574100</v>
       </c>
       <c r="E72" s="3">
-        <v>-358800</v>
+        <v>-497200</v>
       </c>
       <c r="F72" s="3">
-        <v>-292000</v>
+        <v>-366700</v>
       </c>
       <c r="G72" s="3">
-        <v>-144200</v>
+        <v>-298500</v>
       </c>
       <c r="H72" s="3">
-        <v>-50500</v>
+        <v>-147400</v>
       </c>
       <c r="I72" s="3">
-        <v>-92400</v>
+        <v>-51600</v>
       </c>
       <c r="J72" s="3">
+        <v>-94400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-10900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-49700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-38800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-19000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-97000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-109800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-122700</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1437400</v>
+        <v>1357000</v>
       </c>
       <c r="E76" s="3">
-        <v>1498400</v>
+        <v>1469100</v>
       </c>
       <c r="F76" s="3">
-        <v>1560800</v>
+        <v>1531400</v>
       </c>
       <c r="G76" s="3">
-        <v>1714000</v>
+        <v>1595200</v>
       </c>
       <c r="H76" s="3">
-        <v>1808100</v>
+        <v>1751700</v>
       </c>
       <c r="I76" s="3">
-        <v>1816800</v>
+        <v>1847900</v>
       </c>
       <c r="J76" s="3">
+        <v>1856800</v>
+      </c>
+      <c r="K76" s="3">
         <v>1689400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1637100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1673100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1602600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1594000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1465100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1426600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1388000</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-117500</v>
+        <v>-76900</v>
       </c>
       <c r="E81" s="3">
-        <v>-66700</v>
+        <v>-120100</v>
       </c>
       <c r="F81" s="3">
-        <v>-148200</v>
+        <v>-68200</v>
       </c>
       <c r="G81" s="3">
-        <v>-93800</v>
+        <v>-151500</v>
       </c>
       <c r="H81" s="3">
-        <v>21400</v>
+        <v>-95800</v>
       </c>
       <c r="I81" s="3">
-        <v>-81600</v>
+        <v>21800</v>
       </c>
       <c r="J81" s="3">
+        <v>-83400</v>
+      </c>
+      <c r="K81" s="3">
         <v>39000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-12500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-36100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>16300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>79900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>12700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>12800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,55 +4024,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>5</v>
+      <c r="D83" s="3">
+        <v>60300</v>
       </c>
       <c r="E83" s="3">
-        <v>52300</v>
+        <v>59600</v>
       </c>
       <c r="F83" s="3">
-        <v>49000</v>
+        <v>53500</v>
       </c>
       <c r="G83" s="3">
-        <v>47100</v>
+        <v>50000</v>
       </c>
       <c r="H83" s="3">
-        <v>29800</v>
+        <v>48200</v>
       </c>
       <c r="I83" s="3">
-        <v>26400</v>
+        <v>30500</v>
       </c>
       <c r="J83" s="3">
+        <v>27000</v>
+      </c>
+      <c r="K83" s="3">
         <v>23800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>21100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>20400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>16900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>13900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>13100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>12800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>5</v>
+      <c r="D89" s="3">
+        <v>-151100</v>
       </c>
       <c r="E89" s="3">
-        <v>-67600</v>
+        <v>55900</v>
       </c>
       <c r="F89" s="3">
-        <v>3400</v>
+        <v>-69100</v>
       </c>
       <c r="G89" s="3">
-        <v>-18800</v>
+        <v>3500</v>
       </c>
       <c r="H89" s="3">
-        <v>57300</v>
+        <v>-19200</v>
       </c>
       <c r="I89" s="3">
-        <v>-4800</v>
+        <v>58600</v>
       </c>
       <c r="J89" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="K89" s="3">
         <v>7900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>22500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>62300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>35200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>47100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-44600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>110000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>39800</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4394,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
+      <c r="D91" s="3">
+        <v>-34500</v>
       </c>
       <c r="E91" s="3">
-        <v>-34500</v>
+        <v>-13300</v>
       </c>
       <c r="F91" s="3">
-        <v>-36700</v>
+        <v>-35200</v>
       </c>
       <c r="G91" s="3">
-        <v>-56500</v>
+        <v>-37500</v>
       </c>
       <c r="H91" s="3">
-        <v>-58700</v>
+        <v>-57800</v>
       </c>
       <c r="I91" s="3">
-        <v>-54100</v>
+        <v>-60000</v>
       </c>
       <c r="J91" s="3">
+        <v>-55300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-35100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-42200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-38000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-23700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-31600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-20400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-25500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>5</v>
+      <c r="D94" s="3">
+        <v>-175800</v>
       </c>
       <c r="E94" s="3">
-        <v>-121400</v>
+        <v>86800</v>
       </c>
       <c r="F94" s="3">
-        <v>-218500</v>
+        <v>-124000</v>
       </c>
       <c r="G94" s="3">
-        <v>-137100</v>
+        <v>-223300</v>
       </c>
       <c r="H94" s="3">
-        <v>-85900</v>
+        <v>-140100</v>
       </c>
       <c r="I94" s="3">
-        <v>-170300</v>
+        <v>-87800</v>
       </c>
       <c r="J94" s="3">
+        <v>-174000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-60400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-163200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-156100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-73700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-61100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-18200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-266300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-29300</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,145 +4812,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>5</v>
+      <c r="D100" s="3">
+        <v>-22900</v>
       </c>
       <c r="E100" s="3">
-        <v>-47000</v>
+        <v>-1300</v>
       </c>
       <c r="F100" s="3">
-        <v>20800</v>
+        <v>-48000</v>
       </c>
       <c r="G100" s="3">
-        <v>83000</v>
+        <v>21300</v>
       </c>
       <c r="H100" s="3">
-        <v>7800</v>
+        <v>84800</v>
       </c>
       <c r="I100" s="3">
-        <v>1611200</v>
+        <v>8000</v>
       </c>
       <c r="J100" s="3">
+        <v>1646700</v>
+      </c>
+      <c r="K100" s="3">
         <v>800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>82900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>26100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-5200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>196900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>754900</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>5</v>
+      <c r="D101" s="3">
+        <v>-8700</v>
       </c>
       <c r="E101" s="3">
+        <v>17100</v>
+      </c>
+      <c r="F101" s="3">
         <v>1800</v>
       </c>
-      <c r="F101" s="3">
-        <v>-13000</v>
-      </c>
       <c r="G101" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="H101" s="3">
         <v>-1100</v>
       </c>
-      <c r="H101" s="3">
-        <v>-10600</v>
-      </c>
       <c r="I101" s="3">
-        <v>6300</v>
+        <v>-10800</v>
       </c>
       <c r="J101" s="3">
+        <v>6400</v>
+      </c>
+      <c r="K101" s="3">
         <v>1600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-8800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>7500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1500</v>
-      </c>
-      <c r="N101" s="3">
-        <v>300</v>
       </c>
       <c r="O101" s="3">
         <v>300</v>
       </c>
       <c r="P101" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q101" s="3">
         <v>5300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>5</v>
+      <c r="D102" s="3">
+        <v>-358500</v>
       </c>
       <c r="E102" s="3">
-        <v>-234100</v>
+        <v>158500</v>
       </c>
       <c r="F102" s="3">
-        <v>-207300</v>
+        <v>-239300</v>
       </c>
       <c r="G102" s="3">
-        <v>-74000</v>
+        <v>-211800</v>
       </c>
       <c r="H102" s="3">
-        <v>-31300</v>
+        <v>-75600</v>
       </c>
       <c r="I102" s="3">
-        <v>1442400</v>
+        <v>-32000</v>
       </c>
       <c r="J102" s="3">
+        <v>1474100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-50200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-147700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-13800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-18800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-63000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>46000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>767000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>LN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,131 +665,138 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>550200</v>
+        <v>565500</v>
       </c>
       <c r="E8" s="3">
-        <v>567600</v>
+        <v>559000</v>
       </c>
       <c r="F8" s="3">
-        <v>533600</v>
+        <v>576800</v>
       </c>
       <c r="G8" s="3">
-        <v>526600</v>
+        <v>542200</v>
       </c>
       <c r="H8" s="3">
-        <v>515400</v>
+        <v>535100</v>
       </c>
       <c r="I8" s="3">
-        <v>676800</v>
+        <v>523700</v>
       </c>
       <c r="J8" s="3">
+        <v>687700</v>
+      </c>
+      <c r="K8" s="3">
         <v>482600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>547900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>453900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>419500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>389000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>456300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>348100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>338300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>320200</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,58 +1078,64 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>60300</v>
+        <v>62500</v>
       </c>
       <c r="E15" s="3">
-        <v>59600</v>
+        <v>61200</v>
       </c>
       <c r="F15" s="3">
-        <v>53500</v>
+        <v>60500</v>
       </c>
       <c r="G15" s="3">
-        <v>50000</v>
+        <v>54300</v>
       </c>
       <c r="H15" s="3">
-        <v>48200</v>
+        <v>50800</v>
       </c>
       <c r="I15" s="3">
-        <v>30500</v>
+        <v>48900</v>
       </c>
       <c r="J15" s="3">
+        <v>31000</v>
+      </c>
+      <c r="K15" s="3">
         <v>27000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>23800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>21100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>20400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>16900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>13900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>13100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>12800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>590600</v>
+        <v>656100</v>
       </c>
       <c r="E17" s="3">
-        <v>674200</v>
+        <v>600200</v>
       </c>
       <c r="F17" s="3">
-        <v>586600</v>
+        <v>685100</v>
       </c>
       <c r="G17" s="3">
-        <v>656000</v>
+        <v>596000</v>
       </c>
       <c r="H17" s="3">
-        <v>588700</v>
+        <v>666600</v>
       </c>
       <c r="I17" s="3">
-        <v>589800</v>
+        <v>598200</v>
       </c>
       <c r="J17" s="3">
+        <v>599300</v>
+      </c>
+      <c r="K17" s="3">
         <v>515800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>465500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>442600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>414100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>336100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>324300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>312400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>324100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>276500</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-40500</v>
+        <v>-90600</v>
       </c>
       <c r="E18" s="3">
-        <v>-106600</v>
+        <v>-41100</v>
       </c>
       <c r="F18" s="3">
-        <v>-53000</v>
+        <v>-108300</v>
       </c>
       <c r="G18" s="3">
-        <v>-129400</v>
+        <v>-53900</v>
       </c>
       <c r="H18" s="3">
-        <v>-73300</v>
+        <v>-131400</v>
       </c>
       <c r="I18" s="3">
-        <v>87000</v>
+        <v>-74500</v>
       </c>
       <c r="J18" s="3">
+        <v>88400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-33200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>82500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>11300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>52900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>132000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>35700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>14200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>43700</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,108 +1278,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-53200</v>
+        <v>-37100</v>
       </c>
       <c r="E20" s="3">
-        <v>-36400</v>
+        <v>-54100</v>
       </c>
       <c r="F20" s="3">
-        <v>-18800</v>
+        <v>-37000</v>
       </c>
       <c r="G20" s="3">
-        <v>-30600</v>
+        <v>-19200</v>
       </c>
       <c r="H20" s="3">
-        <v>-31400</v>
+        <v>-31100</v>
       </c>
       <c r="I20" s="3">
-        <v>-53700</v>
+        <v>-31900</v>
       </c>
       <c r="J20" s="3">
+        <v>-54600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-30500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-20900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-12500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-33000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-14600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-10900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>9900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-33400</v>
+        <v>-65200</v>
       </c>
       <c r="E21" s="3">
-        <v>-83400</v>
+        <v>-33900</v>
       </c>
       <c r="F21" s="3">
-        <v>-18400</v>
+        <v>-84800</v>
       </c>
       <c r="G21" s="3">
-        <v>-109900</v>
+        <v>-18700</v>
       </c>
       <c r="H21" s="3">
-        <v>-56500</v>
+        <v>-111700</v>
       </c>
       <c r="I21" s="3">
-        <v>63800</v>
+        <v>-57500</v>
       </c>
       <c r="J21" s="3">
+        <v>64800</v>
+      </c>
+      <c r="K21" s="3">
         <v>-36800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>85400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>19800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-7200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>55200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>135000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>44700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>36900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>53300</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,108 +1435,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-93700</v>
+        <v>-127700</v>
       </c>
       <c r="E23" s="3">
-        <v>-143000</v>
+        <v>-95200</v>
       </c>
       <c r="F23" s="3">
-        <v>-71800</v>
+        <v>-145300</v>
       </c>
       <c r="G23" s="3">
-        <v>-160000</v>
+        <v>-73000</v>
       </c>
       <c r="H23" s="3">
-        <v>-104700</v>
+        <v>-162600</v>
       </c>
       <c r="I23" s="3">
-        <v>33300</v>
+        <v>-106400</v>
       </c>
       <c r="J23" s="3">
+        <v>33800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-63700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>61600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-27600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>38300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>121100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>31600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>24200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>40600</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E24" s="3">
         <v>4600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-2100</v>
       </c>
-      <c r="F24" s="3">
-        <v>9900</v>
-      </c>
       <c r="G24" s="3">
+        <v>10100</v>
+      </c>
+      <c r="H24" s="3">
         <v>800</v>
       </c>
-      <c r="H24" s="3">
-        <v>-5100</v>
-      </c>
       <c r="I24" s="3">
-        <v>19100</v>
+        <v>-5200</v>
       </c>
       <c r="J24" s="3">
+        <v>19400</v>
+      </c>
+      <c r="K24" s="3">
         <v>25400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>28200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>14800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>8300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>23500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>40400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>17100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>9600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-98200</v>
+        <v>-131700</v>
       </c>
       <c r="E26" s="3">
-        <v>-140900</v>
+        <v>-99800</v>
       </c>
       <c r="F26" s="3">
-        <v>-81800</v>
+        <v>-143200</v>
       </c>
       <c r="G26" s="3">
-        <v>-160800</v>
+        <v>-83100</v>
       </c>
       <c r="H26" s="3">
-        <v>-99600</v>
+        <v>-163400</v>
       </c>
       <c r="I26" s="3">
-        <v>14200</v>
+        <v>-101200</v>
       </c>
       <c r="J26" s="3">
+        <v>14400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-89100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>33400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-16000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-35900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>14800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>80600</v>
-      </c>
-      <c r="P26" s="3">
-        <v>14500</v>
       </c>
       <c r="Q26" s="3">
         <v>14500</v>
       </c>
       <c r="R26" s="3">
+        <v>14500</v>
+      </c>
+      <c r="S26" s="3">
         <v>25900</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-76900</v>
+        <v>-112100</v>
       </c>
       <c r="E27" s="3">
-        <v>-125500</v>
+        <v>-78200</v>
       </c>
       <c r="F27" s="3">
-        <v>-68200</v>
+        <v>-127600</v>
       </c>
       <c r="G27" s="3">
-        <v>-151400</v>
+        <v>-69300</v>
       </c>
       <c r="H27" s="3">
-        <v>-95900</v>
+        <v>-153900</v>
       </c>
       <c r="I27" s="3">
-        <v>18400</v>
+        <v>-97400</v>
       </c>
       <c r="J27" s="3">
+        <v>18700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-83400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>39000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-12500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-36100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>16300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>79900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>12800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>14800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>25300</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,19 +1753,22 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E29" s="3">
-        <v>5400</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>0</v>
+        <v>5500</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -1716,11 +1777,11 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>3500</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
@@ -1740,13 +1801,16 @@
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-1900</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>53200</v>
+        <v>37100</v>
       </c>
       <c r="E32" s="3">
-        <v>36400</v>
+        <v>54100</v>
       </c>
       <c r="F32" s="3">
-        <v>18800</v>
+        <v>37000</v>
       </c>
       <c r="G32" s="3">
-        <v>30600</v>
+        <v>19200</v>
       </c>
       <c r="H32" s="3">
-        <v>31400</v>
+        <v>31100</v>
       </c>
       <c r="I32" s="3">
-        <v>53700</v>
+        <v>31900</v>
       </c>
       <c r="J32" s="3">
+        <v>54600</v>
+      </c>
+      <c r="K32" s="3">
         <v>30500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>20900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>12500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>33000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>14600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>10900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>4100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-9900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-76900</v>
+        <v>-112100</v>
       </c>
       <c r="E33" s="3">
-        <v>-120100</v>
+        <v>-78200</v>
       </c>
       <c r="F33" s="3">
-        <v>-68200</v>
+        <v>-122000</v>
       </c>
       <c r="G33" s="3">
-        <v>-151500</v>
+        <v>-69300</v>
       </c>
       <c r="H33" s="3">
-        <v>-95800</v>
+        <v>-153900</v>
       </c>
       <c r="I33" s="3">
-        <v>21800</v>
+        <v>-97400</v>
       </c>
       <c r="J33" s="3">
+        <v>22200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-83400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>39000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-12500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-36100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>16300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>79900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>12700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>12800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-76900</v>
+        <v>-112100</v>
       </c>
       <c r="E35" s="3">
-        <v>-120100</v>
+        <v>-78200</v>
       </c>
       <c r="F35" s="3">
-        <v>-68200</v>
+        <v>-122000</v>
       </c>
       <c r="G35" s="3">
-        <v>-151500</v>
+        <v>-69300</v>
       </c>
       <c r="H35" s="3">
-        <v>-95800</v>
+        <v>-153900</v>
       </c>
       <c r="I35" s="3">
-        <v>21800</v>
+        <v>-97400</v>
       </c>
       <c r="J35" s="3">
+        <v>22200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-83400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>39000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-12500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-36100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>16300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>79900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>12700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>12800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,458 +2226,486 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1660700</v>
+        <v>1689000</v>
       </c>
       <c r="E41" s="3">
-        <v>2019100</v>
+        <v>1687500</v>
       </c>
       <c r="F41" s="3">
-        <v>1860600</v>
+        <v>2051700</v>
       </c>
       <c r="G41" s="3">
-        <v>2099900</v>
+        <v>1890600</v>
       </c>
       <c r="H41" s="3">
-        <v>2311700</v>
+        <v>2133800</v>
       </c>
       <c r="I41" s="3">
-        <v>2387300</v>
+        <v>2349000</v>
       </c>
       <c r="J41" s="3">
+        <v>2425900</v>
+      </c>
+      <c r="K41" s="3">
         <v>2419300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>924800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>969700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1117400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1120800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1134600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1131700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1194800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1148800</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>183500</v>
+        <v>263400</v>
       </c>
       <c r="E42" s="3">
-        <v>186900</v>
+        <v>186400</v>
       </c>
       <c r="F42" s="3">
-        <v>251600</v>
+        <v>189900</v>
       </c>
       <c r="G42" s="3">
-        <v>223200</v>
+        <v>255700</v>
       </c>
       <c r="H42" s="3">
-        <v>209600</v>
+        <v>226800</v>
       </c>
       <c r="I42" s="3">
-        <v>27500</v>
+        <v>213000</v>
       </c>
       <c r="J42" s="3">
+        <v>28000</v>
+      </c>
+      <c r="K42" s="3">
         <v>39100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>32500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>27800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>7700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>26000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>43900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>35700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>44500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>421300</v>
+        <v>492800</v>
       </c>
       <c r="E43" s="3">
-        <v>398700</v>
+        <v>428100</v>
       </c>
       <c r="F43" s="3">
-        <v>381400</v>
+        <v>405200</v>
       </c>
       <c r="G43" s="3">
-        <v>367700</v>
+        <v>387600</v>
       </c>
       <c r="H43" s="3">
-        <v>384400</v>
+        <v>373700</v>
       </c>
       <c r="I43" s="3">
-        <v>358400</v>
+        <v>390600</v>
       </c>
       <c r="J43" s="3">
+        <v>364200</v>
+      </c>
+      <c r="K43" s="3">
         <v>383800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>349400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>355800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>389600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>328500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>302600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>282700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>249800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>224500</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>55900</v>
+        <v>105000</v>
       </c>
       <c r="E44" s="3">
-        <v>44000</v>
+        <v>56800</v>
       </c>
       <c r="F44" s="3">
-        <v>58400</v>
+        <v>44700</v>
       </c>
       <c r="G44" s="3">
-        <v>35800</v>
+        <v>59300</v>
       </c>
       <c r="H44" s="3">
-        <v>48900</v>
+        <v>36400</v>
       </c>
       <c r="I44" s="3">
-        <v>45400</v>
+        <v>49700</v>
       </c>
       <c r="J44" s="3">
+        <v>46100</v>
+      </c>
+      <c r="K44" s="3">
         <v>56300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>29500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>26000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>31200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>26400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>22800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>12400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>8500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>81700</v>
+        <v>88700</v>
       </c>
       <c r="E45" s="3">
-        <v>97700</v>
+        <v>83000</v>
       </c>
       <c r="F45" s="3">
-        <v>97900</v>
+        <v>99300</v>
       </c>
       <c r="G45" s="3">
-        <v>96000</v>
+        <v>99500</v>
       </c>
       <c r="H45" s="3">
-        <v>116900</v>
+        <v>97500</v>
       </c>
       <c r="I45" s="3">
-        <v>205400</v>
+        <v>118800</v>
       </c>
       <c r="J45" s="3">
+        <v>208700</v>
+      </c>
+      <c r="K45" s="3">
         <v>205700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>200900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>200600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>177500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>86800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>54300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>60500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>52000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>41400</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2403000</v>
+        <v>2638700</v>
       </c>
       <c r="E46" s="3">
-        <v>2746500</v>
+        <v>2441800</v>
       </c>
       <c r="F46" s="3">
-        <v>2649900</v>
+        <v>2790900</v>
       </c>
       <c r="G46" s="3">
-        <v>2822600</v>
+        <v>2692700</v>
       </c>
       <c r="H46" s="3">
-        <v>3071500</v>
+        <v>2868200</v>
       </c>
       <c r="I46" s="3">
-        <v>3024000</v>
+        <v>3121100</v>
       </c>
       <c r="J46" s="3">
+        <v>3072900</v>
+      </c>
+      <c r="K46" s="3">
         <v>3104200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1537200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1579900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1723500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1588400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1558300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1523100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1549600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1422700</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1186300</v>
+        <v>1338000</v>
       </c>
       <c r="E47" s="3">
-        <v>1077000</v>
+        <v>1205400</v>
       </c>
       <c r="F47" s="3">
-        <v>1084100</v>
+        <v>1094400</v>
       </c>
       <c r="G47" s="3">
-        <v>1026000</v>
+        <v>1101600</v>
       </c>
       <c r="H47" s="3">
-        <v>877500</v>
+        <v>1042500</v>
       </c>
       <c r="I47" s="3">
-        <v>807500</v>
+        <v>891700</v>
       </c>
       <c r="J47" s="3">
+        <v>820600</v>
+      </c>
+      <c r="K47" s="3">
         <v>685800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>611300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>526600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>456500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>433300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>419800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>283500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>355900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>169200</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>813100</v>
+        <v>788600</v>
       </c>
       <c r="E48" s="3">
-        <v>737300</v>
+        <v>826300</v>
       </c>
       <c r="F48" s="3">
-        <v>759100</v>
+        <v>749200</v>
       </c>
       <c r="G48" s="3">
-        <v>763400</v>
+        <v>771400</v>
       </c>
       <c r="H48" s="3">
-        <v>686900</v>
+        <v>775700</v>
       </c>
       <c r="I48" s="3">
-        <v>229700</v>
+        <v>698000</v>
       </c>
       <c r="J48" s="3">
+        <v>233400</v>
+      </c>
+      <c r="K48" s="3">
         <v>215200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>174000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>162900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>136700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>123600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>115800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>118400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>80100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>73500</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>241100</v>
+        <v>245900</v>
       </c>
       <c r="E49" s="3">
-        <v>236400</v>
+        <v>244900</v>
       </c>
       <c r="F49" s="3">
-        <v>232900</v>
+        <v>240300</v>
       </c>
       <c r="G49" s="3">
-        <v>239500</v>
+        <v>236700</v>
       </c>
       <c r="H49" s="3">
-        <v>214500</v>
+        <v>243400</v>
       </c>
       <c r="I49" s="3">
-        <v>208000</v>
+        <v>218000</v>
       </c>
       <c r="J49" s="3">
+        <v>211400</v>
+      </c>
+      <c r="K49" s="3">
         <v>215900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>207000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>208500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>210200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>123100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>67400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>44400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>46600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>44900</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>232000</v>
+        <v>244000</v>
       </c>
       <c r="E52" s="3">
-        <v>231900</v>
+        <v>235700</v>
       </c>
       <c r="F52" s="3">
-        <v>201800</v>
+        <v>235700</v>
       </c>
       <c r="G52" s="3">
-        <v>180200</v>
+        <v>205100</v>
       </c>
       <c r="H52" s="3">
-        <v>175400</v>
+        <v>183100</v>
       </c>
       <c r="I52" s="3">
-        <v>251100</v>
+        <v>178300</v>
       </c>
       <c r="J52" s="3">
+        <v>255200</v>
+      </c>
+      <c r="K52" s="3">
         <v>245600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>215300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>215400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>216200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>293700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>285000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>321400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>239300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>224100</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4875500</v>
+        <v>5255200</v>
       </c>
       <c r="E54" s="3">
-        <v>5029200</v>
+        <v>4954200</v>
       </c>
       <c r="F54" s="3">
-        <v>4927800</v>
+        <v>5110400</v>
       </c>
       <c r="G54" s="3">
-        <v>5031600</v>
+        <v>5007400</v>
       </c>
       <c r="H54" s="3">
-        <v>5025900</v>
+        <v>5112900</v>
       </c>
       <c r="I54" s="3">
-        <v>4520400</v>
+        <v>5107000</v>
       </c>
       <c r="J54" s="3">
+        <v>4593400</v>
+      </c>
+      <c r="K54" s="3">
         <v>4466700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2744900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2693300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2743100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2562000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2446300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2290800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2271500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1934400</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2930,258 +3061,276 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>122200</v>
+        <v>128100</v>
       </c>
       <c r="E58" s="3">
-        <v>106700</v>
+        <v>124200</v>
       </c>
       <c r="F58" s="3">
-        <v>104800</v>
+        <v>108400</v>
       </c>
       <c r="G58" s="3">
-        <v>102600</v>
+        <v>106500</v>
       </c>
       <c r="H58" s="3">
-        <v>87800</v>
+        <v>104300</v>
       </c>
       <c r="I58" s="3">
-        <v>214300</v>
+        <v>89200</v>
       </c>
       <c r="J58" s="3">
+        <v>217800</v>
+      </c>
+      <c r="K58" s="3">
         <v>215900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>201700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>202700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>201300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>199700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>180400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>185100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>194500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1289500</v>
+        <v>1540600</v>
       </c>
       <c r="E59" s="3">
-        <v>1395100</v>
+        <v>1310400</v>
       </c>
       <c r="F59" s="3">
-        <v>1234400</v>
+        <v>1417600</v>
       </c>
       <c r="G59" s="3">
-        <v>1254000</v>
+        <v>1254300</v>
       </c>
       <c r="H59" s="3">
-        <v>1191500</v>
+        <v>1274300</v>
       </c>
       <c r="I59" s="3">
-        <v>930400</v>
+        <v>1210700</v>
       </c>
       <c r="J59" s="3">
+        <v>945400</v>
+      </c>
+      <c r="K59" s="3">
         <v>850200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>716500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>705700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>715500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>614400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>560400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>535600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>572200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>466900</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1411700</v>
+        <v>1668600</v>
       </c>
       <c r="E60" s="3">
-        <v>1501800</v>
+        <v>1434500</v>
       </c>
       <c r="F60" s="3">
-        <v>1339200</v>
+        <v>1526100</v>
       </c>
       <c r="G60" s="3">
-        <v>1356600</v>
+        <v>1360800</v>
       </c>
       <c r="H60" s="3">
-        <v>1279300</v>
+        <v>1378500</v>
       </c>
       <c r="I60" s="3">
-        <v>1144800</v>
+        <v>1299900</v>
       </c>
       <c r="J60" s="3">
+        <v>1163300</v>
+      </c>
+      <c r="K60" s="3">
         <v>1066100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>918200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>908400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>916800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>814100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>740800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>720700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>766700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>469200</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1819900</v>
+        <v>1823800</v>
       </c>
       <c r="E61" s="3">
-        <v>1746500</v>
+        <v>1849300</v>
       </c>
       <c r="F61" s="3">
-        <v>1756300</v>
+        <v>1774700</v>
       </c>
       <c r="G61" s="3">
-        <v>1756800</v>
+        <v>1784700</v>
       </c>
       <c r="H61" s="3">
-        <v>1692700</v>
+        <v>1785200</v>
       </c>
       <c r="I61" s="3">
-        <v>1320400</v>
+        <v>1720100</v>
       </c>
       <c r="J61" s="3">
+        <v>1341700</v>
+      </c>
+      <c r="K61" s="3">
         <v>1318500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>300</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>154200</v>
+        <v>209000</v>
       </c>
       <c r="E62" s="3">
-        <v>158200</v>
+        <v>156700</v>
       </c>
       <c r="F62" s="3">
-        <v>136900</v>
+        <v>160800</v>
       </c>
       <c r="G62" s="3">
+        <v>139100</v>
+      </c>
+      <c r="H62" s="3">
+        <v>131600</v>
+      </c>
+      <c r="I62" s="3">
         <v>129500</v>
       </c>
-      <c r="H62" s="3">
-        <v>127500</v>
-      </c>
-      <c r="I62" s="3">
-        <v>118100</v>
-      </c>
       <c r="J62" s="3">
+        <v>120000</v>
+      </c>
+      <c r="K62" s="3">
         <v>116700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>102800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>108100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>103400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>108100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>103300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>101200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>76600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>74700</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3518500</v>
+        <v>3910800</v>
       </c>
       <c r="E66" s="3">
-        <v>3560100</v>
+        <v>3575300</v>
       </c>
       <c r="F66" s="3">
-        <v>3396400</v>
+        <v>3617600</v>
       </c>
       <c r="G66" s="3">
-        <v>3436500</v>
+        <v>3451200</v>
       </c>
       <c r="H66" s="3">
-        <v>3274200</v>
+        <v>3492000</v>
       </c>
       <c r="I66" s="3">
-        <v>2672500</v>
+        <v>3327100</v>
       </c>
       <c r="J66" s="3">
+        <v>2715600</v>
+      </c>
+      <c r="K66" s="3">
         <v>2609900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1055500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1056200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1070000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>959500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>852300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>825700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>844900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>546500</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-574100</v>
+        <v>-654500</v>
       </c>
       <c r="E72" s="3">
-        <v>-497200</v>
+        <v>-583400</v>
       </c>
       <c r="F72" s="3">
-        <v>-366700</v>
+        <v>-505300</v>
       </c>
       <c r="G72" s="3">
-        <v>-298500</v>
+        <v>-372600</v>
       </c>
       <c r="H72" s="3">
-        <v>-147400</v>
+        <v>-303300</v>
       </c>
       <c r="I72" s="3">
-        <v>-51600</v>
+        <v>-149800</v>
       </c>
       <c r="J72" s="3">
+        <v>-52400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-94400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-10900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-49700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-38800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-19000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-97000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-109800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-122700</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1357000</v>
+        <v>1344400</v>
       </c>
       <c r="E76" s="3">
-        <v>1469100</v>
+        <v>1378900</v>
       </c>
       <c r="F76" s="3">
-        <v>1531400</v>
+        <v>1492800</v>
       </c>
       <c r="G76" s="3">
-        <v>1595200</v>
+        <v>1556100</v>
       </c>
       <c r="H76" s="3">
-        <v>1751700</v>
+        <v>1620900</v>
       </c>
       <c r="I76" s="3">
-        <v>1847900</v>
+        <v>1779900</v>
       </c>
       <c r="J76" s="3">
+        <v>1877800</v>
+      </c>
+      <c r="K76" s="3">
         <v>1856800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1689400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1637100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1673100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1602600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1594000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1465100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1426600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1388000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-76900</v>
+        <v>-112100</v>
       </c>
       <c r="E81" s="3">
-        <v>-120100</v>
+        <v>-78200</v>
       </c>
       <c r="F81" s="3">
-        <v>-68200</v>
+        <v>-122000</v>
       </c>
       <c r="G81" s="3">
-        <v>-151500</v>
+        <v>-69300</v>
       </c>
       <c r="H81" s="3">
-        <v>-95800</v>
+        <v>-153900</v>
       </c>
       <c r="I81" s="3">
-        <v>21800</v>
+        <v>-97400</v>
       </c>
       <c r="J81" s="3">
+        <v>22200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-83400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>39000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-12500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-36100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>16300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>79900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>12700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>12800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>60300</v>
+        <v>62500</v>
       </c>
       <c r="E83" s="3">
-        <v>59600</v>
+        <v>61200</v>
       </c>
       <c r="F83" s="3">
-        <v>53500</v>
+        <v>60500</v>
       </c>
       <c r="G83" s="3">
-        <v>50000</v>
+        <v>54300</v>
       </c>
       <c r="H83" s="3">
-        <v>48200</v>
+        <v>50800</v>
       </c>
       <c r="I83" s="3">
-        <v>30500</v>
+        <v>48900</v>
       </c>
       <c r="J83" s="3">
+        <v>31000</v>
+      </c>
+      <c r="K83" s="3">
         <v>27000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>23800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>21100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>20400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>16900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>13900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>13100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>12800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-151100</v>
+        <v>47200</v>
       </c>
       <c r="E89" s="3">
-        <v>55900</v>
+        <v>-153500</v>
       </c>
       <c r="F89" s="3">
-        <v>-69100</v>
+        <v>56800</v>
       </c>
       <c r="G89" s="3">
-        <v>3500</v>
+        <v>-70200</v>
       </c>
       <c r="H89" s="3">
-        <v>-19200</v>
+        <v>3600</v>
       </c>
       <c r="I89" s="3">
-        <v>58600</v>
+        <v>-19500</v>
       </c>
       <c r="J89" s="3">
+        <v>59500</v>
+      </c>
+      <c r="K89" s="3">
         <v>-4900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>7900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>22500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>62300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>35200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>47100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-44600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>110000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>39800</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-34500</v>
+        <v>-53500</v>
       </c>
       <c r="E91" s="3">
-        <v>-13300</v>
+        <v>-35100</v>
       </c>
       <c r="F91" s="3">
-        <v>-35200</v>
+        <v>-13600</v>
       </c>
       <c r="G91" s="3">
-        <v>-37500</v>
+        <v>-35800</v>
       </c>
       <c r="H91" s="3">
-        <v>-57800</v>
+        <v>-38100</v>
       </c>
       <c r="I91" s="3">
-        <v>-60000</v>
+        <v>-58700</v>
       </c>
       <c r="J91" s="3">
+        <v>-61000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-55300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-35100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-42200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-38000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-23700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-31600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-20400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-25500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-175800</v>
+        <v>-169100</v>
       </c>
       <c r="E94" s="3">
-        <v>86800</v>
+        <v>-178700</v>
       </c>
       <c r="F94" s="3">
-        <v>-124000</v>
+        <v>88200</v>
       </c>
       <c r="G94" s="3">
-        <v>-223300</v>
+        <v>-126000</v>
       </c>
       <c r="H94" s="3">
-        <v>-140100</v>
+        <v>-226900</v>
       </c>
       <c r="I94" s="3">
-        <v>-87800</v>
+        <v>-142400</v>
       </c>
       <c r="J94" s="3">
+        <v>-89200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-174000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-60400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-163200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-156100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-73700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-61100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-18200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-266300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-29300</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-22900</v>
+        <v>116200</v>
       </c>
       <c r="E100" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1300</v>
       </c>
-      <c r="F100" s="3">
-        <v>-48000</v>
-      </c>
       <c r="G100" s="3">
-        <v>21300</v>
+        <v>-48800</v>
       </c>
       <c r="H100" s="3">
-        <v>84800</v>
+        <v>21600</v>
       </c>
       <c r="I100" s="3">
-        <v>8000</v>
+        <v>86200</v>
       </c>
       <c r="J100" s="3">
+        <v>8100</v>
+      </c>
+      <c r="K100" s="3">
         <v>1646700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>82900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>26100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-5200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>196900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>754900</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-8700</v>
+        <v>7200</v>
       </c>
       <c r="E101" s="3">
-        <v>17100</v>
+        <v>-8800</v>
       </c>
       <c r="F101" s="3">
-        <v>1800</v>
+        <v>17400</v>
       </c>
       <c r="G101" s="3">
-        <v>-13300</v>
+        <v>1900</v>
       </c>
       <c r="H101" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="I101" s="3">
         <v>-1100</v>
       </c>
-      <c r="I101" s="3">
-        <v>-10800</v>
-      </c>
       <c r="J101" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="K101" s="3">
         <v>6400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-8800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>7500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1500</v>
-      </c>
-      <c r="O101" s="3">
-        <v>300</v>
       </c>
       <c r="P101" s="3">
         <v>300</v>
       </c>
       <c r="Q101" s="3">
+        <v>300</v>
+      </c>
+      <c r="R101" s="3">
         <v>5300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-358500</v>
+        <v>1500</v>
       </c>
       <c r="E102" s="3">
-        <v>158500</v>
+        <v>-364300</v>
       </c>
       <c r="F102" s="3">
-        <v>-239300</v>
+        <v>161100</v>
       </c>
       <c r="G102" s="3">
-        <v>-211800</v>
+        <v>-243200</v>
       </c>
       <c r="H102" s="3">
-        <v>-75600</v>
+        <v>-215200</v>
       </c>
       <c r="I102" s="3">
-        <v>-32000</v>
+        <v>-76800</v>
       </c>
       <c r="J102" s="3">
+        <v>-32500</v>
+      </c>
+      <c r="K102" s="3">
         <v>1474100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-50200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-147700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-13800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-18800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-63000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>46000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>767000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>LN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,138 +665,145 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>565500</v>
+        <v>873200</v>
       </c>
       <c r="E8" s="3">
-        <v>559000</v>
+        <v>575700</v>
       </c>
       <c r="F8" s="3">
-        <v>576800</v>
+        <v>569100</v>
       </c>
       <c r="G8" s="3">
-        <v>542200</v>
+        <v>587100</v>
       </c>
       <c r="H8" s="3">
-        <v>535100</v>
+        <v>552000</v>
       </c>
       <c r="I8" s="3">
-        <v>523700</v>
+        <v>544800</v>
       </c>
       <c r="J8" s="3">
+        <v>533100</v>
+      </c>
+      <c r="K8" s="3">
         <v>687700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>482600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>547900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>453900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>419500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>389000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>456300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>348100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>338300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>320200</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,61 +1101,67 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>62500</v>
+        <v>64100</v>
       </c>
       <c r="E15" s="3">
-        <v>61200</v>
+        <v>63600</v>
       </c>
       <c r="F15" s="3">
-        <v>60500</v>
+        <v>62300</v>
       </c>
       <c r="G15" s="3">
-        <v>54300</v>
+        <v>61600</v>
       </c>
       <c r="H15" s="3">
-        <v>50800</v>
+        <v>55300</v>
       </c>
       <c r="I15" s="3">
-        <v>48900</v>
+        <v>51800</v>
       </c>
       <c r="J15" s="3">
+        <v>49800</v>
+      </c>
+      <c r="K15" s="3">
         <v>31000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>27000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>23800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>21100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>20400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>16900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>13900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>13100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>12800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>656100</v>
+        <v>670200</v>
       </c>
       <c r="E17" s="3">
-        <v>600200</v>
+        <v>667900</v>
       </c>
       <c r="F17" s="3">
-        <v>685100</v>
+        <v>611000</v>
       </c>
       <c r="G17" s="3">
-        <v>596000</v>
+        <v>697400</v>
       </c>
       <c r="H17" s="3">
-        <v>666600</v>
+        <v>606800</v>
       </c>
       <c r="I17" s="3">
-        <v>598200</v>
+        <v>678600</v>
       </c>
       <c r="J17" s="3">
+        <v>609000</v>
+      </c>
+      <c r="K17" s="3">
         <v>599300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>515800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>465500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>442600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>414100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>336100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>324300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>312400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>324100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>276500</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-90600</v>
+        <v>203000</v>
       </c>
       <c r="E18" s="3">
-        <v>-41100</v>
+        <v>-92200</v>
       </c>
       <c r="F18" s="3">
-        <v>-108300</v>
+        <v>-41900</v>
       </c>
       <c r="G18" s="3">
-        <v>-53900</v>
+        <v>-110300</v>
       </c>
       <c r="H18" s="3">
-        <v>-131400</v>
+        <v>-54800</v>
       </c>
       <c r="I18" s="3">
-        <v>-74500</v>
+        <v>-133800</v>
       </c>
       <c r="J18" s="3">
+        <v>-75800</v>
+      </c>
+      <c r="K18" s="3">
         <v>88400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-33200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>82500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>11300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>5400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>52900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>132000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>35700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>14200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>43700</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,114 +1312,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-37100</v>
+        <v>-208200</v>
       </c>
       <c r="E20" s="3">
-        <v>-54100</v>
+        <v>-37800</v>
       </c>
       <c r="F20" s="3">
-        <v>-37000</v>
+        <v>-55000</v>
       </c>
       <c r="G20" s="3">
-        <v>-19200</v>
+        <v>-37600</v>
       </c>
       <c r="H20" s="3">
-        <v>-31100</v>
+        <v>-19500</v>
       </c>
       <c r="I20" s="3">
-        <v>-31900</v>
+        <v>-31700</v>
       </c>
       <c r="J20" s="3">
+        <v>-32500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-54600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-30500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-20900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-12500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-33000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-14600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-10900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-4100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>9900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-65200</v>
+        <v>58900</v>
       </c>
       <c r="E21" s="3">
-        <v>-33900</v>
+        <v>-66300</v>
       </c>
       <c r="F21" s="3">
-        <v>-84800</v>
+        <v>-34500</v>
       </c>
       <c r="G21" s="3">
-        <v>-18700</v>
+        <v>-86300</v>
       </c>
       <c r="H21" s="3">
-        <v>-111700</v>
+        <v>-19000</v>
       </c>
       <c r="I21" s="3">
-        <v>-57500</v>
+        <v>-113700</v>
       </c>
       <c r="J21" s="3">
+        <v>-58500</v>
+      </c>
+      <c r="K21" s="3">
         <v>64800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-36800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>85400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>19800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-7200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>55200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>135000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>44700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>36900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>53300</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,114 +1478,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-127700</v>
+        <v>-5200</v>
       </c>
       <c r="E23" s="3">
-        <v>-95200</v>
+        <v>-130000</v>
       </c>
       <c r="F23" s="3">
-        <v>-145300</v>
+        <v>-96900</v>
       </c>
       <c r="G23" s="3">
-        <v>-73000</v>
+        <v>-147900</v>
       </c>
       <c r="H23" s="3">
-        <v>-162600</v>
+        <v>-74300</v>
       </c>
       <c r="I23" s="3">
-        <v>-106400</v>
+        <v>-165500</v>
       </c>
       <c r="J23" s="3">
+        <v>-108300</v>
+      </c>
+      <c r="K23" s="3">
         <v>33800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-63700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>61600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-27600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>38300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>121100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>31600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>24200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>40600</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>4000</v>
+        <v>103600</v>
       </c>
       <c r="E24" s="3">
-        <v>4600</v>
+        <v>4100</v>
       </c>
       <c r="F24" s="3">
-        <v>-2100</v>
+        <v>4700</v>
       </c>
       <c r="G24" s="3">
-        <v>10100</v>
+        <v>-2200</v>
       </c>
       <c r="H24" s="3">
+        <v>10300</v>
+      </c>
+      <c r="I24" s="3">
         <v>800</v>
       </c>
-      <c r="I24" s="3">
-        <v>-5200</v>
-      </c>
       <c r="J24" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="K24" s="3">
         <v>19400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>25400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>28200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>14800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>8300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>23500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>40400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>17100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>9600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-131700</v>
+        <v>-108800</v>
       </c>
       <c r="E26" s="3">
-        <v>-99800</v>
+        <v>-134000</v>
       </c>
       <c r="F26" s="3">
-        <v>-143200</v>
+        <v>-101600</v>
       </c>
       <c r="G26" s="3">
-        <v>-83100</v>
+        <v>-145800</v>
       </c>
       <c r="H26" s="3">
-        <v>-163400</v>
+        <v>-84600</v>
       </c>
       <c r="I26" s="3">
-        <v>-101200</v>
+        <v>-166300</v>
       </c>
       <c r="J26" s="3">
+        <v>-103000</v>
+      </c>
+      <c r="K26" s="3">
         <v>14400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-89100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>33400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-16000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-35900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>14800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>80600</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>14500</v>
       </c>
       <c r="R26" s="3">
         <v>14500</v>
       </c>
       <c r="S26" s="3">
+        <v>14500</v>
+      </c>
+      <c r="T26" s="3">
         <v>25900</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-112100</v>
+        <v>-86700</v>
       </c>
       <c r="E27" s="3">
-        <v>-78200</v>
+        <v>-114200</v>
       </c>
       <c r="F27" s="3">
-        <v>-127600</v>
+        <v>-79600</v>
       </c>
       <c r="G27" s="3">
-        <v>-69300</v>
+        <v>-129900</v>
       </c>
       <c r="H27" s="3">
-        <v>-153900</v>
+        <v>-70500</v>
       </c>
       <c r="I27" s="3">
-        <v>-97400</v>
+        <v>-156600</v>
       </c>
       <c r="J27" s="3">
+        <v>-99200</v>
+      </c>
+      <c r="K27" s="3">
         <v>18700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-83400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>39000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-12500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-36100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>16300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>79900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>12800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>14800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>25300</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,22 +1814,25 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
       <c r="F29" s="3">
-        <v>5500</v>
+        <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>0</v>
+        <v>5600</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -1780,11 +1841,11 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>3500</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
@@ -1804,13 +1865,16 @@
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-1900</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>37100</v>
+        <v>208200</v>
       </c>
       <c r="E32" s="3">
-        <v>54100</v>
+        <v>37800</v>
       </c>
       <c r="F32" s="3">
-        <v>37000</v>
+        <v>55000</v>
       </c>
       <c r="G32" s="3">
-        <v>19200</v>
+        <v>37600</v>
       </c>
       <c r="H32" s="3">
-        <v>31100</v>
+        <v>19500</v>
       </c>
       <c r="I32" s="3">
-        <v>31900</v>
+        <v>31700</v>
       </c>
       <c r="J32" s="3">
+        <v>32500</v>
+      </c>
+      <c r="K32" s="3">
         <v>54600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>30500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>20900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>12500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>33000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>14600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>10900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>4100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-9900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-112100</v>
+        <v>-86700</v>
       </c>
       <c r="E33" s="3">
-        <v>-78200</v>
+        <v>-114200</v>
       </c>
       <c r="F33" s="3">
-        <v>-122000</v>
+        <v>-79600</v>
       </c>
       <c r="G33" s="3">
-        <v>-69300</v>
+        <v>-124200</v>
       </c>
       <c r="H33" s="3">
-        <v>-153900</v>
+        <v>-70600</v>
       </c>
       <c r="I33" s="3">
-        <v>-97400</v>
+        <v>-156700</v>
       </c>
       <c r="J33" s="3">
+        <v>-99100</v>
+      </c>
+      <c r="K33" s="3">
         <v>22200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-83400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>39000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-12500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-36100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>16300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>79900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>12700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>12800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-112100</v>
+        <v>-86700</v>
       </c>
       <c r="E35" s="3">
-        <v>-78200</v>
+        <v>-114200</v>
       </c>
       <c r="F35" s="3">
-        <v>-122000</v>
+        <v>-79600</v>
       </c>
       <c r="G35" s="3">
-        <v>-69300</v>
+        <v>-124200</v>
       </c>
       <c r="H35" s="3">
-        <v>-153900</v>
+        <v>-70600</v>
       </c>
       <c r="I35" s="3">
-        <v>-97400</v>
+        <v>-156700</v>
       </c>
       <c r="J35" s="3">
+        <v>-99100</v>
+      </c>
+      <c r="K35" s="3">
         <v>22200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-83400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>39000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-12500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-36100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>16300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>79900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>12700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>12800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,485 +2313,513 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1689000</v>
+        <v>1603100</v>
       </c>
       <c r="E41" s="3">
-        <v>1687500</v>
+        <v>1719400</v>
       </c>
       <c r="F41" s="3">
-        <v>2051700</v>
+        <v>1717900</v>
       </c>
       <c r="G41" s="3">
-        <v>1890600</v>
+        <v>2088700</v>
       </c>
       <c r="H41" s="3">
-        <v>2133800</v>
+        <v>1924700</v>
       </c>
       <c r="I41" s="3">
-        <v>2349000</v>
+        <v>2172200</v>
       </c>
       <c r="J41" s="3">
+        <v>2391300</v>
+      </c>
+      <c r="K41" s="3">
         <v>2425900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2419300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>924800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>969700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1117400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1120800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1134600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1131700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1194800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1148800</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>263400</v>
+        <v>442500</v>
       </c>
       <c r="E42" s="3">
-        <v>186400</v>
+        <v>268100</v>
       </c>
       <c r="F42" s="3">
-        <v>189900</v>
+        <v>189800</v>
       </c>
       <c r="G42" s="3">
-        <v>255700</v>
+        <v>193300</v>
       </c>
       <c r="H42" s="3">
-        <v>226800</v>
+        <v>260300</v>
       </c>
       <c r="I42" s="3">
-        <v>213000</v>
+        <v>230900</v>
       </c>
       <c r="J42" s="3">
+        <v>216800</v>
+      </c>
+      <c r="K42" s="3">
         <v>28000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>39100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>32500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>27800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>7700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>26000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>43900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>35700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>44500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>492800</v>
+        <v>487200</v>
       </c>
       <c r="E43" s="3">
-        <v>428100</v>
+        <v>501600</v>
       </c>
       <c r="F43" s="3">
-        <v>405200</v>
+        <v>435800</v>
       </c>
       <c r="G43" s="3">
-        <v>387600</v>
+        <v>412500</v>
       </c>
       <c r="H43" s="3">
-        <v>373700</v>
+        <v>394500</v>
       </c>
       <c r="I43" s="3">
-        <v>390600</v>
+        <v>380400</v>
       </c>
       <c r="J43" s="3">
+        <v>397700</v>
+      </c>
+      <c r="K43" s="3">
         <v>364200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>383800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>349400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>355800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>389600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>328500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>302600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>282700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>249800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>224500</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>105000</v>
+        <v>88100</v>
       </c>
       <c r="E44" s="3">
-        <v>56800</v>
+        <v>106900</v>
       </c>
       <c r="F44" s="3">
-        <v>44700</v>
+        <v>57800</v>
       </c>
       <c r="G44" s="3">
-        <v>59300</v>
+        <v>45600</v>
       </c>
       <c r="H44" s="3">
-        <v>36400</v>
+        <v>60400</v>
       </c>
       <c r="I44" s="3">
-        <v>49700</v>
+        <v>37000</v>
       </c>
       <c r="J44" s="3">
+        <v>50600</v>
+      </c>
+      <c r="K44" s="3">
         <v>46100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>56300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>29500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>26000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>31200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>26400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>22800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>12400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>8500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>88700</v>
+        <v>97900</v>
       </c>
       <c r="E45" s="3">
-        <v>83000</v>
+        <v>90300</v>
       </c>
       <c r="F45" s="3">
+        <v>84500</v>
+      </c>
+      <c r="G45" s="3">
+        <v>101100</v>
+      </c>
+      <c r="H45" s="3">
+        <v>101300</v>
+      </c>
+      <c r="I45" s="3">
         <v>99300</v>
       </c>
-      <c r="G45" s="3">
-        <v>99500</v>
-      </c>
-      <c r="H45" s="3">
-        <v>97500</v>
-      </c>
-      <c r="I45" s="3">
-        <v>118800</v>
-      </c>
       <c r="J45" s="3">
+        <v>120900</v>
+      </c>
+      <c r="K45" s="3">
         <v>208700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>205700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>200900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>200600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>177500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>86800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>54300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>60500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>52000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>41400</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2638700</v>
+        <v>2718800</v>
       </c>
       <c r="E46" s="3">
-        <v>2441800</v>
+        <v>2686300</v>
       </c>
       <c r="F46" s="3">
-        <v>2790900</v>
+        <v>2485800</v>
       </c>
       <c r="G46" s="3">
-        <v>2692700</v>
+        <v>2841100</v>
       </c>
       <c r="H46" s="3">
-        <v>2868200</v>
+        <v>2741200</v>
       </c>
       <c r="I46" s="3">
-        <v>3121100</v>
+        <v>2919800</v>
       </c>
       <c r="J46" s="3">
+        <v>3177300</v>
+      </c>
+      <c r="K46" s="3">
         <v>3072900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3104200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1537200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1579900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1723500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1588400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1558300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1523100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1549600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1422700</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1338000</v>
+        <v>1511600</v>
       </c>
       <c r="E47" s="3">
-        <v>1205400</v>
+        <v>1362100</v>
       </c>
       <c r="F47" s="3">
-        <v>1094400</v>
+        <v>1227100</v>
       </c>
       <c r="G47" s="3">
-        <v>1101600</v>
+        <v>1114100</v>
       </c>
       <c r="H47" s="3">
-        <v>1042500</v>
+        <v>1121400</v>
       </c>
       <c r="I47" s="3">
-        <v>891700</v>
+        <v>1061300</v>
       </c>
       <c r="J47" s="3">
+        <v>907700</v>
+      </c>
+      <c r="K47" s="3">
         <v>820600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>685800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>611300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>526600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>456500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>433300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>419800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>283500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>355900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>169200</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>788600</v>
+        <v>764200</v>
       </c>
       <c r="E48" s="3">
-        <v>826300</v>
+        <v>802800</v>
       </c>
       <c r="F48" s="3">
-        <v>749200</v>
+        <v>841100</v>
       </c>
       <c r="G48" s="3">
-        <v>771400</v>
+        <v>762700</v>
       </c>
       <c r="H48" s="3">
-        <v>775700</v>
+        <v>785300</v>
       </c>
       <c r="I48" s="3">
-        <v>698000</v>
+        <v>789700</v>
       </c>
       <c r="J48" s="3">
+        <v>710600</v>
+      </c>
+      <c r="K48" s="3">
         <v>233400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>215200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>174000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>162900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>136700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>123600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>115800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>118400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>80100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>73500</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>245900</v>
+        <v>231600</v>
       </c>
       <c r="E49" s="3">
-        <v>244900</v>
+        <v>250300</v>
       </c>
       <c r="F49" s="3">
-        <v>240300</v>
+        <v>249400</v>
       </c>
       <c r="G49" s="3">
-        <v>236700</v>
+        <v>244600</v>
       </c>
       <c r="H49" s="3">
-        <v>243400</v>
+        <v>241000</v>
       </c>
       <c r="I49" s="3">
-        <v>218000</v>
+        <v>247700</v>
       </c>
       <c r="J49" s="3">
+        <v>221900</v>
+      </c>
+      <c r="K49" s="3">
         <v>211400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>215900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>207000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>208500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>210200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>123100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>67400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>44400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>46600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>44900</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>244000</v>
+        <v>235500</v>
       </c>
       <c r="E52" s="3">
-        <v>235700</v>
+        <v>248400</v>
       </c>
       <c r="F52" s="3">
-        <v>235700</v>
+        <v>240000</v>
       </c>
       <c r="G52" s="3">
-        <v>205100</v>
+        <v>239900</v>
       </c>
       <c r="H52" s="3">
-        <v>183100</v>
+        <v>208800</v>
       </c>
       <c r="I52" s="3">
-        <v>178300</v>
+        <v>186400</v>
       </c>
       <c r="J52" s="3">
+        <v>181500</v>
+      </c>
+      <c r="K52" s="3">
         <v>255200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>245600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>215300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>215400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>216200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>293700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>285000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>321400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>239300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>224100</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5255200</v>
+        <v>5461700</v>
       </c>
       <c r="E54" s="3">
-        <v>4954200</v>
+        <v>5349800</v>
       </c>
       <c r="F54" s="3">
-        <v>5110400</v>
+        <v>5043400</v>
       </c>
       <c r="G54" s="3">
-        <v>5007400</v>
+        <v>5202400</v>
       </c>
       <c r="H54" s="3">
-        <v>5112900</v>
+        <v>5097500</v>
       </c>
       <c r="I54" s="3">
-        <v>5107000</v>
+        <v>5204900</v>
       </c>
       <c r="J54" s="3">
+        <v>5199000</v>
+      </c>
+      <c r="K54" s="3">
         <v>4593400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4466700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2744900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2693300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2743100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2562000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2446300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2290800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2271500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1934400</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3064,273 +3195,291 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>128100</v>
+        <v>129000</v>
       </c>
       <c r="E58" s="3">
-        <v>124200</v>
+        <v>130400</v>
       </c>
       <c r="F58" s="3">
-        <v>108400</v>
+        <v>126400</v>
       </c>
       <c r="G58" s="3">
-        <v>106500</v>
+        <v>110400</v>
       </c>
       <c r="H58" s="3">
-        <v>104300</v>
+        <v>108500</v>
       </c>
       <c r="I58" s="3">
-        <v>89200</v>
+        <v>106100</v>
       </c>
       <c r="J58" s="3">
+        <v>90800</v>
+      </c>
+      <c r="K58" s="3">
         <v>217800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>215900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>201700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>202700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>201300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>199700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>180400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>185100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>194500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1540600</v>
+        <v>3072200</v>
       </c>
       <c r="E59" s="3">
-        <v>1310400</v>
+        <v>1568300</v>
       </c>
       <c r="F59" s="3">
-        <v>1417600</v>
+        <v>1334000</v>
       </c>
       <c r="G59" s="3">
-        <v>1254300</v>
+        <v>1443200</v>
       </c>
       <c r="H59" s="3">
-        <v>1274300</v>
+        <v>1276900</v>
       </c>
       <c r="I59" s="3">
-        <v>1210700</v>
+        <v>1297200</v>
       </c>
       <c r="J59" s="3">
+        <v>1232500</v>
+      </c>
+      <c r="K59" s="3">
         <v>945400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>850200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>716500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>705700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>715500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>614400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>560400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>535600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>572200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>466900</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1668600</v>
+        <v>3201200</v>
       </c>
       <c r="E60" s="3">
-        <v>1434500</v>
+        <v>1698700</v>
       </c>
       <c r="F60" s="3">
-        <v>1526100</v>
+        <v>1460400</v>
       </c>
       <c r="G60" s="3">
-        <v>1360800</v>
+        <v>1553500</v>
       </c>
       <c r="H60" s="3">
-        <v>1378500</v>
+        <v>1385300</v>
       </c>
       <c r="I60" s="3">
-        <v>1299900</v>
+        <v>1403400</v>
       </c>
       <c r="J60" s="3">
+        <v>1323300</v>
+      </c>
+      <c r="K60" s="3">
         <v>1163300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1066100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>918200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>908400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>916800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>814100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>740800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>720700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>766700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>469200</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1823800</v>
+        <v>455400</v>
       </c>
       <c r="E61" s="3">
-        <v>1849300</v>
+        <v>1856600</v>
       </c>
       <c r="F61" s="3">
-        <v>1774700</v>
+        <v>1882600</v>
       </c>
       <c r="G61" s="3">
-        <v>1784700</v>
+        <v>1806700</v>
       </c>
       <c r="H61" s="3">
-        <v>1785200</v>
+        <v>1816800</v>
       </c>
       <c r="I61" s="3">
-        <v>1720100</v>
+        <v>1817300</v>
       </c>
       <c r="J61" s="3">
+        <v>1751000</v>
+      </c>
+      <c r="K61" s="3">
         <v>1341700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1318500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>300</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>209000</v>
+        <v>254300</v>
       </c>
       <c r="E62" s="3">
-        <v>156700</v>
+        <v>212800</v>
       </c>
       <c r="F62" s="3">
-        <v>160800</v>
+        <v>159500</v>
       </c>
       <c r="G62" s="3">
-        <v>139100</v>
+        <v>163600</v>
       </c>
       <c r="H62" s="3">
-        <v>131600</v>
+        <v>141600</v>
       </c>
       <c r="I62" s="3">
-        <v>129500</v>
+        <v>134000</v>
       </c>
       <c r="J62" s="3">
+        <v>131800</v>
+      </c>
+      <c r="K62" s="3">
         <v>120000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>116700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>102800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>108100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>103400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>108100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>103300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>101200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>76600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>74700</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3910800</v>
+        <v>4078800</v>
       </c>
       <c r="E66" s="3">
-        <v>3575300</v>
+        <v>3981200</v>
       </c>
       <c r="F66" s="3">
-        <v>3617600</v>
+        <v>3639700</v>
       </c>
       <c r="G66" s="3">
-        <v>3451200</v>
+        <v>3682700</v>
       </c>
       <c r="H66" s="3">
-        <v>3492000</v>
+        <v>3513400</v>
       </c>
       <c r="I66" s="3">
-        <v>3327100</v>
+        <v>3554800</v>
       </c>
       <c r="J66" s="3">
+        <v>3387000</v>
+      </c>
+      <c r="K66" s="3">
         <v>2715600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2609900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1055500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1056200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1070000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>959500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>852300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>825700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>844900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>546500</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-654500</v>
+        <v>-752700</v>
       </c>
       <c r="E72" s="3">
-        <v>-583400</v>
+        <v>-666300</v>
       </c>
       <c r="F72" s="3">
-        <v>-505300</v>
+        <v>-593900</v>
       </c>
       <c r="G72" s="3">
-        <v>-372600</v>
+        <v>-514400</v>
       </c>
       <c r="H72" s="3">
-        <v>-303300</v>
+        <v>-379300</v>
       </c>
       <c r="I72" s="3">
-        <v>-149800</v>
+        <v>-308800</v>
       </c>
       <c r="J72" s="3">
+        <v>-152500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-52400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-94400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-10900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-49700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-38800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-19000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-97000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-109800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-122700</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1344400</v>
+        <v>1382800</v>
       </c>
       <c r="E76" s="3">
-        <v>1378900</v>
+        <v>1368700</v>
       </c>
       <c r="F76" s="3">
-        <v>1492800</v>
+        <v>1403700</v>
       </c>
       <c r="G76" s="3">
-        <v>1556100</v>
+        <v>1519700</v>
       </c>
       <c r="H76" s="3">
-        <v>1620900</v>
+        <v>1584200</v>
       </c>
       <c r="I76" s="3">
-        <v>1779900</v>
+        <v>1650100</v>
       </c>
       <c r="J76" s="3">
+        <v>1812000</v>
+      </c>
+      <c r="K76" s="3">
         <v>1877800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1856800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1689400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1637100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1673100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1602600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1594000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1465100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1426600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1388000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-112100</v>
+        <v>-86700</v>
       </c>
       <c r="E81" s="3">
-        <v>-78200</v>
+        <v>-114200</v>
       </c>
       <c r="F81" s="3">
-        <v>-122000</v>
+        <v>-79600</v>
       </c>
       <c r="G81" s="3">
-        <v>-69300</v>
+        <v>-124200</v>
       </c>
       <c r="H81" s="3">
-        <v>-153900</v>
+        <v>-70600</v>
       </c>
       <c r="I81" s="3">
-        <v>-97400</v>
+        <v>-156700</v>
       </c>
       <c r="J81" s="3">
+        <v>-99100</v>
+      </c>
+      <c r="K81" s="3">
         <v>22200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-83400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>39000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-12500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-36100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>16300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>79900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>12700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>12800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>62500</v>
+        <v>64100</v>
       </c>
       <c r="E83" s="3">
-        <v>61200</v>
+        <v>63600</v>
       </c>
       <c r="F83" s="3">
-        <v>60500</v>
+        <v>62300</v>
       </c>
       <c r="G83" s="3">
-        <v>54300</v>
+        <v>61600</v>
       </c>
       <c r="H83" s="3">
-        <v>50800</v>
+        <v>55300</v>
       </c>
       <c r="I83" s="3">
-        <v>48900</v>
+        <v>51800</v>
       </c>
       <c r="J83" s="3">
+        <v>49800</v>
+      </c>
+      <c r="K83" s="3">
         <v>31000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>27000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>23800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>21100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>20400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>16900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>13900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>13100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>12800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>47200</v>
+        <v>1100</v>
       </c>
       <c r="E89" s="3">
-        <v>-153500</v>
+        <v>48100</v>
       </c>
       <c r="F89" s="3">
-        <v>56800</v>
+        <v>-156300</v>
       </c>
       <c r="G89" s="3">
-        <v>-70200</v>
+        <v>57900</v>
       </c>
       <c r="H89" s="3">
+        <v>-71500</v>
+      </c>
+      <c r="I89" s="3">
         <v>3600</v>
       </c>
-      <c r="I89" s="3">
-        <v>-19500</v>
-      </c>
       <c r="J89" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="K89" s="3">
         <v>59500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>7900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>22500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>62300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>35200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>47100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-44600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>110000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>39800</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-53500</v>
+        <v>-44800</v>
       </c>
       <c r="E91" s="3">
+        <v>-54400</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-35700</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-36500</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-38800</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-59700</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-61000</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-55300</v>
+      </c>
+      <c r="M91" s="3">
         <v>-35100</v>
       </c>
-      <c r="F91" s="3">
-        <v>-13600</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-35800</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-38100</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-58700</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-61000</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-55300</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-35100</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-42200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-38000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-23700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-31600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-20400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-25500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-169100</v>
+        <v>-201800</v>
       </c>
       <c r="E94" s="3">
-        <v>-178700</v>
+        <v>-172200</v>
       </c>
       <c r="F94" s="3">
-        <v>88200</v>
+        <v>-181900</v>
       </c>
       <c r="G94" s="3">
-        <v>-126000</v>
+        <v>89700</v>
       </c>
       <c r="H94" s="3">
-        <v>-226900</v>
+        <v>-128300</v>
       </c>
       <c r="I94" s="3">
-        <v>-142400</v>
+        <v>-231000</v>
       </c>
       <c r="J94" s="3">
+        <v>-145000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-89200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-174000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-60400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-163200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-156100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-73700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-61100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-18200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-266300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-29300</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>116200</v>
+        <v>89300</v>
       </c>
       <c r="E100" s="3">
-        <v>-23300</v>
+        <v>118300</v>
       </c>
       <c r="F100" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="G100" s="3">
         <v>-1300</v>
       </c>
-      <c r="G100" s="3">
-        <v>-48800</v>
-      </c>
       <c r="H100" s="3">
-        <v>21600</v>
+        <v>-49700</v>
       </c>
       <c r="I100" s="3">
-        <v>86200</v>
+        <v>22000</v>
       </c>
       <c r="J100" s="3">
+        <v>87700</v>
+      </c>
+      <c r="K100" s="3">
         <v>8100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1646700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>82900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>26100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>196900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>754900</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>7200</v>
+        <v>-4900</v>
       </c>
       <c r="E101" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="G101" s="3">
+        <v>17700</v>
+      </c>
+      <c r="H101" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K101" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="L101" s="3">
+        <v>6400</v>
+      </c>
+      <c r="M101" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N101" s="3">
         <v>-8800</v>
       </c>
-      <c r="F101" s="3">
-        <v>17400</v>
-      </c>
-      <c r="G101" s="3">
-        <v>1900</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-13500</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-11000</v>
-      </c>
-      <c r="K101" s="3">
-        <v>6400</v>
-      </c>
-      <c r="L101" s="3">
-        <v>1600</v>
-      </c>
-      <c r="M101" s="3">
-        <v>-8800</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>7500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1500</v>
-      </c>
-      <c r="P101" s="3">
-        <v>300</v>
       </c>
       <c r="Q101" s="3">
         <v>300</v>
       </c>
       <c r="R101" s="3">
+        <v>300</v>
+      </c>
+      <c r="S101" s="3">
         <v>5300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-116300</v>
+      </c>
+      <c r="E102" s="3">
         <v>1500</v>
       </c>
-      <c r="E102" s="3">
-        <v>-364300</v>
-      </c>
       <c r="F102" s="3">
-        <v>161100</v>
+        <v>-370800</v>
       </c>
       <c r="G102" s="3">
-        <v>-243200</v>
+        <v>164000</v>
       </c>
       <c r="H102" s="3">
-        <v>-215200</v>
+        <v>-247500</v>
       </c>
       <c r="I102" s="3">
-        <v>-76800</v>
+        <v>-219100</v>
       </c>
       <c r="J102" s="3">
+        <v>-78200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-32500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1474100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-50200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-147700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-13800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-18800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-63000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>46000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>767000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
   <si>
     <t>LN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,145 +665,165 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>873200</v>
+      <c r="D8" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E8" s="3">
-        <v>575700</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>569100</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>587100</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>552000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="L8" s="3">
         <v>544800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="M8" s="3">
         <v>533100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="N8" s="3">
         <v>687700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="O8" s="3">
         <v>482600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="P8" s="3">
         <v>547900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="Q8" s="3">
         <v>453900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="R8" s="3">
         <v>419500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="S8" s="3">
         <v>389000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="T8" s="3">
         <v>456300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="U8" s="3">
         <v>348100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="V8" s="3">
         <v>338300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="W8" s="3">
         <v>320200</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -858,8 +878,17 @@
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +943,17 @@
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +974,11 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1033,17 @@
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1098,17 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1062,17 +1121,17 @@
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1104,64 +1163,82 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>64100</v>
+        <v>100</v>
       </c>
       <c r="E15" s="3">
-        <v>63600</v>
+        <v>100</v>
       </c>
       <c r="F15" s="3">
-        <v>62300</v>
+        <v>100</v>
       </c>
       <c r="G15" s="3">
-        <v>61600</v>
+        <v>100</v>
       </c>
       <c r="H15" s="3">
+        <v>100</v>
+      </c>
+      <c r="I15" s="3">
+        <v>100</v>
+      </c>
+      <c r="J15" s="3">
+        <v>100</v>
+      </c>
+      <c r="K15" s="3">
         <v>55300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="L15" s="3">
         <v>51800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="M15" s="3">
         <v>49800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="N15" s="3">
         <v>31000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="O15" s="3">
         <v>27000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="P15" s="3">
         <v>23800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="Q15" s="3">
         <v>21100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="R15" s="3">
         <v>20400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="S15" s="3">
         <v>16900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="T15" s="3">
         <v>13900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="U15" s="3">
         <v>13100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="V15" s="3">
         <v>12800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="W15" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1256,141 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>670200</v>
+        <v>1100</v>
       </c>
       <c r="E17" s="3">
-        <v>667900</v>
+        <v>1100</v>
       </c>
       <c r="F17" s="3">
-        <v>611000</v>
+        <v>700</v>
       </c>
       <c r="G17" s="3">
-        <v>697400</v>
+        <v>800</v>
       </c>
       <c r="H17" s="3">
+        <v>600</v>
+      </c>
+      <c r="I17" s="3">
+        <v>900</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K17" s="3">
         <v>606800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>678600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>609000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>599300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>515800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
         <v>465500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="Q17" s="3">
         <v>442600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="R17" s="3">
         <v>414100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="S17" s="3">
         <v>336100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="T17" s="3">
         <v>324300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="U17" s="3">
         <v>312400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="V17" s="3">
         <v>324100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="W17" s="3">
         <v>276500</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>203000</v>
+      <c r="D18" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E18" s="3">
-        <v>-92200</v>
+        <v>-1100</v>
       </c>
       <c r="F18" s="3">
-        <v>-41900</v>
+        <v>-700</v>
       </c>
       <c r="G18" s="3">
-        <v>-110300</v>
+        <v>-800</v>
       </c>
       <c r="H18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-54800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>-133800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>-75800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>88400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
         <v>-33200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="P18" s="3">
         <v>82500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="Q18" s="3">
         <v>11300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="R18" s="3">
         <v>5400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="S18" s="3">
         <v>52900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="T18" s="3">
         <v>132000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="U18" s="3">
         <v>35700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="V18" s="3">
         <v>14200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="W18" s="3">
         <v>43700</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,120 +1411,141 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>-208200</v>
+      <c r="D20" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E20" s="3">
-        <v>-37800</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>-55000</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>-37600</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-19500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="L20" s="3">
         <v>-31700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="M20" s="3">
         <v>-32500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="N20" s="3">
         <v>-54600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="O20" s="3">
         <v>-30500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="P20" s="3">
         <v>-20900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="Q20" s="3">
         <v>-12500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="R20" s="3">
         <v>-33000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="S20" s="3">
         <v>-14600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="T20" s="3">
         <v>-10900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="U20" s="3">
         <v>-4100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="V20" s="3">
         <v>9900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="W20" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>58900</v>
+      <c r="D21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E21" s="3">
-        <v>-66300</v>
+        <v>-1000</v>
       </c>
       <c r="F21" s="3">
-        <v>-34500</v>
+        <v>-600</v>
       </c>
       <c r="G21" s="3">
-        <v>-86300</v>
+        <v>-700</v>
       </c>
       <c r="H21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K21" s="3">
         <v>-19000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
         <v>-113700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="M21" s="3">
         <v>-58500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="N21" s="3">
         <v>64800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="O21" s="3">
         <v>-36800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="P21" s="3">
         <v>85400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="Q21" s="3">
         <v>19800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="R21" s="3">
         <v>-7200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="S21" s="3">
         <v>55200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="T21" s="3">
         <v>135000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="U21" s="3">
         <v>44700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="V21" s="3">
         <v>36900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="W21" s="3">
         <v>53300</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,120 +1600,147 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-5200</v>
+        <v>-900</v>
       </c>
       <c r="E23" s="3">
-        <v>-130000</v>
+        <v>-1100</v>
       </c>
       <c r="F23" s="3">
-        <v>-96900</v>
+        <v>-700</v>
       </c>
       <c r="G23" s="3">
-        <v>-147900</v>
+        <v>-800</v>
       </c>
       <c r="H23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-74300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>-165500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>-108300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>33800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
         <v>-63700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>61600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="Q23" s="3">
         <v>-1200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="R23" s="3">
         <v>-27600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="S23" s="3">
         <v>38300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="T23" s="3">
         <v>121100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="U23" s="3">
         <v>31600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="V23" s="3">
         <v>24200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="W23" s="3">
         <v>40600</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>103600</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>4100</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>4700</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>-2200</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>10300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="L24" s="3">
         <v>800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="M24" s="3">
         <v>-5300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="N24" s="3">
         <v>19400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="O24" s="3">
         <v>25400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="P24" s="3">
         <v>28200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="Q24" s="3">
         <v>14800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="R24" s="3">
         <v>8300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="S24" s="3">
         <v>23500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="T24" s="3">
         <v>40400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="U24" s="3">
         <v>17100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="V24" s="3">
         <v>9600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="W24" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1795,147 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-108800</v>
+        <v>-900</v>
       </c>
       <c r="E26" s="3">
-        <v>-134000</v>
+        <v>-1100</v>
       </c>
       <c r="F26" s="3">
-        <v>-101600</v>
+        <v>-700</v>
       </c>
       <c r="G26" s="3">
-        <v>-145800</v>
+        <v>-800</v>
       </c>
       <c r="H26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-84600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>-166300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>-103000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>14400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
         <v>-89100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="P26" s="3">
         <v>33400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="Q26" s="3">
         <v>-16000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="R26" s="3">
         <v>-35900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="S26" s="3">
         <v>14800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="T26" s="3">
         <v>80600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="U26" s="3">
         <v>14500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="V26" s="3">
         <v>14500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="W26" s="3">
         <v>25900</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-86700</v>
+        <v>-900</v>
       </c>
       <c r="E27" s="3">
-        <v>-114200</v>
+        <v>-1100</v>
       </c>
       <c r="F27" s="3">
-        <v>-79600</v>
+        <v>-700</v>
       </c>
       <c r="G27" s="3">
-        <v>-129900</v>
+        <v>-800</v>
       </c>
       <c r="H27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-70500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>-156600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>-99200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>18700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="O27" s="3">
         <v>-83400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3">
         <v>39000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="Q27" s="3">
         <v>-12500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="R27" s="3">
         <v>-36100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="S27" s="3">
         <v>16300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="T27" s="3">
         <v>79900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="U27" s="3">
         <v>12800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="V27" s="3">
         <v>14800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="W27" s="3">
         <v>25300</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,22 +1990,31 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
         <v>0</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
+      <c r="E29" s="3">
+        <v>0</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>5600</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -1844,17 +2026,17 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>3500</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
@@ -1868,13 +2050,22 @@
         <v>0</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>-1900</v>
       </c>
-      <c r="T29" s="3">
+      <c r="W29" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2120,17 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2185,147 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>208200</v>
+      <c r="D32" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E32" s="3">
-        <v>37800</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>55000</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>37600</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K32" s="3">
         <v>19500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="L32" s="3">
         <v>31700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="M32" s="3">
         <v>32500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="N32" s="3">
         <v>54600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="O32" s="3">
         <v>30500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="P32" s="3">
         <v>20900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="Q32" s="3">
         <v>12500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="R32" s="3">
         <v>33000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="S32" s="3">
         <v>14600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="T32" s="3">
         <v>10900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="U32" s="3">
         <v>4100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="V32" s="3">
         <v>-9900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="W32" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-86700</v>
+        <v>-900</v>
       </c>
       <c r="E33" s="3">
-        <v>-114200</v>
+        <v>-1100</v>
       </c>
       <c r="F33" s="3">
-        <v>-79600</v>
+        <v>-700</v>
       </c>
       <c r="G33" s="3">
-        <v>-124200</v>
+        <v>-800</v>
       </c>
       <c r="H33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-70600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>-156700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>-99100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>22200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
         <v>-83400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>39000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="Q33" s="3">
         <v>-12500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="R33" s="3">
         <v>-36100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="S33" s="3">
         <v>16300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="T33" s="3">
         <v>79900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="U33" s="3">
         <v>12700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="V33" s="3">
         <v>12800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="W33" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2380,152 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-86700</v>
+        <v>-900</v>
       </c>
       <c r="E35" s="3">
-        <v>-114200</v>
+        <v>-1100</v>
       </c>
       <c r="F35" s="3">
-        <v>-79600</v>
+        <v>-700</v>
       </c>
       <c r="G35" s="3">
-        <v>-124200</v>
+        <v>-800</v>
       </c>
       <c r="H35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-70600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>-156700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>-99100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>22200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
         <v>-83400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>39000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="Q35" s="3">
         <v>-12500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="R35" s="3">
         <v>-36100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="S35" s="3">
         <v>16300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="T35" s="3">
         <v>79900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="U35" s="3">
         <v>12700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="V35" s="3">
         <v>12800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="W35" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2546,11 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,512 +2571,596 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1603100</v>
+        <v>500</v>
       </c>
       <c r="E41" s="3">
-        <v>1719400</v>
+        <v>2100</v>
       </c>
       <c r="F41" s="3">
-        <v>1717900</v>
+        <v>300</v>
       </c>
       <c r="G41" s="3">
-        <v>2088700</v>
+        <v>2300</v>
       </c>
       <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
+        <v>300</v>
+      </c>
+      <c r="J41" s="3">
+        <v>100</v>
+      </c>
+      <c r="K41" s="3">
         <v>1924700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="L41" s="3">
         <v>2172200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="M41" s="3">
         <v>2391300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="N41" s="3">
         <v>2425900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="O41" s="3">
         <v>2419300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="P41" s="3">
         <v>924800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="Q41" s="3">
         <v>969700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="R41" s="3">
         <v>1117400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="S41" s="3">
         <v>1120800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="T41" s="3">
         <v>1134600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="U41" s="3">
         <v>1131700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="V41" s="3">
         <v>1194800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="W41" s="3">
         <v>1148800</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>442500</v>
+        <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>268100</v>
+        <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>189800</v>
+        <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>193300</v>
+        <v>0</v>
       </c>
       <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>260300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="L42" s="3">
         <v>230900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="M42" s="3">
         <v>216800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="N42" s="3">
         <v>28000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="O42" s="3">
         <v>39100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="P42" s="3">
         <v>32500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="Q42" s="3">
         <v>27800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="R42" s="3">
         <v>7700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="S42" s="3">
         <v>26000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="T42" s="3">
         <v>43900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="U42" s="3">
         <v>35700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="V42" s="3">
         <v>44500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="W42" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>487200</v>
+        <v>400</v>
       </c>
       <c r="E43" s="3">
-        <v>501600</v>
+        <v>300</v>
       </c>
       <c r="F43" s="3">
-        <v>435800</v>
+        <v>300</v>
       </c>
       <c r="G43" s="3">
-        <v>412500</v>
+        <v>300</v>
       </c>
       <c r="H43" s="3">
+        <v>100</v>
+      </c>
+      <c r="I43" s="3">
+        <v>200</v>
+      </c>
+      <c r="J43" s="3">
+        <v>100</v>
+      </c>
+      <c r="K43" s="3">
         <v>394500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="L43" s="3">
         <v>380400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="M43" s="3">
         <v>397700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="N43" s="3">
         <v>364200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="O43" s="3">
         <v>383800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="P43" s="3">
         <v>349400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="Q43" s="3">
         <v>355800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="R43" s="3">
         <v>389600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="S43" s="3">
         <v>328500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="T43" s="3">
         <v>302600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="U43" s="3">
         <v>282700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="V43" s="3">
         <v>249800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="W43" s="3">
         <v>224500</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>88100</v>
+        <v>0</v>
       </c>
       <c r="E44" s="3">
-        <v>106900</v>
+        <v>0</v>
       </c>
       <c r="F44" s="3">
-        <v>57800</v>
+        <v>0</v>
       </c>
       <c r="G44" s="3">
-        <v>45600</v>
+        <v>0</v>
       </c>
       <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3">
         <v>60400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="L44" s="3">
         <v>37000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="M44" s="3">
         <v>50600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="N44" s="3">
         <v>46100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="O44" s="3">
         <v>56300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="P44" s="3">
         <v>29500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="Q44" s="3">
         <v>26000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="R44" s="3">
         <v>31200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="S44" s="3">
         <v>26400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="T44" s="3">
         <v>22800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="U44" s="3">
         <v>12400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="V44" s="3">
         <v>8500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="W44" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>97900</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
-        <v>90300</v>
-      </c>
-      <c r="F45" s="3">
-        <v>84500</v>
-      </c>
-      <c r="G45" s="3">
-        <v>101100</v>
-      </c>
-      <c r="H45" s="3">
+        <v>200</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K45" s="3">
         <v>101300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="L45" s="3">
         <v>99300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="M45" s="3">
         <v>120900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="N45" s="3">
         <v>208700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="O45" s="3">
         <v>205700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="P45" s="3">
         <v>200900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="Q45" s="3">
         <v>200600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="R45" s="3">
         <v>177500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="S45" s="3">
         <v>86800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="T45" s="3">
         <v>54300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="U45" s="3">
         <v>60500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="V45" s="3">
         <v>52000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="W45" s="3">
         <v>41400</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2718800</v>
+        <v>1100</v>
       </c>
       <c r="E46" s="3">
-        <v>2686300</v>
+        <v>2600</v>
       </c>
       <c r="F46" s="3">
-        <v>2485800</v>
+        <v>700</v>
       </c>
       <c r="G46" s="3">
-        <v>2841100</v>
+        <v>2600</v>
       </c>
       <c r="H46" s="3">
+        <v>300</v>
+      </c>
+      <c r="I46" s="3">
+        <v>500</v>
+      </c>
+      <c r="J46" s="3">
+        <v>200</v>
+      </c>
+      <c r="K46" s="3">
         <v>2741200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="L46" s="3">
         <v>2919800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="M46" s="3">
         <v>3177300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="N46" s="3">
         <v>3072900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="O46" s="3">
         <v>3104200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="P46" s="3">
         <v>1537200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="Q46" s="3">
         <v>1579900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="R46" s="3">
         <v>1723500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="S46" s="3">
         <v>1588400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="T46" s="3">
         <v>1558300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="U46" s="3">
         <v>1523100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="V46" s="3">
         <v>1549600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="W46" s="3">
         <v>1422700</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1511600</v>
+        <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>1362100</v>
+        <v>0</v>
       </c>
       <c r="F47" s="3">
-        <v>1227100</v>
+        <v>0</v>
       </c>
       <c r="G47" s="3">
-        <v>1114100</v>
+        <v>0</v>
       </c>
       <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
         <v>1121400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="L47" s="3">
         <v>1061300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="M47" s="3">
         <v>907700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="N47" s="3">
         <v>820600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="O47" s="3">
         <v>685800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="P47" s="3">
         <v>611300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="Q47" s="3">
         <v>526600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="R47" s="3">
         <v>456500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="S47" s="3">
         <v>433300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="T47" s="3">
         <v>419800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="U47" s="3">
         <v>283500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="V47" s="3">
         <v>355900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="W47" s="3">
         <v>169200</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>764200</v>
+        <v>46100</v>
       </c>
       <c r="E48" s="3">
-        <v>802800</v>
+        <v>43300</v>
       </c>
       <c r="F48" s="3">
-        <v>841100</v>
+        <v>41200</v>
       </c>
       <c r="G48" s="3">
-        <v>762700</v>
+        <v>39300</v>
       </c>
       <c r="H48" s="3">
+        <v>38900</v>
+      </c>
+      <c r="I48" s="3">
+        <v>38400</v>
+      </c>
+      <c r="J48" s="3">
+        <v>37900</v>
+      </c>
+      <c r="K48" s="3">
         <v>785300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="L48" s="3">
         <v>789700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="M48" s="3">
         <v>710600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="N48" s="3">
         <v>233400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="O48" s="3">
         <v>215200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="P48" s="3">
         <v>174000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="Q48" s="3">
         <v>162900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="R48" s="3">
         <v>136700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="S48" s="3">
         <v>123600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="T48" s="3">
         <v>115800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="U48" s="3">
         <v>118400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="V48" s="3">
         <v>80100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="W48" s="3">
         <v>73500</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>231600</v>
+      <c r="D49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E49" s="3">
-        <v>250300</v>
+        <v>0</v>
       </c>
       <c r="F49" s="3">
-        <v>249400</v>
+        <v>0</v>
       </c>
       <c r="G49" s="3">
-        <v>244600</v>
+        <v>0</v>
       </c>
       <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3">
         <v>241000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="L49" s="3">
         <v>247700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="M49" s="3">
         <v>221900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="N49" s="3">
         <v>211400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="O49" s="3">
         <v>215900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="P49" s="3">
         <v>207000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="Q49" s="3">
         <v>208500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="R49" s="3">
         <v>210200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="S49" s="3">
         <v>123100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="T49" s="3">
         <v>67400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="U49" s="3">
         <v>44400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="V49" s="3">
         <v>46600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="W49" s="3">
         <v>44900</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3215,17 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3280,82 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>235500</v>
+        <v>0</v>
       </c>
       <c r="E52" s="3">
-        <v>248400</v>
+        <v>0</v>
       </c>
       <c r="F52" s="3">
-        <v>240000</v>
+        <v>0</v>
       </c>
       <c r="G52" s="3">
-        <v>239900</v>
+        <v>0</v>
       </c>
       <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
         <v>208800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="L52" s="3">
         <v>186400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="M52" s="3">
         <v>181500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="N52" s="3">
         <v>255200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="O52" s="3">
         <v>245600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="P52" s="3">
         <v>215300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="Q52" s="3">
         <v>215400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="R52" s="3">
         <v>216200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="S52" s="3">
         <v>293700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="T52" s="3">
         <v>285000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="U52" s="3">
         <v>321400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="V52" s="3">
         <v>239300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="W52" s="3">
         <v>224100</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3410,82 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5461700</v>
+        <v>47100</v>
       </c>
       <c r="E54" s="3">
-        <v>5349800</v>
+        <v>45900</v>
       </c>
       <c r="F54" s="3">
-        <v>5043400</v>
+        <v>41900</v>
       </c>
       <c r="G54" s="3">
-        <v>5202400</v>
+        <v>41900</v>
       </c>
       <c r="H54" s="3">
+        <v>39100</v>
+      </c>
+      <c r="I54" s="3">
+        <v>38900</v>
+      </c>
+      <c r="J54" s="3">
+        <v>38100</v>
+      </c>
+      <c r="K54" s="3">
         <v>5097500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>5204900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>5199000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>4593400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>4466700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>2744900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="Q54" s="3">
         <v>2693300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="R54" s="3">
         <v>2743100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="S54" s="3">
         <v>2562000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="T54" s="3">
         <v>2446300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="U54" s="3">
         <v>2290800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="V54" s="3">
         <v>2271500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="W54" s="3">
         <v>1934400</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3506,11 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,31 +3531,34 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="H57" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -3198,288 +3590,342 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>129000</v>
+        <v>300</v>
       </c>
       <c r="E58" s="3">
-        <v>130400</v>
+        <v>300</v>
       </c>
       <c r="F58" s="3">
-        <v>126400</v>
+        <v>300</v>
       </c>
       <c r="G58" s="3">
-        <v>110400</v>
+        <v>300</v>
       </c>
       <c r="H58" s="3">
+        <v>400</v>
+      </c>
+      <c r="I58" s="3">
+        <v>300</v>
+      </c>
+      <c r="J58" s="3">
+        <v>300</v>
+      </c>
+      <c r="K58" s="3">
         <v>108500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="L58" s="3">
         <v>106100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="M58" s="3">
         <v>90800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="N58" s="3">
         <v>217800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="O58" s="3">
         <v>215900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="P58" s="3">
         <v>201700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="Q58" s="3">
         <v>202700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="R58" s="3">
         <v>201300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="S58" s="3">
         <v>199700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="T58" s="3">
         <v>180400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="U58" s="3">
         <v>185100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="V58" s="3">
         <v>194500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="W58" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3072200</v>
+        <v>700</v>
       </c>
       <c r="E59" s="3">
-        <v>1568300</v>
+        <v>700</v>
       </c>
       <c r="F59" s="3">
-        <v>1334000</v>
+        <v>900</v>
       </c>
       <c r="G59" s="3">
-        <v>1443200</v>
+        <v>600</v>
       </c>
       <c r="H59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I59" s="3">
+        <v>600</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K59" s="3">
         <v>1276900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>1297200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>1232500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>945400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="O59" s="3">
         <v>850200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="P59" s="3">
         <v>716500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="Q59" s="3">
         <v>705700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="R59" s="3">
         <v>715500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="S59" s="3">
         <v>614400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="T59" s="3">
         <v>560400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="U59" s="3">
         <v>535600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="V59" s="3">
         <v>572200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="W59" s="3">
         <v>466900</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3201200</v>
+        <v>2600</v>
       </c>
       <c r="E60" s="3">
-        <v>1698700</v>
+        <v>1400</v>
       </c>
       <c r="F60" s="3">
-        <v>1460400</v>
+        <v>2100</v>
       </c>
       <c r="G60" s="3">
-        <v>1553500</v>
+        <v>1400</v>
       </c>
       <c r="H60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K60" s="3">
         <v>1385300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>1403400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>1323300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>1163300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>1066100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>918200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="Q60" s="3">
         <v>908400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="R60" s="3">
         <v>916800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="S60" s="3">
         <v>814100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="T60" s="3">
         <v>740800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="U60" s="3">
         <v>720700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="V60" s="3">
         <v>766700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="W60" s="3">
         <v>469200</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>455400</v>
+        <v>100</v>
       </c>
       <c r="E61" s="3">
-        <v>1856600</v>
+        <v>200</v>
       </c>
       <c r="F61" s="3">
-        <v>1882600</v>
+        <v>200</v>
       </c>
       <c r="G61" s="3">
-        <v>1806700</v>
+        <v>300</v>
       </c>
       <c r="H61" s="3">
+        <v>400</v>
+      </c>
+      <c r="I61" s="3">
+        <v>400</v>
+      </c>
+      <c r="J61" s="3">
+        <v>500</v>
+      </c>
+      <c r="K61" s="3">
         <v>1816800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="L61" s="3">
         <v>1817300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="M61" s="3">
         <v>1751000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="N61" s="3">
         <v>1341700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="O61" s="3">
         <v>1318500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="P61" s="3">
         <v>2900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="Q61" s="3">
         <v>3000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="R61" s="3">
         <v>5400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="S61" s="3">
         <v>1400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="T61" s="3">
         <v>400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="U61" s="3">
         <v>300</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>254300</v>
-      </c>
-      <c r="E62" s="3">
-        <v>212800</v>
-      </c>
-      <c r="F62" s="3">
-        <v>159500</v>
+      <c r="D62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G62" s="3">
-        <v>163600</v>
+        <v>0</v>
       </c>
       <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
         <v>141600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="L62" s="3">
         <v>134000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="M62" s="3">
         <v>131800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="N62" s="3">
         <v>120000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="O62" s="3">
         <v>116700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="P62" s="3">
         <v>102800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="Q62" s="3">
         <v>108100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="R62" s="3">
         <v>103400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="S62" s="3">
         <v>108100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="T62" s="3">
         <v>103300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="U62" s="3">
         <v>101200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="V62" s="3">
         <v>76600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="W62" s="3">
         <v>74700</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3980,17 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +4045,17 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +4110,82 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4078800</v>
+        <v>2700</v>
       </c>
       <c r="E66" s="3">
-        <v>3981200</v>
+        <v>1600</v>
       </c>
       <c r="F66" s="3">
-        <v>3639700</v>
+        <v>2300</v>
       </c>
       <c r="G66" s="3">
-        <v>3682700</v>
+        <v>1700</v>
       </c>
       <c r="H66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K66" s="3">
         <v>3513400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>3554800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>3387000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>2715600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>2609900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>1055500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="Q66" s="3">
         <v>1056200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="R66" s="3">
         <v>1070000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="S66" s="3">
         <v>959500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="T66" s="3">
         <v>852300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="U66" s="3">
         <v>825700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="V66" s="3">
         <v>844900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="W66" s="3">
         <v>546500</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4206,11 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4265,17 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4330,17 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4395,17 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4460,82 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-752700</v>
+        <v>-70000</v>
       </c>
       <c r="E72" s="3">
-        <v>-666300</v>
+        <v>-69600</v>
       </c>
       <c r="F72" s="3">
-        <v>-593900</v>
+        <v>-69600</v>
       </c>
       <c r="G72" s="3">
-        <v>-514400</v>
+        <v>-69000</v>
       </c>
       <c r="H72" s="3">
+        <v>-68400</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-67900</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-67400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-379300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>-308800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>-152500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>-52400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>-94400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>-10900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="Q72" s="3">
         <v>-49700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="R72" s="3">
         <v>-38800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="S72" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="T72" s="3">
         <v>-19000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="U72" s="3">
         <v>-97000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="V72" s="3">
         <v>-109800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="W72" s="3">
         <v>-122700</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4590,17 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4655,17 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4720,82 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1382800</v>
+        <v>44400</v>
       </c>
       <c r="E76" s="3">
-        <v>1368700</v>
+        <v>44300</v>
       </c>
       <c r="F76" s="3">
-        <v>1403700</v>
+        <v>39600</v>
       </c>
       <c r="G76" s="3">
-        <v>1519700</v>
+        <v>40200</v>
       </c>
       <c r="H76" s="3">
+        <v>36500</v>
+      </c>
+      <c r="I76" s="3">
+        <v>37000</v>
+      </c>
+      <c r="J76" s="3">
+        <v>35000</v>
+      </c>
+      <c r="K76" s="3">
         <v>1584200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>1650100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>1812000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>1877800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>1856800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>1689400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="Q76" s="3">
         <v>1637100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="R76" s="3">
         <v>1673100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="S76" s="3">
         <v>1602600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="T76" s="3">
         <v>1594000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="U76" s="3">
         <v>1465100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="V76" s="3">
         <v>1426600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="W76" s="3">
         <v>1388000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4850,152 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-86700</v>
+        <v>-900</v>
       </c>
       <c r="E81" s="3">
-        <v>-114200</v>
+        <v>-1100</v>
       </c>
       <c r="F81" s="3">
-        <v>-79600</v>
+        <v>-700</v>
       </c>
       <c r="G81" s="3">
-        <v>-124200</v>
+        <v>-800</v>
       </c>
       <c r="H81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-70600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>-156700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>-99100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>22200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
         <v>-83400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>39000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="Q81" s="3">
         <v>-12500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="R81" s="3">
         <v>-36100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="S81" s="3">
         <v>16300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="T81" s="3">
         <v>79900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="U81" s="3">
         <v>12700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="V81" s="3">
         <v>12800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="W81" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +5016,76 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>64100</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>63600</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>62300</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
-        <v>61600</v>
+        <v>100</v>
       </c>
       <c r="H83" s="3">
+        <v>100</v>
+      </c>
+      <c r="I83" s="3">
+        <v>100</v>
+      </c>
+      <c r="J83" s="3">
+        <v>100</v>
+      </c>
+      <c r="K83" s="3">
         <v>55300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="L83" s="3">
         <v>51800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="M83" s="3">
         <v>49800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="N83" s="3">
         <v>31000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="O83" s="3">
         <v>27000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="P83" s="3">
         <v>23800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="Q83" s="3">
         <v>21100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="R83" s="3">
         <v>20400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="S83" s="3">
         <v>16900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="T83" s="3">
         <v>13900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="U83" s="3">
         <v>13100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="V83" s="3">
         <v>12800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="W83" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +5140,17 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5205,17 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5270,17 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5335,17 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +5400,82 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="E89" s="3">
-        <v>48100</v>
+        <v>-1500</v>
       </c>
       <c r="F89" s="3">
-        <v>-156300</v>
+        <v>100</v>
       </c>
       <c r="G89" s="3">
-        <v>57900</v>
+        <v>-1100</v>
       </c>
       <c r="H89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K89" s="3">
         <v>-71500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="L89" s="3">
         <v>3600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="M89" s="3">
         <v>-19900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="N89" s="3">
         <v>59500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="O89" s="3">
         <v>-4900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="P89" s="3">
         <v>7900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="Q89" s="3">
         <v>22500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="R89" s="3">
         <v>62300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="S89" s="3">
         <v>35200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="T89" s="3">
         <v>47100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="U89" s="3">
         <v>-44600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="V89" s="3">
         <v>110000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="W89" s="3">
         <v>39800</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5496,76 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-44800</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>-54400</v>
+        <v>-200</v>
       </c>
       <c r="F91" s="3">
-        <v>-35700</v>
+        <v>-2100</v>
       </c>
       <c r="G91" s="3">
-        <v>-13800</v>
+        <v>-600</v>
       </c>
       <c r="H91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J91" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-36500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="L91" s="3">
         <v>-38800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="M91" s="3">
         <v>-59700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="N91" s="3">
         <v>-61000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="O91" s="3">
         <v>-55300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="P91" s="3">
         <v>-35100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="Q91" s="3">
         <v>-42200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="R91" s="3">
         <v>-38000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="S91" s="3">
         <v>-23700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="T91" s="3">
         <v>-31600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="U91" s="3">
         <v>-20400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="V91" s="3">
         <v>-25500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="W91" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5620,17 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5685,82 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-201800</v>
+        <v>-2800</v>
       </c>
       <c r="E94" s="3">
-        <v>-172200</v>
+        <v>-2200</v>
       </c>
       <c r="F94" s="3">
-        <v>-181900</v>
+        <v>-2100</v>
       </c>
       <c r="G94" s="3">
-        <v>89700</v>
+        <v>-600</v>
       </c>
       <c r="H94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J94" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-128300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="L94" s="3">
         <v>-231000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="M94" s="3">
         <v>-145000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="N94" s="3">
         <v>-89200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="O94" s="3">
         <v>-174000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="P94" s="3">
         <v>-60400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="Q94" s="3">
         <v>-163200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="R94" s="3">
         <v>-156100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="S94" s="3">
         <v>-73700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="T94" s="3">
         <v>-61100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="U94" s="3">
         <v>-18200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="V94" s="3">
         <v>-266300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="W94" s="3">
         <v>-29300</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5781,11 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5840,17 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5905,17 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5970,17 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +6035,208 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>89300</v>
+        <v>400</v>
       </c>
       <c r="E100" s="3">
-        <v>118300</v>
+        <v>5400</v>
       </c>
       <c r="F100" s="3">
-        <v>-23700</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
-        <v>-1300</v>
+        <v>3800</v>
       </c>
       <c r="H100" s="3">
+        <v>400</v>
+      </c>
+      <c r="I100" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-49700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="L100" s="3">
         <v>22000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="M100" s="3">
         <v>87700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="N100" s="3">
         <v>8100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="O100" s="3">
         <v>1646700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="P100" s="3">
         <v>800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="Q100" s="3">
         <v>1800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="R100" s="3">
         <v>82900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="S100" s="3">
         <v>26100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="T100" s="3">
         <v>-5200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="U100" s="3">
         <v>-500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="V100" s="3">
         <v>196900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="W100" s="3">
         <v>754900</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-4900</v>
+        <v>0</v>
       </c>
       <c r="E101" s="3">
-        <v>7400</v>
+        <v>0</v>
       </c>
       <c r="F101" s="3">
-        <v>-9000</v>
+        <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>17700</v>
+        <v>0</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>1900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="L101" s="3">
         <v>-13700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="M101" s="3">
         <v>-1100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="N101" s="3">
         <v>-11000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="O101" s="3">
         <v>6400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="P101" s="3">
         <v>1600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="Q101" s="3">
         <v>-8800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="R101" s="3">
         <v>7500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="S101" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="T101" s="3">
         <v>300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="U101" s="3">
         <v>300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="V101" s="3">
         <v>5300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="W101" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-116300</v>
+        <v>-1600</v>
       </c>
       <c r="E102" s="3">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="F102" s="3">
-        <v>-370800</v>
+        <v>-1900</v>
       </c>
       <c r="G102" s="3">
-        <v>164000</v>
+        <v>2100</v>
       </c>
       <c r="H102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I102" s="3">
+        <v>200</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-247500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="L102" s="3">
         <v>-219100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="M102" s="3">
         <v>-78200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="N102" s="3">
         <v>-32500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="O102" s="3">
         <v>1474100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="P102" s="3">
         <v>-50200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="Q102" s="3">
         <v>-147700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="R102" s="3">
         <v>-3400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="S102" s="3">
         <v>-13800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="T102" s="3">
         <v>-18800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="U102" s="3">
         <v>-63000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="V102" s="3">
         <v>46000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="W102" s="3">
         <v>767000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
   <si>
     <t>LN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -784,46 +788,49 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>552000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>544800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>533100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>687700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>482600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>547900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>453900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>419500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>389000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>456300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>348100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>338300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>320200</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -887,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1121,8 +1141,8 @@
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>5</v>
@@ -1133,8 +1153,8 @@
       <c r="J14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1199,46 +1222,49 @@
         <v>100</v>
       </c>
       <c r="K15" s="3">
+        <v>100</v>
+      </c>
+      <c r="L15" s="3">
         <v>55300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>51800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>49800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>31000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>27000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>23800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>21100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>20400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>16900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>13900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>13100</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>12800</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,73 +1285,77 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="E17" s="3">
         <v>1100</v>
       </c>
       <c r="F17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>606800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>678600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>609000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>599300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>515800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>465500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>442600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>414100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>336100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>324300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>312400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>324100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>276500</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1336,61 +1366,64 @@
         <v>-1100</v>
       </c>
       <c r="F18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-54800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-133800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-75800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>88400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-33200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>82500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>11300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>5400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>52900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>132000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>35700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>14200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>43700</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1423,7 +1457,7 @@
         <v>5</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1438,49 +1472,52 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-19500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-31700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-32500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-54600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-30500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-20900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-12500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-33000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-14600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-10900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-4100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>9900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1488,64 +1525,67 @@
         <v>5</v>
       </c>
       <c r="E21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-19000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-113700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-58500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>64800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-36800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>85400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>19800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-7200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>55200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>135000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>44700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>36900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>53300</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,73 +1649,79 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3">
-        <v>-900</v>
-      </c>
       <c r="J23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-74300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-165500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-108300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>33800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-63700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>61600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-27600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>38300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>121100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>31600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>24200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>40600</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1701,46 +1747,49 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>10300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-5300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>19400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>25400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>28200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>14800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>8300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>23500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>40400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>17100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>9600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3">
-        <v>-900</v>
-      </c>
       <c r="J26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-84600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-166300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-103000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>14400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-89100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>33400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-16000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-35900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>14800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>80600</v>
-      </c>
-      <c r="U26" s="3">
-        <v>14500</v>
       </c>
       <c r="V26" s="3">
         <v>14500</v>
       </c>
       <c r="W26" s="3">
+        <v>14500</v>
+      </c>
+      <c r="X26" s="3">
         <v>25900</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
-        <v>-900</v>
-      </c>
       <c r="J27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-70500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-156600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-99200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>18700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-83400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>39000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-12500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-36100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>16300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>79900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>12800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>14800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>25300</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2035,11 +2096,11 @@
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>3500</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
@@ -2059,13 +2120,16 @@
         <v>0</v>
       </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>-1900</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2203,7 +2273,7 @@
         <v>5</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2218,114 +2288,120 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>19500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>31700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>32500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>54600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>30500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>20900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>12500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>33000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>14600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>10900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>4100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-9900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3">
-        <v>-900</v>
-      </c>
       <c r="J33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-70600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-156700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-99100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>22200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-83400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>39000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-12500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-36100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>16300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>79900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>12700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>12800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3">
-        <v>-900</v>
-      </c>
       <c r="J35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-70600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-156700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-99100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>22200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-83400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>39000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-12500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-36100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>16300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>79900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>12700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>12800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E41" s="3">
         <v>500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1924700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2172200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2391300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2425900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2419300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>924800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>969700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1117400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1120800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1134600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1131700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1194800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1148800</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2666,54 +2756,57 @@
         <v>0</v>
       </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>260300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>230900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>216800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>28000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>39100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>32500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>27800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>7700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>26000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>43900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>35700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>44500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>500</v>
+      </c>
+      <c r="E43" s="3">
         <v>400</v>
-      </c>
-      <c r="E43" s="3">
-        <v>300</v>
       </c>
       <c r="F43" s="3">
         <v>300</v>
@@ -2722,55 +2815,58 @@
         <v>300</v>
       </c>
       <c r="H43" s="3">
+        <v>300</v>
+      </c>
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>394500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>380400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>397700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>364200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>383800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>349400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>355800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>389600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>328500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>302600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>282700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>249800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>224500</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2796,57 +2892,60 @@
         <v>0</v>
       </c>
       <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
         <v>60400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>37000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>50600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>46100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>56300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>29500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>26000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>31200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>26400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>22800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>12400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>8500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>5</v>
+      <c r="F45" s="3">
+        <v>100</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>5</v>
@@ -2860,112 +2959,118 @@
       <c r="J45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L45" s="3">
         <v>101300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>99300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>120900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>208700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>205700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>200900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>200600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>177500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>86800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>54300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>60500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>52000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>41400</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E46" s="3">
         <v>1100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G46" s="3">
+        <v>700</v>
+      </c>
+      <c r="H46" s="3">
         <v>2600</v>
       </c>
-      <c r="F46" s="3">
-        <v>700</v>
-      </c>
-      <c r="G46" s="3">
-        <v>2600</v>
-      </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2741200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2919800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3177300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3072900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3104200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1537200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1579900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1723500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1588400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1558300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1523100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1549600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1422700</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2991,119 +3096,125 @@
         <v>0</v>
       </c>
       <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
         <v>1121400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1061300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>907700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>820600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>685800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>611300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>526600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>456500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>433300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>419800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>283500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>355900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>169200</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>46100</v>
+        <v>48800</v>
       </c>
       <c r="E48" s="3">
-        <v>43300</v>
+        <v>45800</v>
       </c>
       <c r="F48" s="3">
-        <v>41200</v>
+        <v>43100</v>
       </c>
       <c r="G48" s="3">
-        <v>39300</v>
+        <v>41000</v>
       </c>
       <c r="H48" s="3">
-        <v>38900</v>
+        <v>39000</v>
       </c>
       <c r="I48" s="3">
-        <v>38400</v>
+        <v>38600</v>
       </c>
       <c r="J48" s="3">
+        <v>38100</v>
+      </c>
+      <c r="K48" s="3">
         <v>37900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>785300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>789700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>710600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>233400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>215200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>174000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>162900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>136700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>123600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>115800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>118400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>80100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>73500</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E49" s="3">
-        <v>0</v>
+      <c r="E49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F49" s="3">
         <v>0</v>
@@ -3121,46 +3232,49 @@
         <v>0</v>
       </c>
       <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3">
         <v>241000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>247700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>221900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>211400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>215900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>207000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>208500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>210200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>123100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>67400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>44400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>46600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>44900</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3316,46 +3436,49 @@
         <v>0</v>
       </c>
       <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
         <v>208800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>186400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>181500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>255200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>245600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>215300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>215400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>216200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>293700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>285000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>321400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>239300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>224100</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>47100</v>
+        <v>50700</v>
       </c>
       <c r="E54" s="3">
-        <v>45900</v>
+        <v>46800</v>
       </c>
       <c r="F54" s="3">
-        <v>41900</v>
+        <v>45600</v>
       </c>
       <c r="G54" s="3">
-        <v>41900</v>
+        <v>41600</v>
       </c>
       <c r="H54" s="3">
-        <v>39100</v>
+        <v>41600</v>
       </c>
       <c r="I54" s="3">
         <v>38900</v>
       </c>
       <c r="J54" s="3">
+        <v>38600</v>
+      </c>
+      <c r="K54" s="3">
         <v>38100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5097500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5204900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5199000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4593400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4466700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2744900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2693300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2743100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2562000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2446300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2290800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2271500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1934400</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,35 +3664,36 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E57" s="3">
         <v>1700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
       <c r="L57" s="3">
         <v>0</v>
       </c>
@@ -3599,16 +3730,19 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E58" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F58" s="3">
         <v>300</v>
@@ -3617,250 +3751,262 @@
         <v>300</v>
       </c>
       <c r="H58" s="3">
+        <v>300</v>
+      </c>
+      <c r="I58" s="3">
         <v>400</v>
-      </c>
-      <c r="I58" s="3">
-        <v>300</v>
       </c>
       <c r="J58" s="3">
         <v>300</v>
       </c>
       <c r="K58" s="3">
+        <v>300</v>
+      </c>
+      <c r="L58" s="3">
         <v>108500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>106100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>90800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>217800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>215900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>201700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>202700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>201300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>199700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>180400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>185100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>194500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="E59" s="3">
         <v>700</v>
       </c>
       <c r="F59" s="3">
+        <v>700</v>
+      </c>
+      <c r="G59" s="3">
         <v>900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1276900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1297200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1232500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>945400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>850200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>716500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>705700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>715500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>614400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>560400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>535600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>572200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>466900</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E60" s="3">
         <v>2600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1400</v>
       </c>
-      <c r="F60" s="3">
-        <v>2100</v>
-      </c>
       <c r="G60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H60" s="3">
         <v>1400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1385300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1403400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1323300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1163300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1066100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>918200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>908400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>916800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>814100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>740800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>720700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>766700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>469200</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>100</v>
-      </c>
-      <c r="E61" s="3">
-        <v>200</v>
       </c>
       <c r="F61" s="3">
         <v>200</v>
       </c>
       <c r="G61" s="3">
+        <v>200</v>
+      </c>
+      <c r="H61" s="3">
         <v>300</v>
-      </c>
-      <c r="H61" s="3">
-        <v>400</v>
       </c>
       <c r="I61" s="3">
         <v>400</v>
       </c>
       <c r="J61" s="3">
+        <v>400</v>
+      </c>
+      <c r="K61" s="3">
         <v>500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1816800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1817300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1751000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1341700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1318500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>300</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3873,8 +4019,8 @@
       <c r="F62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
+      <c r="G62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
@@ -3886,46 +4032,49 @@
         <v>0</v>
       </c>
       <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
         <v>141600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>134000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>131800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>120000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>116700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>102800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>108100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>103400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>108100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>103300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>101200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>76600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>74700</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E66" s="3">
         <v>2700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3513400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3554800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3387000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2715600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2609900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1055500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1056200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1070000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>959500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>852300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>825700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>844900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>546500</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-70000</v>
+        <v>-69800</v>
       </c>
       <c r="E72" s="3">
         <v>-69600</v>
       </c>
       <c r="F72" s="3">
-        <v>-69600</v>
+        <v>-69100</v>
       </c>
       <c r="G72" s="3">
-        <v>-69000</v>
+        <v>-69100</v>
       </c>
       <c r="H72" s="3">
-        <v>-68400</v>
+        <v>-68500</v>
       </c>
       <c r="I72" s="3">
-        <v>-67900</v>
+        <v>-68000</v>
       </c>
       <c r="J72" s="3">
         <v>-67400</v>
       </c>
       <c r="K72" s="3">
+        <v>-67400</v>
+      </c>
+      <c r="L72" s="3">
         <v>-379300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-308800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-152500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-52400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-94400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-10900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-49700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-38800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-2700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-19000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-97000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-109800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-122700</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>44400</v>
+        <v>48800</v>
       </c>
       <c r="E76" s="3">
-        <v>44300</v>
+        <v>44100</v>
       </c>
       <c r="F76" s="3">
-        <v>39600</v>
+        <v>44000</v>
       </c>
       <c r="G76" s="3">
-        <v>40200</v>
+        <v>39300</v>
       </c>
       <c r="H76" s="3">
-        <v>36500</v>
+        <v>39900</v>
       </c>
       <c r="I76" s="3">
-        <v>37000</v>
+        <v>36300</v>
       </c>
       <c r="J76" s="3">
+        <v>36800</v>
+      </c>
+      <c r="K76" s="3">
         <v>35000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1584200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1650100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1812000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1877800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1856800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1689400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1637100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1673100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1602600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1594000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1465100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1426600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1388000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3">
-        <v>-900</v>
-      </c>
       <c r="J81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-70600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-156700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-99100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>22200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-83400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>39000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-12500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-36100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>16300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>79900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>12700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>12800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5046,46 +5245,49 @@
         <v>100</v>
       </c>
       <c r="K83" s="3">
+        <v>100</v>
+      </c>
+      <c r="L83" s="3">
         <v>55300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>51800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>49800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>31000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>27000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>23800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>21100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>20400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>16900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>13900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>13100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>12800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E89" s="3">
         <v>800</v>
       </c>
-      <c r="E89" s="3">
-        <v>-1500</v>
-      </c>
       <c r="F89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="G89" s="3">
         <v>100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-71500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-19900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>59500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-4900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>7900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>22500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>62300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>35200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>47100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-44600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>110000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>39800</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>2300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-36500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-38800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-59700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-61000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-55300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-35100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-42200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-38000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-23700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-31600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-20400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-25500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>2300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-128300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-231000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-145000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-89200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-174000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-60400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-163200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-156100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-73700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-61100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-18200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-266300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-29300</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,73 +6287,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
-        <v>5400</v>
-      </c>
       <c r="F100" s="3">
+        <v>5300</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>3800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-49700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>22000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>87700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>8100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1646700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>82900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>26100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-5200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>196900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>754900</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6136,107 +6385,113 @@
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>1900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-13700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-11000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>6400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-8800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>7500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1500</v>
-      </c>
-      <c r="T101" s="3">
-        <v>300</v>
       </c>
       <c r="U101" s="3">
         <v>300</v>
       </c>
       <c r="V101" s="3">
+        <v>300</v>
+      </c>
+      <c r="W101" s="3">
         <v>5300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1600</v>
       </c>
-      <c r="E102" s="3">
-        <v>1800</v>
-      </c>
       <c r="F102" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G102" s="3">
         <v>-1900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-247500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-219100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-78200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-32500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1474100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-50200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-147700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-3400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-13800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-18800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-63000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>46000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>767000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LN_QTR_FIN.xlsx
@@ -3161,7 +3161,7 @@
         <v>38600</v>
       </c>
       <c r="J48" s="3">
-        <v>38100</v>
+        <v>38200</v>
       </c>
       <c r="K48" s="3">
         <v>37900</v>
@@ -4658,7 +4658,7 @@
         <v>-69100</v>
       </c>
       <c r="G72" s="3">
-        <v>-69100</v>
+        <v>-69200</v>
       </c>
       <c r="H72" s="3">
         <v>-68500</v>
@@ -4921,7 +4921,7 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>48800</v>
+        <v>48900</v>
       </c>
       <c r="E76" s="3">
         <v>44100</v>
@@ -4933,7 +4933,7 @@
         <v>39300</v>
       </c>
       <c r="H76" s="3">
-        <v>39900</v>
+        <v>40000</v>
       </c>
       <c r="I76" s="3">
         <v>36300</v>

--- a/AAII_Financials/Quarterly/LN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
   <si>
     <t>LN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,107 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -791,46 +794,49 @@
         <v>0</v>
       </c>
       <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
         <v>552000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>544800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>533100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>687700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>482600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>547900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>453900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>419500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>389000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>456300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>348100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>338300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>320200</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -897,8 +903,11 @@
       <c r="X9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +974,11 @@
       <c r="X10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,13 +1143,16 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1144,8 +1163,8 @@
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>5</v>
@@ -1156,8 +1175,8 @@
       <c r="K14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1225,46 +1247,49 @@
         <v>100</v>
       </c>
       <c r="L15" s="3">
+        <v>100</v>
+      </c>
+      <c r="M15" s="3">
         <v>55300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>51800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>49800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>31000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>27000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>23800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>21100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>20400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>16900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>13900</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>13100</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>12800</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,76 +1311,80 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E17" s="3">
         <v>700</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1100</v>
       </c>
       <c r="F17" s="3">
         <v>1100</v>
       </c>
       <c r="G17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H17" s="3">
         <v>700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>606800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>678600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>609000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>599300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>515800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>465500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>442600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>414100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>336100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>324300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>312400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>324100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>276500</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1363,67 +1392,70 @@
         <v>5</v>
       </c>
       <c r="E18" s="3">
-        <v>-1100</v>
+        <v>-700</v>
       </c>
       <c r="F18" s="3">
         <v>-1100</v>
       </c>
       <c r="G18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H18" s="3">
         <v>-700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-54800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-133800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-75800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>88400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-33200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>82500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>11300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>5400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>52900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>132000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>35700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>14200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>43700</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1480,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1457,11 +1490,11 @@
         <v>5</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1475,49 +1508,52 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-19500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-31700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-32500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-54600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-30500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-20900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-12500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-33000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-14600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-10900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-4100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>9900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1525,67 +1561,70 @@
         <v>5</v>
       </c>
       <c r="E21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K21" s="3">
         <v>-800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="L21" s="3">
         <v>-1000</v>
       </c>
-      <c r="G21" s="3">
-        <v>-600</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-700</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-800</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-19000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-113700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-58500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>64800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-36800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>85400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>19800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-7200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>55200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>135000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>44700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>36900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>53300</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,76 +1691,82 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-74300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-165500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-108300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>33800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-63700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>61600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-27600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>38300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>121100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>31600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>24200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>40600</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1750,46 +1795,49 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>10300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-5300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>19400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>25400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>28200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>14800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>8300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>23500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>40400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>17100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>9600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-84600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-166300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-103000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>14400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-89100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>33400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-16000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-35900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>14800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>80600</v>
-      </c>
-      <c r="V26" s="3">
-        <v>14500</v>
       </c>
       <c r="W26" s="3">
         <v>14500</v>
       </c>
       <c r="X26" s="3">
+        <v>14500</v>
+      </c>
+      <c r="Y26" s="3">
         <v>25900</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-70500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-156600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-99200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>18700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-83400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>39000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-12500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-36100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>16300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>79900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>12800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>14800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>25300</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2099,11 +2159,11 @@
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>3500</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
@@ -2123,13 +2183,16 @@
         <v>0</v>
       </c>
       <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>-1900</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2330,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2273,11 +2342,11 @@
         <v>5</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2291,117 +2360,123 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>19500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>31700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>32500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>54600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>30500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>20900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>12500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>33000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>14600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>10900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>4100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-9900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-70600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-156700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-99100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>22200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-83400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>39000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-12500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-36100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>16300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>79900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>12700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>12800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-70600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-156700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-99100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>22200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-83400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>39000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-12500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-36100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>16300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>79900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>12700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>12800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2746,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
         <v>1000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1924700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2172200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2391300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2425900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2419300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>924800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>969700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1117400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1120800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1134600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1131700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1194800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1148800</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2759,57 +2848,60 @@
         <v>0</v>
       </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>260300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>230900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>216800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>28000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>39100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>32500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>27800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>7700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>26000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>43900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>35700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>44500</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>600</v>
+      </c>
+      <c r="E43" s="3">
         <v>500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>400</v>
-      </c>
-      <c r="F43" s="3">
-        <v>300</v>
       </c>
       <c r="G43" s="3">
         <v>300</v>
@@ -2818,55 +2910,58 @@
         <v>300</v>
       </c>
       <c r="I43" s="3">
+        <v>300</v>
+      </c>
+      <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>394500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>380400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>397700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>364200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>383800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>349400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>355800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>389600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>328500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>302600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>282700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>249800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>224500</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2895,46 +2990,49 @@
         <v>0</v>
       </c>
       <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
         <v>60400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>37000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>50600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>46100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>56300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>29500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>26000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>31200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>26400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>22800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>12400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>8500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2942,13 +3040,13 @@
         <v>300</v>
       </c>
       <c r="E45" s="3">
+        <v>300</v>
+      </c>
+      <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
-        <v>100</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>5</v>
+      <c r="G45" s="3">
+        <v>200</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>5</v>
@@ -2962,115 +3060,121 @@
       <c r="K45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L45" s="3">
+      <c r="L45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M45" s="3">
         <v>101300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>99300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>120900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>208700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>205700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>200900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>200600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>177500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>86800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>54300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>60500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>52000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>41400</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1100</v>
       </c>
-      <c r="F46" s="3">
-        <v>2500</v>
-      </c>
       <c r="G46" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H46" s="3">
         <v>700</v>
       </c>
-      <c r="H46" s="3">
-        <v>2600</v>
-      </c>
       <c r="I46" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J46" s="3">
         <v>300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2741200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2919800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3177300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3072900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3104200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1537200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1579900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1723500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1588400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1558300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1523100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1549600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1422700</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3099,125 +3203,131 @@
         <v>0</v>
       </c>
       <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
         <v>1121400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1061300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>907700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>820600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>685800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>611300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>526600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>456500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>433300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>419800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>283500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>355900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>169200</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>48800</v>
+        <v>51600</v>
       </c>
       <c r="E48" s="3">
-        <v>45800</v>
+        <v>50000</v>
       </c>
       <c r="F48" s="3">
-        <v>43100</v>
+        <v>46900</v>
       </c>
       <c r="G48" s="3">
-        <v>41000</v>
+        <v>44100</v>
       </c>
       <c r="H48" s="3">
-        <v>39000</v>
+        <v>41900</v>
       </c>
       <c r="I48" s="3">
-        <v>38600</v>
+        <v>40000</v>
       </c>
       <c r="J48" s="3">
+        <v>39500</v>
+      </c>
+      <c r="K48" s="3">
         <v>38200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>37900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>785300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>789700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>710600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>233400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>215200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>174000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>162900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>136700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>123600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>115800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>118400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>80100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>73500</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>5</v>
+      <c r="D49" s="3">
+        <v>0</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F49" s="3">
-        <v>0</v>
+      <c r="F49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G49" s="3">
         <v>0</v>
@@ -3235,46 +3345,49 @@
         <v>0</v>
       </c>
       <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
         <v>241000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>247700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>221900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>211400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>215900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>207000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>208500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>210200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>123100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>67400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>44400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>46600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>44900</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3439,46 +3558,49 @@
         <v>0</v>
       </c>
       <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
         <v>208800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>186400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>181500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>255200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>245600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>215300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>215400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>216200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>293700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>285000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>321400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>239300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>224100</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>50700</v>
+        <v>52600</v>
       </c>
       <c r="E54" s="3">
-        <v>46800</v>
+        <v>51900</v>
       </c>
       <c r="F54" s="3">
-        <v>45600</v>
+        <v>47900</v>
       </c>
       <c r="G54" s="3">
-        <v>41600</v>
+        <v>46700</v>
       </c>
       <c r="H54" s="3">
-        <v>41600</v>
+        <v>42600</v>
       </c>
       <c r="I54" s="3">
-        <v>38900</v>
+        <v>42600</v>
       </c>
       <c r="J54" s="3">
+        <v>39800</v>
+      </c>
+      <c r="K54" s="3">
         <v>38600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>38100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5097500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5204900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5199000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4593400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4466700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2744900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2693300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2743100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2562000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2446300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2290800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2271500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1934400</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,38 +3794,39 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E57" s="3">
         <v>1300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
       <c r="M57" s="3">
         <v>0</v>
       </c>
@@ -3733,8 +3863,11 @@
       <c r="X57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3754,191 +3887,200 @@
         <v>300</v>
       </c>
       <c r="I58" s="3">
+        <v>300</v>
+      </c>
+      <c r="J58" s="3">
         <v>400</v>
-      </c>
-      <c r="J58" s="3">
-        <v>300</v>
       </c>
       <c r="K58" s="3">
         <v>300</v>
       </c>
       <c r="L58" s="3">
+        <v>300</v>
+      </c>
+      <c r="M58" s="3">
         <v>108500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>106100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>90800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>217800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>215900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>201700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>202700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>201300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>199700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>180400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>185100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>194500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>400</v>
+      </c>
+      <c r="E59" s="3">
         <v>300</v>
-      </c>
-      <c r="E59" s="3">
-        <v>700</v>
       </c>
       <c r="F59" s="3">
         <v>700</v>
       </c>
       <c r="G59" s="3">
+        <v>700</v>
+      </c>
+      <c r="H59" s="3">
         <v>900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1276900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1297200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1232500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>945400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>850200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>716500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>705700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>715500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>614400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>560400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>535600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>572200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>466900</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E60" s="3">
         <v>1800</v>
       </c>
-      <c r="E60" s="3">
-        <v>2600</v>
-      </c>
       <c r="F60" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G60" s="3">
         <v>1400</v>
       </c>
-      <c r="G60" s="3">
-        <v>2000</v>
-      </c>
       <c r="H60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I60" s="3">
         <v>1400</v>
       </c>
-      <c r="I60" s="3">
-        <v>2200</v>
-      </c>
       <c r="J60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K60" s="3">
         <v>1400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1385300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1403400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1323300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1163300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1066100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>918200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>908400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>916800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>814100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>740800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>720700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>766700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>469200</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3946,81 +4088,84 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>100</v>
-      </c>
-      <c r="F61" s="3">
-        <v>200</v>
       </c>
       <c r="G61" s="3">
         <v>200</v>
       </c>
       <c r="H61" s="3">
+        <v>200</v>
+      </c>
+      <c r="I61" s="3">
         <v>300</v>
-      </c>
-      <c r="I61" s="3">
-        <v>400</v>
       </c>
       <c r="J61" s="3">
         <v>400</v>
       </c>
       <c r="K61" s="3">
+        <v>400</v>
+      </c>
+      <c r="L61" s="3">
         <v>500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1816800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1817300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1751000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1341700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1318500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>300</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>5</v>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
@@ -4035,46 +4180,49 @@
         <v>0</v>
       </c>
       <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
         <v>141600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>134000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>131800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>120000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>116700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>102800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>108100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>103400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>108100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>103300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>101200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>76600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>74700</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K66" s="3">
         <v>1800</v>
       </c>
-      <c r="E66" s="3">
-        <v>2700</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1600</v>
-      </c>
-      <c r="G66" s="3">
-        <v>2300</v>
-      </c>
-      <c r="H66" s="3">
-        <v>1700</v>
-      </c>
-      <c r="I66" s="3">
-        <v>2600</v>
-      </c>
-      <c r="J66" s="3">
-        <v>1800</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3513400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3554800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3387000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2715600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2609900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1055500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1056200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1070000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>959500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>852300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>825700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>844900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>546500</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-69800</v>
+        <v>-73200</v>
       </c>
       <c r="E72" s="3">
+        <v>-71400</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-71200</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-70800</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-70800</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-70200</v>
+      </c>
+      <c r="J72" s="3">
         <v>-69600</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-69100</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-69200</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-68500</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-68000</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-67400</v>
       </c>
       <c r="K72" s="3">
         <v>-67400</v>
       </c>
       <c r="L72" s="3">
+        <v>-67400</v>
+      </c>
+      <c r="M72" s="3">
         <v>-379300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-308800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-152500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-52400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-94400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-10900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-49700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-38800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-2700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-19000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-97000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-109800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-122700</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>48900</v>
+        <v>50000</v>
       </c>
       <c r="E76" s="3">
-        <v>44100</v>
+        <v>50000</v>
       </c>
       <c r="F76" s="3">
-        <v>44000</v>
+        <v>45200</v>
       </c>
       <c r="G76" s="3">
-        <v>39300</v>
+        <v>45100</v>
       </c>
       <c r="H76" s="3">
-        <v>40000</v>
+        <v>40300</v>
       </c>
       <c r="I76" s="3">
-        <v>36300</v>
+        <v>40900</v>
       </c>
       <c r="J76" s="3">
+        <v>37100</v>
+      </c>
+      <c r="K76" s="3">
         <v>36800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>35000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1584200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1650100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1812000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1877800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1856800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1689400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1637100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1673100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1602600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1594000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1465100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1426600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1388000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-70600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-156700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-99100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>22200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-83400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>39000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-12500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-36100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>16300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>79900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>12700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>12800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5248,46 +5446,49 @@
         <v>100</v>
       </c>
       <c r="L83" s="3">
+        <v>100</v>
+      </c>
+      <c r="M83" s="3">
         <v>55300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>51800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>49800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>31000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>27000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>23800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>21100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>20400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>16900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>13900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>13100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>12800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>800</v>
       </c>
-      <c r="F89" s="3">
-        <v>-1400</v>
-      </c>
       <c r="G89" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="H89" s="3">
         <v>100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-71500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-19900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>59500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>7900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>22500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>62300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>35200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>47100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-44600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>110000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>39800</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5729,67 +5949,70 @@
         <v>-500</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>2300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-36500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-38800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-59700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-61000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-55300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-35100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-42200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-38000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-23700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-31600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-20400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-25500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6150,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3100</v>
+        <v>-2200</v>
       </c>
       <c r="E94" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-2800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>2300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-128300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-231000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-145000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-89200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-174000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-60400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-163200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-156100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-73700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-61100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-18200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-266300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-29300</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,76 +6532,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>5100</v>
+        <v>1400</v>
       </c>
       <c r="E100" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
-        <v>5300</v>
-      </c>
       <c r="G100" s="3">
+        <v>5500</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>3800</v>
-      </c>
       <c r="I100" s="3">
+        <v>3900</v>
+      </c>
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-49700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>22000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>87700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>8100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1646700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>82900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>26100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-5200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>196900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>754900</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6388,110 +6636,116 @@
         <v>0</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>1900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-13700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-11000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>6400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-8800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>7500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-1500</v>
-      </c>
-      <c r="U101" s="3">
-        <v>300</v>
       </c>
       <c r="V101" s="3">
         <v>300</v>
       </c>
       <c r="W101" s="3">
+        <v>300</v>
+      </c>
+      <c r="X101" s="3">
         <v>5300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E102" s="3">
         <v>500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1600</v>
       </c>
-      <c r="F102" s="3">
-        <v>1700</v>
-      </c>
       <c r="G102" s="3">
-        <v>-1900</v>
+        <v>1800</v>
       </c>
       <c r="H102" s="3">
-        <v>2100</v>
+        <v>-2000</v>
       </c>
       <c r="I102" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-247500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-219100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-78200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-32500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1474100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-50200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-147700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-3400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-13800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-18800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-63000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>46000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>767000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
   <si>
     <t>LN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,107 +665,115 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -797,46 +805,52 @@
         <v>0</v>
       </c>
       <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
         <v>552000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>544800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>533100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>687700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>482600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>547900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>453900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>419500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>389000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>456300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>348100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>338300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>320200</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -906,8 +920,14 @@
       <c r="Y9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +997,14 @@
       <c r="Y10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,8 +1030,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1075,8 +1103,14 @@
       <c r="Y12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,28 +1180,34 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>600</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>5</v>
@@ -1178,11 +1218,11 @@
       <c r="L14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1217,8 +1257,14 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1250,46 +1296,52 @@
         <v>100</v>
       </c>
       <c r="M15" s="3">
+        <v>100</v>
+      </c>
+      <c r="N15" s="3">
+        <v>100</v>
+      </c>
+      <c r="O15" s="3">
         <v>55300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>51800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>49800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>31000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>27000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>23800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>21100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>20400</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>16900</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>13900</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>13100</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>12800</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,79 +1364,87 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2200</v>
+        <v>1300</v>
       </c>
       <c r="E17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>606800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>678600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>609000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>599300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>515800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>465500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>442600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>414100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>336100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>324300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>312400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>324100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>276500</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1392,70 +1452,76 @@
         <v>5</v>
       </c>
       <c r="E18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-54800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-133800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-75800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>88400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-33200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>82500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>11300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>5400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>52900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>132000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>35700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>14200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>43700</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,8 +1547,10 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1493,14 +1561,14 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1511,49 +1579,55 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-19500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-31700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-32500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-54600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-30500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-20900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-12500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-33000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-14600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-10900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-4100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>9900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1561,70 +1635,76 @@
         <v>5</v>
       </c>
       <c r="E21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="G21" s="3">
         <v>-600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-19000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-113700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-58500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>64800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-36800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>85400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>19800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-7200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>55200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>135000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>44700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>36900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>53300</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1694,79 +1774,91 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-700</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-800</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-600</v>
       </c>
       <c r="K23" s="3">
         <v>-800</v>
       </c>
       <c r="L23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="N23" s="3">
         <v>-1100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-74300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-165500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-108300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>33800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-63700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>61600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-1200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-27600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>38300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>121100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>31600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>24200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>40600</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1798,46 +1890,52 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>10300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-5300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>19400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>25400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>28200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>14800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>8300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>23500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>40400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>17100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>9600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +2005,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-700</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-800</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-600</v>
       </c>
       <c r="K26" s="3">
         <v>-800</v>
       </c>
       <c r="L26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="N26" s="3">
         <v>-1100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-84600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-166300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-103000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>14400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-89100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>33400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-16000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-35900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>14800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>80600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>14500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>14500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>25900</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-700</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-800</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-600</v>
       </c>
       <c r="K27" s="3">
         <v>-800</v>
       </c>
       <c r="L27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="N27" s="3">
         <v>-1100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-70500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-156600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-99200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>18700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-83400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>39000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-12500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-36100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>16300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>79900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>12800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>14800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>25300</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2162,14 +2284,14 @@
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>3500</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
@@ -2186,13 +2308,19 @@
         <v>0</v>
       </c>
       <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="AA29" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,8 +2467,14 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2345,14 +2485,14 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2363,120 +2503,132 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>19500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>31700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>32500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>54600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>30500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>20900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>12500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>33000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>14600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>10900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>4100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-9900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-700</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-800</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-600</v>
       </c>
       <c r="K33" s="3">
         <v>-800</v>
       </c>
       <c r="L33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="N33" s="3">
         <v>-1100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-70600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-156700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-99100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>22200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-83400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>39000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-12500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-36100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>16300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>79900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>12700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>12800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2698,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-700</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-800</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-600</v>
       </c>
       <c r="K35" s="3">
         <v>-800</v>
       </c>
       <c r="L35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="N35" s="3">
         <v>-1100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-70600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-156700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-99100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>22200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-83400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>39000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-12500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-36100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>16300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>79900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>12700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>12800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,79 +2919,87 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>600</v>
+      </c>
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>2100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>2300</v>
-      </c>
-      <c r="J41" s="3">
-        <v>100</v>
-      </c>
-      <c r="K41" s="3">
-        <v>300</v>
       </c>
       <c r="L41" s="3">
         <v>100</v>
       </c>
       <c r="M41" s="3">
+        <v>300</v>
+      </c>
+      <c r="N41" s="3">
+        <v>100</v>
+      </c>
+      <c r="O41" s="3">
         <v>1924700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>2172200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>2391300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>2425900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>2419300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>924800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>969700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>1117400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>1120800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>1134600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>1131700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>1194800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>1148800</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2851,117 +3031,129 @@
         <v>0</v>
       </c>
       <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
         <v>260300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>230900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>216800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>28000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>39100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>32500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>27800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>7700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>26000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>43900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>35700</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>44500</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="E43" s="3">
+        <v>700</v>
+      </c>
+      <c r="F43" s="3">
         <v>500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
+        <v>500</v>
+      </c>
+      <c r="H43" s="3">
         <v>400</v>
-      </c>
-      <c r="G43" s="3">
-        <v>300</v>
-      </c>
-      <c r="H43" s="3">
-        <v>300</v>
       </c>
       <c r="I43" s="3">
         <v>300</v>
       </c>
       <c r="J43" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L43" s="3">
         <v>100</v>
       </c>
       <c r="M43" s="3">
+        <v>200</v>
+      </c>
+      <c r="N43" s="3">
+        <v>100</v>
+      </c>
+      <c r="O43" s="3">
         <v>394500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>380400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>397700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>364200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>383800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>349400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>355800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>389600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>328500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>302600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>282700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>249800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>224500</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2993,46 +3185,52 @@
         <v>0</v>
       </c>
       <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
         <v>60400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>37000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>50600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>46100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>56300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>29500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>26000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>31200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>26400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>22800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>12400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>8500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3043,17 +3241,17 @@
         <v>300</v>
       </c>
       <c r="F45" s="3">
+        <v>300</v>
+      </c>
+      <c r="G45" s="3">
+        <v>300</v>
+      </c>
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>5</v>
       </c>
@@ -3063,118 +3261,130 @@
       <c r="L45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M45" s="3">
+      <c r="M45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O45" s="3">
         <v>101300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>99300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>120900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>208700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>205700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>200900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>200600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>177500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>86800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>54300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>60500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>52000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>41400</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F46" s="3">
         <v>1000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>2600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>2700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2741200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>2919800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>3177300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>3072900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>3104200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1537200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1579900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1723500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>1588400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>1558300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>1523100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>1549600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>1422700</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3206,134 +3416,146 @@
         <v>0</v>
       </c>
       <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
         <v>1121400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>1061300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>907700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>820600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>685800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>611300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>526600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>456500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>433300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>419800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>283500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>355900</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>169200</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>51600</v>
+        <v>52900</v>
       </c>
       <c r="E48" s="3">
-        <v>50000</v>
+        <v>52200</v>
       </c>
       <c r="F48" s="3">
-        <v>46900</v>
+        <v>51100</v>
       </c>
       <c r="G48" s="3">
-        <v>44100</v>
+        <v>49500</v>
       </c>
       <c r="H48" s="3">
-        <v>41900</v>
+        <v>46400</v>
       </c>
       <c r="I48" s="3">
+        <v>43700</v>
+      </c>
+      <c r="J48" s="3">
+        <v>41600</v>
+      </c>
+      <c r="K48" s="3">
         <v>40000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>39500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>38200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>37900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>785300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>789700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>710600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>233400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>215200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>174000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>162900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>136700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>123600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>115800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>118400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>80100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>73500</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>0</v>
+      <c r="D49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I49" s="3">
         <v>0</v>
@@ -3348,46 +3570,52 @@
         <v>0</v>
       </c>
       <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
         <v>241000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>247700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>221900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>211400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>215900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>207000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>208500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>210200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>123100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>67400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>44400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>46600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>44900</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,8 +3762,14 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3561,46 +3801,52 @@
         <v>0</v>
       </c>
       <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
         <v>208800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>186400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>181500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>255200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>245600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>215300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>215400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>216200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>293700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>285000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>321400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>239300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>224100</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3916,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>52600</v>
+        <v>55700</v>
       </c>
       <c r="E54" s="3">
-        <v>51900</v>
+        <v>53900</v>
       </c>
       <c r="F54" s="3">
-        <v>47900</v>
+        <v>52100</v>
       </c>
       <c r="G54" s="3">
-        <v>46700</v>
+        <v>51400</v>
       </c>
       <c r="H54" s="3">
+        <v>47500</v>
+      </c>
+      <c r="I54" s="3">
+        <v>46300</v>
+      </c>
+      <c r="J54" s="3">
+        <v>42200</v>
+      </c>
+      <c r="K54" s="3">
         <v>42600</v>
       </c>
-      <c r="I54" s="3">
-        <v>42600</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>39800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>38600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>38100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>5097500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>5204900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>5199000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>4593400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>4466700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>2744900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>2693300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>2743100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>2562000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>2446300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>2290800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>2271500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>1934400</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,44 +4055,46 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F57" s="3">
         <v>1900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
       <c r="O57" s="3">
         <v>0</v>
       </c>
@@ -3866,22 +4128,28 @@
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>100</v>
+      </c>
+      <c r="F58" s="3">
         <v>200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>200</v>
-      </c>
-      <c r="F58" s="3">
-        <v>300</v>
-      </c>
-      <c r="G58" s="3">
-        <v>300</v>
       </c>
       <c r="H58" s="3">
         <v>300</v>
@@ -3890,197 +4158,215 @@
         <v>300</v>
       </c>
       <c r="J58" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K58" s="3">
         <v>300</v>
       </c>
       <c r="L58" s="3">
+        <v>400</v>
+      </c>
+      <c r="M58" s="3">
         <v>300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
+        <v>300</v>
+      </c>
+      <c r="O58" s="3">
         <v>108500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>106100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>90800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>217800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>215900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>201700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>202700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>201300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>199700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>180400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>185100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>194500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>300</v>
+      </c>
+      <c r="E59" s="3">
         <v>400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
+        <v>400</v>
+      </c>
+      <c r="G59" s="3">
         <v>300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>900</v>
-      </c>
-      <c r="I59" s="3">
-        <v>600</v>
-      </c>
-      <c r="J59" s="3">
-        <v>1200</v>
       </c>
       <c r="K59" s="3">
         <v>600</v>
       </c>
       <c r="L59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M59" s="3">
+        <v>600</v>
+      </c>
+      <c r="N59" s="3">
         <v>1800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1276900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1297200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1232500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>945400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>850200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>716500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>705700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>715500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>614400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>560400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>535600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>572200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>466900</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H60" s="3">
         <v>2600</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1800</v>
-      </c>
-      <c r="F60" s="3">
-        <v>2700</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1400</v>
-      </c>
-      <c r="H60" s="3">
-        <v>2100</v>
       </c>
       <c r="I60" s="3">
         <v>1400</v>
       </c>
       <c r="J60" s="3">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="K60" s="3">
         <v>1400</v>
       </c>
       <c r="L60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="M60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N60" s="3">
         <v>2500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1385300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1403400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1323300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1163300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1066100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>918200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>908400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>916800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>814100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>740800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>720700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>766700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>469200</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4091,67 +4377,73 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1816800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1817300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1751000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1341700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>1318500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>2900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>3000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>5400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>1400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>300</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4183,46 +4475,52 @@
         <v>0</v>
       </c>
       <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
         <v>141600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>134000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>131800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>120000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>116700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>102800</v>
-      </c>
-      <c r="S62" s="3">
-        <v>108100</v>
-      </c>
-      <c r="T62" s="3">
-        <v>103400</v>
       </c>
       <c r="U62" s="3">
         <v>108100</v>
       </c>
       <c r="V62" s="3">
+        <v>103400</v>
+      </c>
+      <c r="W62" s="3">
+        <v>108100</v>
+      </c>
+      <c r="X62" s="3">
         <v>103300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>101200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>76600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>74700</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4744,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F66" s="3">
         <v>2600</v>
       </c>
-      <c r="E66" s="3">
-        <v>1900</v>
-      </c>
-      <c r="F66" s="3">
-        <v>2800</v>
-      </c>
       <c r="G66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I66" s="3">
         <v>1600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3513400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3554800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>3387000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2715600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>2609900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1055500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1056200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1070000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>959500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>852300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>825700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>844900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>546500</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,8 +5158,14 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4825,70 +5173,76 @@
         <v>-73200</v>
       </c>
       <c r="E72" s="3">
-        <v>-71400</v>
+        <v>-72900</v>
       </c>
       <c r="F72" s="3">
-        <v>-71200</v>
+        <v>-72600</v>
       </c>
       <c r="G72" s="3">
         <v>-70800</v>
       </c>
       <c r="H72" s="3">
-        <v>-70800</v>
+        <v>-70600</v>
       </c>
       <c r="I72" s="3">
+        <v>-70100</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-70100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-70200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-69600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-67400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-67400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-379300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-308800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-152500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-52400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-94400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-10900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-49700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-38800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-2700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-19000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-97000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-109800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-122700</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5466,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>50000</v>
+        <v>54500</v>
       </c>
       <c r="E76" s="3">
-        <v>50000</v>
+        <v>51800</v>
       </c>
       <c r="F76" s="3">
-        <v>45200</v>
+        <v>49500</v>
       </c>
       <c r="G76" s="3">
-        <v>45100</v>
+        <v>49600</v>
       </c>
       <c r="H76" s="3">
-        <v>40300</v>
+        <v>44800</v>
       </c>
       <c r="I76" s="3">
+        <v>44700</v>
+      </c>
+      <c r="J76" s="3">
+        <v>39900</v>
+      </c>
+      <c r="K76" s="3">
         <v>40900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>37100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>36800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>35000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1584200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1650100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1812000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1877800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1856800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1689400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1637100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>1673100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>1602600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>1594000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>1465100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>1426600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>1388000</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5620,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-700</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-800</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-600</v>
       </c>
       <c r="K81" s="3">
         <v>-800</v>
       </c>
       <c r="L81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="N81" s="3">
         <v>-1100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-70600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-156700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-99100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>22200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-83400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>39000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-12500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-36100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>16300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>79900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>12700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>12800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5812,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5449,46 +5847,52 @@
         <v>100</v>
       </c>
       <c r="M83" s="3">
+        <v>100</v>
+      </c>
+      <c r="N83" s="3">
+        <v>100</v>
+      </c>
+      <c r="O83" s="3">
         <v>55300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>51800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>49800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>31000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>27000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>23800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>21100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>20400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>16900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>13900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>13100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>12800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6270,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="E89" s="3">
         <v>-1400</v>
       </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="H89" s="3">
         <v>800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-1100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-71500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>3600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-19900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>59500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-4900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>7900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>22500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>62300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>35200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>47100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-44600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>110000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>39800</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,79 +6380,87 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-500</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-2100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>2300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-36500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-38800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-59700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-61000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-55300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-35100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-42200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-38000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-23700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-31600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-20400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-25500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6607,91 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-2200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-3200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-2800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-2200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-2100</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-600</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-500</v>
       </c>
       <c r="K94" s="3">
         <v>-600</v>
       </c>
       <c r="L94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N94" s="3">
         <v>2300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-128300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-231000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-145000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-89200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-174000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-60400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-163200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-156100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-73700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-61100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-18200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-266300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-29300</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,79 +7021,91 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F100" s="3">
         <v>1400</v>
       </c>
-      <c r="E100" s="3">
-        <v>5200</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
+        <v>5100</v>
+      </c>
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
-        <v>5500</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
+        <v>5400</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>3900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>1500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-2000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-49700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>22000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>87700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>8100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>1646700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>1800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>82900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>26100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-5200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>196900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>754900</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6639,113 +7137,125 @@
         <v>0</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>1900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-13700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-1100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>6400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>1600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-8800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>7500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-1500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>5300</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>400</v>
+      </c>
+      <c r="F102" s="3">
         <v>-800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-1600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>1800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-2000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>2200</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K102" s="3">
-        <v>200</v>
       </c>
       <c r="L102" s="3">
         <v>-200</v>
       </c>
       <c r="M102" s="3">
+        <v>200</v>
+      </c>
+      <c r="N102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O102" s="3">
         <v>-247500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-219100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-78200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-32500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>1474100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-50200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-147700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-3400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-13800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-18800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-63000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>46000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>767000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LN_QTR_FIN.xlsx
@@ -1372,13 +1372,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="E17" s="3">
         <v>1100</v>
       </c>
       <c r="F17" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="G17" s="3">
         <v>700</v>
@@ -1455,7 +1455,7 @@
         <v>-1100</v>
       </c>
       <c r="F18" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="G18" s="3">
         <v>-700</v>
@@ -1641,13 +1641,13 @@
         <v>-2100</v>
       </c>
       <c r="G21" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="H21" s="3">
         <v>-900</v>
       </c>
       <c r="I21" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="J21" s="3">
         <v>-600</v>
@@ -1792,7 +1792,7 @@
         <v>-1100</v>
       </c>
       <c r="F23" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="G23" s="3">
         <v>-700</v>
@@ -2023,7 +2023,7 @@
         <v>-1100</v>
       </c>
       <c r="F26" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="G26" s="3">
         <v>-700</v>
@@ -2100,7 +2100,7 @@
         <v>-1100</v>
       </c>
       <c r="F27" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="G27" s="3">
         <v>-700</v>
@@ -2562,7 +2562,7 @@
         <v>-1100</v>
       </c>
       <c r="F33" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="G33" s="3">
         <v>-700</v>
@@ -2716,7 +2716,7 @@
         <v>-1100</v>
       </c>
       <c r="F35" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="G35" s="3">
         <v>-700</v>
@@ -2927,7 +2927,7 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="E41" s="3">
         <v>600</v>
@@ -2936,13 +2936,13 @@
         <v>200</v>
       </c>
       <c r="G41" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="H41" s="3">
         <v>500</v>
       </c>
       <c r="I41" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="J41" s="3">
         <v>300</v>
@@ -3081,13 +3081,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E43" s="3">
         <v>700</v>
       </c>
       <c r="F43" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G43" s="3">
         <v>500</v>
@@ -3099,7 +3099,7 @@
         <v>300</v>
       </c>
       <c r="J43" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K43" s="3">
         <v>300</v>
@@ -3312,10 +3312,10 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="E46" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="F46" s="3">
         <v>1000</v>
@@ -3327,7 +3327,7 @@
         <v>1100</v>
       </c>
       <c r="I46" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="J46" s="3">
         <v>700</v>
@@ -3466,25 +3466,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>52900</v>
+        <v>54500</v>
       </c>
       <c r="E48" s="3">
-        <v>52200</v>
+        <v>53800</v>
       </c>
       <c r="F48" s="3">
-        <v>51100</v>
+        <v>52700</v>
       </c>
       <c r="G48" s="3">
-        <v>49500</v>
+        <v>51000</v>
       </c>
       <c r="H48" s="3">
-        <v>46400</v>
+        <v>47800</v>
       </c>
       <c r="I48" s="3">
-        <v>43700</v>
+        <v>45000</v>
       </c>
       <c r="J48" s="3">
-        <v>41600</v>
+        <v>42800</v>
       </c>
       <c r="K48" s="3">
         <v>40000</v>
@@ -3928,25 +3928,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>55700</v>
+        <v>57400</v>
       </c>
       <c r="E54" s="3">
-        <v>53900</v>
+        <v>55500</v>
       </c>
       <c r="F54" s="3">
-        <v>52100</v>
+        <v>53700</v>
       </c>
       <c r="G54" s="3">
-        <v>51400</v>
+        <v>53000</v>
       </c>
       <c r="H54" s="3">
-        <v>47500</v>
+        <v>48900</v>
       </c>
       <c r="I54" s="3">
-        <v>46300</v>
+        <v>47700</v>
       </c>
       <c r="J54" s="3">
-        <v>42200</v>
+        <v>43500</v>
       </c>
       <c r="K54" s="3">
         <v>42600</v>
@@ -4063,25 +4063,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E57" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="F57" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="G57" s="3">
         <v>1300</v>
       </c>
       <c r="H57" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="I57" s="3">
         <v>500</v>
       </c>
       <c r="J57" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="K57" s="3">
         <v>600</v>
@@ -4149,7 +4149,7 @@
         <v>200</v>
       </c>
       <c r="G58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H58" s="3">
         <v>300</v>
@@ -4297,19 +4297,19 @@
         <v>1200</v>
       </c>
       <c r="E60" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="F60" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="G60" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="H60" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="I60" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="J60" s="3">
         <v>2100</v>
@@ -4756,25 +4756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="E66" s="3">
         <v>2100</v>
       </c>
       <c r="F66" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="G66" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="H66" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="I66" s="3">
         <v>1600</v>
       </c>
       <c r="J66" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="K66" s="3">
         <v>1700</v>
@@ -5170,25 +5170,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-73200</v>
+        <v>-75500</v>
       </c>
       <c r="E72" s="3">
+        <v>-75200</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-74800</v>
+      </c>
+      <c r="G72" s="3">
         <v>-72900</v>
       </c>
-      <c r="F72" s="3">
-        <v>-72600</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-70800</v>
-      </c>
       <c r="H72" s="3">
-        <v>-70600</v>
+        <v>-72700</v>
       </c>
       <c r="I72" s="3">
-        <v>-70100</v>
+        <v>-72200</v>
       </c>
       <c r="J72" s="3">
-        <v>-70100</v>
+        <v>-72300</v>
       </c>
       <c r="K72" s="3">
         <v>-70200</v>
@@ -5478,25 +5478,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>54500</v>
+        <v>56100</v>
       </c>
       <c r="E76" s="3">
-        <v>51800</v>
+        <v>53400</v>
       </c>
       <c r="F76" s="3">
-        <v>49500</v>
+        <v>51100</v>
       </c>
       <c r="G76" s="3">
-        <v>49600</v>
+        <v>51100</v>
       </c>
       <c r="H76" s="3">
-        <v>44800</v>
+        <v>46100</v>
       </c>
       <c r="I76" s="3">
-        <v>44700</v>
+        <v>46000</v>
       </c>
       <c r="J76" s="3">
-        <v>39900</v>
+        <v>41100</v>
       </c>
       <c r="K76" s="3">
         <v>40900</v>
@@ -5720,7 +5720,7 @@
         <v>-1100</v>
       </c>
       <c r="F81" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="G81" s="3">
         <v>-700</v>
@@ -6282,7 +6282,7 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="E89" s="3">
         <v>-1400</v>
@@ -6291,7 +6291,7 @@
         <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="H89" s="3">
         <v>800</v>
@@ -6388,7 +6388,7 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="E91" s="3">
         <v>-1200</v>
@@ -6406,7 +6406,7 @@
         <v>-200</v>
       </c>
       <c r="J91" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="K91" s="3">
         <v>-600</v>
@@ -6619,25 +6619,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="E94" s="3">
         <v>-1200</v>
       </c>
       <c r="F94" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="J94" s="3">
         <v>-2200</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-2100</v>
       </c>
       <c r="K94" s="3">
         <v>-600</v>
@@ -7033,22 +7033,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="E100" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="F100" s="3">
         <v>1400</v>
       </c>
       <c r="G100" s="3">
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="H100" s="3">
         <v>400</v>
       </c>
       <c r="I100" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="J100" s="3">
         <v>100</v>
@@ -7193,10 +7193,10 @@
         <v>400</v>
       </c>
       <c r="F102" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="G102" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H102" s="3">
         <v>-1600</v>

--- a/AAII_Financials/Quarterly/LN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
   <si>
     <t>LN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,119 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -811,46 +815,49 @@
         <v>0</v>
       </c>
       <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
         <v>552000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>544800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>533100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>687700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>482600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>547900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>453900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>419500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>389000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>456300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>348100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>338300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>320200</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -926,8 +933,11 @@
       <c r="AA9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1013,11 @@
       <c r="AA10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,31 +1203,34 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>600</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>5</v>
@@ -1224,8 +1244,8 @@
       <c r="N14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1302,46 +1325,49 @@
         <v>100</v>
       </c>
       <c r="O15" s="3">
+        <v>100</v>
+      </c>
+      <c r="P15" s="3">
         <v>55300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>51800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>49800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>31000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>27000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>23800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>21100</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>20400</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>16900</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>13900</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>13100</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>12800</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,85 +1392,89 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G17" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H17" s="3">
+        <v>800</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K17" s="3">
+        <v>700</v>
+      </c>
+      <c r="L17" s="3">
+        <v>800</v>
+      </c>
+      <c r="M17" s="3">
+        <v>600</v>
+      </c>
+      <c r="N17" s="3">
+        <v>900</v>
+      </c>
+      <c r="O17" s="3">
         <v>1100</v>
       </c>
-      <c r="F17" s="3">
-        <v>2200</v>
-      </c>
-      <c r="G17" s="3">
-        <v>700</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1100</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1100</v>
-      </c>
-      <c r="J17" s="3">
-        <v>700</v>
-      </c>
-      <c r="K17" s="3">
-        <v>800</v>
-      </c>
-      <c r="L17" s="3">
-        <v>600</v>
-      </c>
-      <c r="M17" s="3">
-        <v>900</v>
-      </c>
-      <c r="N17" s="3">
-        <v>1100</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>606800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>678600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>609000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>599300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>515800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>465500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>442600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>414100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>336100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>324300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>312400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>324100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>276500</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1452,76 +1482,79 @@
         <v>5</v>
       </c>
       <c r="E18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="O18" s="3">
         <v>-1100</v>
       </c>
-      <c r="F18" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-700</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-700</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-800</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-600</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-900</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-54800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-133800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-75800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>88400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-33200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>82500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>11300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>5400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>52900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>132000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>35700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>14200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>43700</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1567,11 +1601,11 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1585,49 +1619,52 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-19500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-31700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-32500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-54600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-30500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-20900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-12500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-33000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-14600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-10900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-4100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>9900</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1635,76 +1672,79 @@
         <v>5</v>
       </c>
       <c r="E21" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="O21" s="3">
         <v>-1000</v>
       </c>
-      <c r="F21" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-700</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-900</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-600</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-700</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-500</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-800</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-19000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-113700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-58500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>64800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-36800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>85400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>19800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-7200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>55200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>135000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>44700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>36900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>53300</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1780,85 +1820,91 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1300</v>
+        <v>-1000</v>
       </c>
       <c r="E23" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1100</v>
       </c>
-      <c r="F23" s="3">
-        <v>-2200</v>
-      </c>
       <c r="G23" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="H23" s="3">
         <v>-700</v>
       </c>
-      <c r="H23" s="3">
-        <v>-900</v>
-      </c>
       <c r="I23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="O23" s="3">
         <v>-1100</v>
       </c>
-      <c r="J23" s="3">
-        <v>-700</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-800</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-600</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-800</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-74300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-165500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-108300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>33800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-63700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>61600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-27600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>38300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>121100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>31600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>24200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>40600</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1896,46 +1942,49 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>10300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-5300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>19400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>25400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>28200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>14800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>8300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>23500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>40400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>17100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>9600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1300</v>
+        <v>-1000</v>
       </c>
       <c r="E26" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1100</v>
       </c>
-      <c r="F26" s="3">
-        <v>-2200</v>
-      </c>
       <c r="G26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="H26" s="3">
         <v>-700</v>
       </c>
-      <c r="H26" s="3">
-        <v>-900</v>
-      </c>
       <c r="I26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="O26" s="3">
         <v>-1100</v>
       </c>
-      <c r="J26" s="3">
-        <v>-700</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-800</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-600</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-800</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-84600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-166300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-103000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>14400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-89100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>33400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-16000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-35900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>14800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>80600</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>14500</v>
       </c>
       <c r="Z26" s="3">
         <v>14500</v>
       </c>
       <c r="AA26" s="3">
+        <v>14500</v>
+      </c>
+      <c r="AB26" s="3">
         <v>25900</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1300</v>
+        <v>-1000</v>
       </c>
       <c r="E27" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1100</v>
       </c>
-      <c r="F27" s="3">
-        <v>-2200</v>
-      </c>
       <c r="G27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="H27" s="3">
         <v>-700</v>
       </c>
-      <c r="H27" s="3">
-        <v>-900</v>
-      </c>
       <c r="I27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="O27" s="3">
         <v>-1100</v>
       </c>
-      <c r="J27" s="3">
-        <v>-700</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-800</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-600</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-800</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-70500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-156600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-99200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>18700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-83400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>39000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-12500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-36100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>16300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>79900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>12800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>14800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>25300</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2290,11 +2351,11 @@
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>3500</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
         <v>0</v>
       </c>
@@ -2314,13 +2375,16 @@
         <v>0</v>
       </c>
       <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
         <v>-1900</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2491,11 +2561,11 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -2509,126 +2579,132 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>19500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>31700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>32500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>54600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>30500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>20900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>12500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>33000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>14600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>10900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>4100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-9900</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1300</v>
+        <v>-1000</v>
       </c>
       <c r="E33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1100</v>
       </c>
-      <c r="F33" s="3">
-        <v>-2200</v>
-      </c>
       <c r="G33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="H33" s="3">
         <v>-700</v>
       </c>
-      <c r="H33" s="3">
-        <v>-900</v>
-      </c>
       <c r="I33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="O33" s="3">
         <v>-1100</v>
       </c>
-      <c r="J33" s="3">
-        <v>-700</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-800</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-600</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-800</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-70600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-156700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-99100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>22200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-83400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>39000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-12500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-36100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>16300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>79900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>12700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>12800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1300</v>
+        <v>-1000</v>
       </c>
       <c r="E35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1100</v>
       </c>
-      <c r="F35" s="3">
-        <v>-2200</v>
-      </c>
       <c r="G35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="H35" s="3">
         <v>-700</v>
       </c>
-      <c r="H35" s="3">
-        <v>-900</v>
-      </c>
       <c r="I35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="O35" s="3">
         <v>-1100</v>
       </c>
-      <c r="J35" s="3">
-        <v>-700</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-800</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-600</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-800</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-70600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-156700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-99100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>22200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-83400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>39000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-12500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-36100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>16300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>79900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>12700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>12800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,85 +3007,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1700</v>
+        <v>400</v>
       </c>
       <c r="E41" s="3">
-        <v>600</v>
+        <v>1800</v>
       </c>
       <c r="F41" s="3">
+        <v>700</v>
+      </c>
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1924700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2172200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2391300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2425900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2419300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>924800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>969700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1117400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1120800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1134600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1131700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1194800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1148800</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3037,46 +3127,49 @@
         <v>0</v>
       </c>
       <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
         <v>260300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>230900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>216800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>28000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>39100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>32500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>27800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>7700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>26000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>43900</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>35700</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>44500</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3084,76 +3177,79 @@
         <v>900</v>
       </c>
       <c r="E43" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="F43" s="3">
+        <v>800</v>
+      </c>
+      <c r="G43" s="3">
         <v>600</v>
       </c>
-      <c r="G43" s="3">
-        <v>500</v>
-      </c>
       <c r="H43" s="3">
+        <v>600</v>
+      </c>
+      <c r="I43" s="3">
         <v>400</v>
-      </c>
-      <c r="I43" s="3">
-        <v>300</v>
       </c>
       <c r="J43" s="3">
         <v>400</v>
       </c>
       <c r="K43" s="3">
+        <v>400</v>
+      </c>
+      <c r="L43" s="3">
         <v>300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>394500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>380400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>397700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>364200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>383800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>349400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>355800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>389600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>328500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>302600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>282700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>249800</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>224500</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3191,51 +3287,54 @@
         <v>0</v>
       </c>
       <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
         <v>60400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>37000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>50600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>46100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>56300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>29500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>26000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>31200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>26400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>22800</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>12400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>8500</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E45" s="3">
         <v>300</v>
@@ -3247,13 +3346,13 @@
         <v>300</v>
       </c>
       <c r="H45" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>5</v>
+      <c r="J45" s="3">
+        <v>200</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>5</v>
@@ -3267,124 +3366,130 @@
       <c r="N45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P45" s="3">
         <v>101300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>99300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>120900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>208700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>205700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>200900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>200600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>177500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>86800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>54300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>60500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>52000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>41400</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2900</v>
+        <v>1700</v>
       </c>
       <c r="E46" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F46" s="3">
         <v>1700</v>
       </c>
-      <c r="F46" s="3">
-        <v>1000</v>
-      </c>
       <c r="G46" s="3">
-        <v>1900</v>
+        <v>1100</v>
       </c>
       <c r="H46" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I46" s="3">
         <v>1100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K46" s="3">
+        <v>700</v>
+      </c>
+      <c r="L46" s="3">
         <v>2700</v>
       </c>
-      <c r="J46" s="3">
-        <v>700</v>
-      </c>
-      <c r="K46" s="3">
-        <v>2700</v>
-      </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2741200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2919800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3177300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3072900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3104200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1537200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1579900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1723500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1588400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1558300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1523100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1549600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1422700</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3422,123 +3527,129 @@
         <v>0</v>
       </c>
       <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
         <v>1121400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1061300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>907700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>820600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>685800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>611300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>526600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>456500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>433300</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>419800</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>283500</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>355900</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>169200</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>54500</v>
+        <v>57400</v>
       </c>
       <c r="E48" s="3">
-        <v>53800</v>
+        <v>56600</v>
       </c>
       <c r="F48" s="3">
-        <v>52700</v>
+        <v>55900</v>
       </c>
       <c r="G48" s="3">
-        <v>51000</v>
+        <v>54700</v>
       </c>
       <c r="H48" s="3">
-        <v>47800</v>
+        <v>53000</v>
       </c>
       <c r="I48" s="3">
-        <v>45000</v>
+        <v>49700</v>
       </c>
       <c r="J48" s="3">
+        <v>46700</v>
+      </c>
+      <c r="K48" s="3">
         <v>42800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>40000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>39500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>38200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>37900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>785300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>789700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>710600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>233400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>215200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>174000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>162900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>136700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>123600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>115800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>118400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>80100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>73500</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3548,17 +3659,17 @@
       <c r="E49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>5</v>
+      <c r="F49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I49" s="3">
-        <v>0</v>
+      <c r="I49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J49" s="3">
         <v>0</v>
@@ -3576,46 +3687,49 @@
         <v>0</v>
       </c>
       <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
         <v>241000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>247700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>221900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>211400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>215900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>207000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>208500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>210200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>123100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>67400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>44400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>46600</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>44900</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3807,46 +3927,49 @@
         <v>0</v>
       </c>
       <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
         <v>208800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>186400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>181500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>255200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>245600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>215300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>215400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>216200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>293700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>285000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>321400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>239300</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>224100</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>57400</v>
+        <v>59100</v>
       </c>
       <c r="E54" s="3">
-        <v>55500</v>
+        <v>59600</v>
       </c>
       <c r="F54" s="3">
-        <v>53700</v>
+        <v>57600</v>
       </c>
       <c r="G54" s="3">
-        <v>53000</v>
+        <v>55800</v>
       </c>
       <c r="H54" s="3">
-        <v>48900</v>
+        <v>55000</v>
       </c>
       <c r="I54" s="3">
-        <v>47700</v>
+        <v>50800</v>
       </c>
       <c r="J54" s="3">
+        <v>49500</v>
+      </c>
+      <c r="K54" s="3">
         <v>43500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>42600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>39800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>38600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>38100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5097500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5204900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5199000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4593400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4466700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2744900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2693300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2743100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2562000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2446300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2290800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2271500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1934400</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,47 +4187,48 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E57" s="3">
         <v>900</v>
       </c>
-      <c r="E57" s="3">
-        <v>1600</v>
-      </c>
       <c r="F57" s="3">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="G57" s="3">
-        <v>1300</v>
+        <v>2100</v>
       </c>
       <c r="H57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I57" s="3">
         <v>1800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>400</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
       <c r="P57" s="3">
         <v>0</v>
       </c>
@@ -4134,8 +4265,11 @@
       <c r="AA57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4143,13 +4277,13 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>200</v>
-      </c>
-      <c r="G58" s="3">
-        <v>300</v>
       </c>
       <c r="H58" s="3">
         <v>300</v>
@@ -4164,209 +4298,218 @@
         <v>300</v>
       </c>
       <c r="L58" s="3">
+        <v>300</v>
+      </c>
+      <c r="M58" s="3">
         <v>400</v>
-      </c>
-      <c r="M58" s="3">
-        <v>300</v>
       </c>
       <c r="N58" s="3">
         <v>300</v>
       </c>
       <c r="O58" s="3">
+        <v>300</v>
+      </c>
+      <c r="P58" s="3">
         <v>108500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>106100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>90800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>217800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>215900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>201700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>202700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>201300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>199700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>180400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>185100</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>194500</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>500</v>
+      </c>
+      <c r="E59" s="3">
         <v>300</v>
-      </c>
-      <c r="E59" s="3">
-        <v>400</v>
       </c>
       <c r="F59" s="3">
         <v>400</v>
       </c>
       <c r="G59" s="3">
+        <v>500</v>
+      </c>
+      <c r="H59" s="3">
         <v>300</v>
-      </c>
-      <c r="H59" s="3">
-        <v>700</v>
       </c>
       <c r="I59" s="3">
         <v>700</v>
       </c>
       <c r="J59" s="3">
+        <v>700</v>
+      </c>
+      <c r="K59" s="3">
         <v>900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1276900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1297200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1232500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>945400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>850200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>716500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>705700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>715500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>614400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>560400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>535600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>572200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>466900</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="E60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G60" s="3">
+        <v>2700</v>
+      </c>
+      <c r="H60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K60" s="3">
         <v>2100</v>
       </c>
-      <c r="F60" s="3">
-        <v>2600</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1900</v>
-      </c>
-      <c r="H60" s="3">
-        <v>2700</v>
-      </c>
-      <c r="I60" s="3">
-        <v>1500</v>
-      </c>
-      <c r="J60" s="3">
-        <v>2100</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1385300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1403400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1323300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1163300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1066100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>918200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>908400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>916800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>814100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>740800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>720700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>766700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>469200</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4383,67 +4526,70 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>100</v>
-      </c>
-      <c r="I61" s="3">
-        <v>200</v>
       </c>
       <c r="J61" s="3">
         <v>200</v>
       </c>
       <c r="K61" s="3">
+        <v>200</v>
+      </c>
+      <c r="L61" s="3">
         <v>300</v>
-      </c>
-      <c r="L61" s="3">
-        <v>400</v>
       </c>
       <c r="M61" s="3">
         <v>400</v>
       </c>
       <c r="N61" s="3">
+        <v>400</v>
+      </c>
+      <c r="O61" s="3">
         <v>500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1816800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1817300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1751000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1341700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1318500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>5400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>300</v>
       </c>
-      <c r="Z61" s="3">
-        <v>0</v>
-      </c>
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4481,46 +4627,49 @@
         <v>0</v>
       </c>
       <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
         <v>141600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>134000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>131800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>120000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>116700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>102800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>108100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>103400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>108100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>103300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>101200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>76600</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>74700</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E66" s="3">
         <v>1300</v>
       </c>
-      <c r="E66" s="3">
-        <v>2100</v>
-      </c>
       <c r="F66" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I66" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M66" s="3">
         <v>2700</v>
       </c>
-      <c r="G66" s="3">
-        <v>1900</v>
-      </c>
-      <c r="H66" s="3">
-        <v>2800</v>
-      </c>
-      <c r="I66" s="3">
-        <v>1600</v>
-      </c>
-      <c r="J66" s="3">
-        <v>2400</v>
-      </c>
-      <c r="K66" s="3">
-        <v>1700</v>
-      </c>
-      <c r="L66" s="3">
-        <v>2700</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3513400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3554800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3387000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2715600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2609900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1055500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1056200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1070000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>959500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>852300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>825700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>844900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>546500</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-79300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-78400</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-77600</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-75700</v>
+      </c>
+      <c r="I72" s="3">
         <v>-75500</v>
       </c>
-      <c r="E72" s="3">
-        <v>-75200</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-74800</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-72900</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-72700</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-72200</v>
-      </c>
       <c r="J72" s="3">
+        <v>-75000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-72300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-70200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-69600</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-67400</v>
       </c>
       <c r="N72" s="3">
         <v>-67400</v>
       </c>
       <c r="O72" s="3">
+        <v>-67400</v>
+      </c>
+      <c r="P72" s="3">
         <v>-379300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-308800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-152500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-52400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-94400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-10900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-49700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-38800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-2700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-19000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-97000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-109800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-122700</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>56100</v>
+        <v>57500</v>
       </c>
       <c r="E76" s="3">
-        <v>53400</v>
+        <v>58300</v>
       </c>
       <c r="F76" s="3">
-        <v>51100</v>
+        <v>55400</v>
       </c>
       <c r="G76" s="3">
-        <v>51100</v>
+        <v>53000</v>
       </c>
       <c r="H76" s="3">
-        <v>46100</v>
+        <v>53000</v>
       </c>
       <c r="I76" s="3">
-        <v>46000</v>
+        <v>47900</v>
       </c>
       <c r="J76" s="3">
+        <v>47800</v>
+      </c>
+      <c r="K76" s="3">
         <v>41100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>40900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>37100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>36800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>35000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1584200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1650100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1812000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1877800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1856800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1689400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1637100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1673100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1602600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1594000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1465100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1426600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1388000</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1300</v>
+        <v>-1000</v>
       </c>
       <c r="E81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1100</v>
       </c>
-      <c r="F81" s="3">
-        <v>-2200</v>
-      </c>
       <c r="G81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="H81" s="3">
         <v>-700</v>
       </c>
-      <c r="H81" s="3">
-        <v>-900</v>
-      </c>
       <c r="I81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="O81" s="3">
         <v>-1100</v>
       </c>
-      <c r="J81" s="3">
-        <v>-700</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-800</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-600</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-800</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-70600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-156700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-99100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>22200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-83400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>39000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-12500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-36100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>16300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>79900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>12700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>12800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5853,46 +6052,49 @@
         <v>100</v>
       </c>
       <c r="O83" s="3">
+        <v>100</v>
+      </c>
+      <c r="P83" s="3">
         <v>55300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>51800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>49800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>31000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>27000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>23800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>21100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>20400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>16900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>13900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>13100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>12800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1600</v>
       </c>
-      <c r="E89" s="3">
-        <v>-1400</v>
-      </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-1500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>800</v>
       </c>
-      <c r="I89" s="3">
-        <v>-1500</v>
-      </c>
       <c r="J89" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K89" s="3">
         <v>100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-71500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-19900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>59500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-4900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>7900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>22500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>62300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>35200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>47100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-44600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>110000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>39800</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6602,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>1200</v>
       </c>
-      <c r="E91" s="3">
-        <v>-1200</v>
-      </c>
       <c r="F91" s="3">
-        <v>-500</v>
+        <v>-1300</v>
       </c>
       <c r="G91" s="3">
         <v>-500</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>2300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-36500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-38800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-59700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-61000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-55300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-35100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-42200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-38000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-23700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-31600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-20400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-25500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-800</v>
       </c>
-      <c r="E94" s="3">
-        <v>-1200</v>
-      </c>
       <c r="F94" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="J94" s="3">
         <v>-2300</v>
       </c>
-      <c r="G94" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>2300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-128300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-231000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-145000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-89200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-174000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-60400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-163200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-156100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-73700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-61100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-18200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-266300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-29300</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,85 +7270,91 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>3400</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
-        <v>3100</v>
+        <v>3500</v>
       </c>
       <c r="F100" s="3">
-        <v>1400</v>
+        <v>3200</v>
       </c>
       <c r="G100" s="3">
-        <v>5300</v>
+        <v>1500</v>
       </c>
       <c r="H100" s="3">
+        <v>5500</v>
+      </c>
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
-        <v>5600</v>
-      </c>
       <c r="J100" s="3">
+        <v>5800</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-49700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>22000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>87700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>8100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1646700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>82900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>26100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-5200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>196900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>754900</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7143,119 +7392,125 @@
         <v>0</v>
       </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>1900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-13700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-11000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>6400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-8800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>7500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-1500</v>
-      </c>
-      <c r="X101" s="3">
-        <v>300</v>
       </c>
       <c r="Y101" s="3">
         <v>300</v>
       </c>
       <c r="Z101" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA101" s="3">
         <v>5300</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1000</v>
+        <v>-1300</v>
       </c>
       <c r="E102" s="3">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="F102" s="3">
+        <v>500</v>
+      </c>
+      <c r="G102" s="3">
         <v>-900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>600</v>
       </c>
-      <c r="H102" s="3">
-        <v>-1600</v>
-      </c>
       <c r="I102" s="3">
-        <v>1800</v>
+        <v>-1700</v>
       </c>
       <c r="J102" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-2000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-247500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-219100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-78200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-32500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1474100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-50200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-147700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-3400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-13800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-18800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-63000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>46000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>767000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
   <si>
     <t>LN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,126 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -818,46 +825,52 @@
         <v>0</v>
       </c>
       <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
         <v>552000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>544800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>533100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>687700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>482600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>547900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>453900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>419500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>389000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>456300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>348100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>338300</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>320200</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -936,8 +949,14 @@
       <c r="AB9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,8 +1035,14 @@
       <c r="AB10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1071,10 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,8 +1153,14 @@
       <c r="AB12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,37 +1239,43 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>600</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>5</v>
@@ -1247,11 +1286,11 @@
       <c r="O14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1286,16 +1325,22 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F15" s="3">
         <v>100</v>
@@ -1328,46 +1373,52 @@
         <v>100</v>
       </c>
       <c r="P15" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>100</v>
+      </c>
+      <c r="R15" s="3">
         <v>55300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>51800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>49800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>31000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>27000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>23800</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>21100</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>20400</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>16900</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>13900</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AB15" s="3">
         <v>13100</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AC15" s="3">
         <v>12800</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AD15" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,88 +1444,96 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>700</v>
+      </c>
+      <c r="F17" s="3">
         <v>1000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>700</v>
+      </c>
+      <c r="K17" s="3">
         <v>1200</v>
       </c>
-      <c r="G17" s="3">
-        <v>2300</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="L17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M17" s="3">
+        <v>700</v>
+      </c>
+      <c r="N17" s="3">
         <v>800</v>
       </c>
-      <c r="I17" s="3">
-        <v>1200</v>
-      </c>
-      <c r="J17" s="3">
-        <v>1200</v>
-      </c>
-      <c r="K17" s="3">
-        <v>700</v>
-      </c>
-      <c r="L17" s="3">
-        <v>800</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>606800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>678600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>609000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>599300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>515800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>465500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>442600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>414100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>336100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>324300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>312400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>324100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>276500</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1482,79 +1541,85 @@
         <v>5</v>
       </c>
       <c r="E18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1200</v>
       </c>
-      <c r="G18" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="L18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N18" s="3">
         <v>-800</v>
       </c>
-      <c r="I18" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-700</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-800</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-1100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-54800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-133800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-75800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>88400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-33200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>82500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>11300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>5400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>52900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>132000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>35700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>14200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>43700</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,8 +1648,10 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1592,7 +1659,7 @@
         <v>5</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1604,14 +1671,14 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1622,49 +1689,55 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-19500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-31700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-32500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-54600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-30500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-20900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-12500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-33000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-14600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-10900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-4100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>9900</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1672,79 +1745,85 @@
         <v>5</v>
       </c>
       <c r="E21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G21" s="3">
         <v>-1300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-1100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-2200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-1000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-19000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-113700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-58500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>64800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-36800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>85400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>19800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-7200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>55200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>135000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>44700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>36900</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>53300</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1823,88 +1902,100 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1100</v>
       </c>
-      <c r="G23" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="J23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-700</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-800</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-600</v>
       </c>
       <c r="N23" s="3">
         <v>-800</v>
       </c>
       <c r="O23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-1100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-74300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-165500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-108300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>33800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-63700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>61600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-1200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-27600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>38300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>121100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>31600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>24200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>40600</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1945,46 +2036,52 @@
         <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>10300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>-5300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>19400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>25400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>28200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>14800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>8300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>23500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>40400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>17100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>9600</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2160,186 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1100</v>
       </c>
-      <c r="G26" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="J26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-700</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-800</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-600</v>
       </c>
       <c r="N26" s="3">
         <v>-800</v>
       </c>
       <c r="O26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-1100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-84600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-166300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-103000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>14400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-89100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>33400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-16000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-35900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>14800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>80600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>14500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>14500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>25900</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1100</v>
       </c>
-      <c r="G27" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="J27" s="3">
         <v>-700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-700</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-800</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-600</v>
       </c>
       <c r="N27" s="3">
         <v>-800</v>
       </c>
       <c r="O27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-1100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-70500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-156600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-99200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>18700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-83400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>39000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-12500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-36100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>16300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>79900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>12800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>14800</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>25300</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2418,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2354,14 +2475,14 @@
         <v>0</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>3500</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
       <c r="V29" s="3">
         <v>0</v>
       </c>
@@ -2378,13 +2499,19 @@
         <v>0</v>
       </c>
       <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
         <v>-1900</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AD29" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2590,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,8 +2676,14 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2552,7 +2691,7 @@
         <v>5</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2564,14 +2703,14 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2582,129 +2721,141 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>19500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>31700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>32500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>54600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>30500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>20900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>12500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>33000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>14600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>10900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>4100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>-9900</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1100</v>
       </c>
-      <c r="G33" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="J33" s="3">
         <v>-700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-700</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-800</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-600</v>
       </c>
       <c r="N33" s="3">
         <v>-800</v>
       </c>
       <c r="O33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-1100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-70600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-156700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-99100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>22200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-83400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>39000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-12500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-36100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>16300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>79900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>12700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>12800</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2934,191 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1100</v>
       </c>
-      <c r="G35" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="J35" s="3">
         <v>-700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-700</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-800</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-600</v>
       </c>
       <c r="N35" s="3">
         <v>-800</v>
       </c>
       <c r="O35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-1100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-70600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-156700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-99100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>22200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-83400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>39000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-12500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-36100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>16300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>79900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>12700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>12800</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3147,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,88 +3179,96 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>200</v>
+      </c>
+      <c r="F41" s="3">
         <v>400</v>
       </c>
-      <c r="E41" s="3">
-        <v>1800</v>
-      </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H41" s="3">
         <v>700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>2300</v>
-      </c>
-      <c r="M41" s="3">
-        <v>100</v>
-      </c>
-      <c r="N41" s="3">
-        <v>300</v>
       </c>
       <c r="O41" s="3">
         <v>100</v>
       </c>
       <c r="P41" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>100</v>
+      </c>
+      <c r="R41" s="3">
         <v>1924700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>2172200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>2391300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>2425900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>2419300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>924800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>969700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>1117400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>1120800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>1134600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>1131700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>1194800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>1148800</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3130,126 +3309,138 @@
         <v>0</v>
       </c>
       <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
         <v>260300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>230900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>216800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>28000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>39100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>32500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>27800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>7700</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>26000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>43900</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>35700</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>44500</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AD42" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E43" s="3">
         <v>900</v>
       </c>
       <c r="F43" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="G43" s="3">
+        <v>900</v>
+      </c>
+      <c r="H43" s="3">
+        <v>700</v>
+      </c>
+      <c r="I43" s="3">
         <v>600</v>
       </c>
-      <c r="H43" s="3">
-        <v>600</v>
-      </c>
-      <c r="I43" s="3">
-        <v>400</v>
-      </c>
       <c r="J43" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K43" s="3">
         <v>400</v>
       </c>
       <c r="L43" s="3">
+        <v>400</v>
+      </c>
+      <c r="M43" s="3">
+        <v>400</v>
+      </c>
+      <c r="N43" s="3">
         <v>300</v>
-      </c>
-      <c r="M43" s="3">
-        <v>100</v>
-      </c>
-      <c r="N43" s="3">
-        <v>200</v>
       </c>
       <c r="O43" s="3">
         <v>100</v>
       </c>
       <c r="P43" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>100</v>
+      </c>
+      <c r="R43" s="3">
         <v>394500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>380400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>397700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>364200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>383800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>349400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>355800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>389600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>328500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>302600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>282700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>249800</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>224500</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3290,76 +3481,82 @@
         <v>0</v>
       </c>
       <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
         <v>60400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>37000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>50600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>46100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>56300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>29500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>26000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>31200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>26400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>22800</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>12400</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>8500</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AD44" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E45" s="3">
         <v>300</v>
       </c>
       <c r="F45" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G45" s="3">
         <v>300</v>
       </c>
       <c r="H45" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I45" s="3">
+        <v>300</v>
+      </c>
+      <c r="J45" s="3">
+        <v>300</v>
+      </c>
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>5</v>
       </c>
@@ -3369,127 +3566,139 @@
       <c r="O45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R45" s="3">
         <v>101300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>99300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>120900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>208700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>205700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>200900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>200600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>177500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>86800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>54300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>60500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>52000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>41400</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="E46" s="3">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="F46" s="3">
         <v>1700</v>
       </c>
       <c r="G46" s="3">
-        <v>1100</v>
+        <v>2900</v>
       </c>
       <c r="H46" s="3">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="I46" s="3">
         <v>1100</v>
       </c>
       <c r="J46" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L46" s="3">
         <v>2800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>2700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>2741200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>2919800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>3177300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>3072900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>3104200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>1537200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>1579900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>1723500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>1588400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>1558300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>1523100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>1549600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>1422700</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3530,152 +3739,164 @@
         <v>0</v>
       </c>
       <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
         <v>1121400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>1061300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>907700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>820600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>685800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>611300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>526600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>456500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>433300</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>419800</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>283500</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>355900</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AD47" s="3">
         <v>169200</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>57400</v>
+        <v>56100</v>
       </c>
       <c r="E48" s="3">
-        <v>56600</v>
+        <v>56400</v>
       </c>
       <c r="F48" s="3">
-        <v>55900</v>
+        <v>56100</v>
       </c>
       <c r="G48" s="3">
-        <v>54700</v>
+        <v>55300</v>
       </c>
       <c r="H48" s="3">
-        <v>53000</v>
+        <v>54600</v>
       </c>
       <c r="I48" s="3">
+        <v>53400</v>
+      </c>
+      <c r="J48" s="3">
+        <v>51700</v>
+      </c>
+      <c r="K48" s="3">
         <v>49700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>46700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>42800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>40000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>39500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>38200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>37900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>785300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>789700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>710600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>233400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>215200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>174000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>162900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>136700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>123600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>115800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>118400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>80100</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>73500</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
       </c>
       <c r="G49" s="3">
         <v>0</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
       </c>
       <c r="J49" s="3">
         <v>0</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -3690,46 +3911,52 @@
         <v>0</v>
       </c>
       <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
         <v>241000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>247700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>221900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>211400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>215900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>207000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>208500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>210200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>123100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>67400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>44400</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>46600</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AD49" s="3">
         <v>44900</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4035,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4121,14 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3930,46 +4169,52 @@
         <v>0</v>
       </c>
       <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
         <v>208800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>186400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>181500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>255200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>245600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>215300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>215400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>216200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>293700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>285000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>321400</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>239300</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>224100</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4293,100 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>59100</v>
+        <v>57700</v>
       </c>
       <c r="E54" s="3">
-        <v>59600</v>
+        <v>57900</v>
       </c>
       <c r="F54" s="3">
-        <v>57600</v>
+        <v>57800</v>
       </c>
       <c r="G54" s="3">
-        <v>55800</v>
+        <v>58200</v>
       </c>
       <c r="H54" s="3">
-        <v>55000</v>
+        <v>56300</v>
       </c>
       <c r="I54" s="3">
+        <v>54400</v>
+      </c>
+      <c r="J54" s="3">
+        <v>53700</v>
+      </c>
+      <c r="K54" s="3">
         <v>50800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>49500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>43500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>42600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>39800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>38600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>38100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>5097500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>5204900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>5199000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>4593400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>4466700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>2744900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>2693300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>2743100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>2562000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>2446300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>2290800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>2271500</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>1934400</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4415,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,53 +4447,55 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>700</v>
+      </c>
+      <c r="F57" s="3">
         <v>1100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>900</v>
       </c>
-      <c r="F57" s="3">
-        <v>1700</v>
-      </c>
-      <c r="G57" s="3">
-        <v>2100</v>
-      </c>
       <c r="H57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J57" s="3">
         <v>1400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>400</v>
       </c>
-      <c r="P57" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>0</v>
-      </c>
       <c r="R57" s="3">
         <v>0</v>
       </c>
@@ -4268,28 +4529,34 @@
       <c r="AB57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>200</v>
-      </c>
-      <c r="H58" s="3">
-        <v>300</v>
-      </c>
-      <c r="I58" s="3">
-        <v>300</v>
       </c>
       <c r="J58" s="3">
         <v>300</v>
@@ -4301,220 +4568,238 @@
         <v>300</v>
       </c>
       <c r="M58" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N58" s="3">
         <v>300</v>
       </c>
       <c r="O58" s="3">
+        <v>400</v>
+      </c>
+      <c r="P58" s="3">
         <v>300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
+        <v>300</v>
+      </c>
+      <c r="R58" s="3">
         <v>108500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>106100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>90800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>217800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>215900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>201700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>202700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>201300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>199700</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>180400</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>185100</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>194500</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AD58" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F59" s="3">
         <v>500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>900</v>
-      </c>
-      <c r="L59" s="3">
-        <v>600</v>
-      </c>
-      <c r="M59" s="3">
-        <v>1200</v>
       </c>
       <c r="N59" s="3">
         <v>600</v>
       </c>
       <c r="O59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P59" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q59" s="3">
         <v>1800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1276900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1297200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1232500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>945400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>850200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>716500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>705700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>715500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>614400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>560400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>535600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>572200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>466900</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F60" s="3">
         <v>1600</v>
       </c>
-      <c r="E60" s="3">
-        <v>1300</v>
-      </c>
-      <c r="F60" s="3">
-        <v>2200</v>
-      </c>
       <c r="G60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I60" s="3">
         <v>2700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2100</v>
-      </c>
-      <c r="L60" s="3">
-        <v>1400</v>
-      </c>
-      <c r="M60" s="3">
-        <v>2300</v>
       </c>
       <c r="N60" s="3">
         <v>1400</v>
       </c>
       <c r="O60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="P60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q60" s="3">
         <v>2500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1385300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1403400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1323300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1163300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1066100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>918200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>908400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>916800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>814100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>740800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>720700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>766700</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>469200</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -4529,67 +4814,73 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1816800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>1817300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>1751000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>1341700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>1318500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>2900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>3000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>5400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>1400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>300</v>
       </c>
-      <c r="AA61" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4630,46 +4921,52 @@
         <v>0</v>
       </c>
       <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
         <v>141600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>134000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>131800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>120000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>116700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>102800</v>
-      </c>
-      <c r="V62" s="3">
-        <v>108100</v>
-      </c>
-      <c r="W62" s="3">
-        <v>103400</v>
       </c>
       <c r="X62" s="3">
         <v>108100</v>
       </c>
       <c r="Y62" s="3">
+        <v>103400</v>
+      </c>
+      <c r="Z62" s="3">
+        <v>108100</v>
+      </c>
+      <c r="AA62" s="3">
         <v>103300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>101200</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>76600</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>74700</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5045,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5131,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5217,100 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1700</v>
+        <v>2700</v>
       </c>
       <c r="E66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G66" s="3">
         <v>1300</v>
       </c>
-      <c r="F66" s="3">
-        <v>2200</v>
-      </c>
-      <c r="G66" s="3">
-        <v>2800</v>
-      </c>
       <c r="H66" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="I66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K66" s="3">
         <v>2900</v>
-      </c>
-      <c r="J66" s="3">
-        <v>1700</v>
-      </c>
-      <c r="K66" s="3">
-        <v>2400</v>
       </c>
       <c r="L66" s="3">
         <v>1700</v>
       </c>
       <c r="M66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="N66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O66" s="3">
         <v>2700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>3100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>3513400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>3554800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>3387000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>2715600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>2609900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1055500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1056200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>1070000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>959500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>852300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>825700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>844900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>546500</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5339,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5421,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5507,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5593,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5679,100 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-79300</v>
+        <v>-78600</v>
       </c>
       <c r="E72" s="3">
-        <v>-78400</v>
+        <v>-77900</v>
       </c>
       <c r="F72" s="3">
-        <v>-78000</v>
+        <v>-77400</v>
       </c>
       <c r="G72" s="3">
-        <v>-77600</v>
+        <v>-76500</v>
       </c>
       <c r="H72" s="3">
-        <v>-75700</v>
+        <v>-76200</v>
       </c>
       <c r="I72" s="3">
+        <v>-75800</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-73900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-75500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-75000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-72300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-70200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-69600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-67400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-67400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-379300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-308800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-152500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-52400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-94400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-10900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-49700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-38800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-2700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-19000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-97000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-109800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-122700</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5851,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5937,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +6023,100 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>57500</v>
+        <v>55000</v>
       </c>
       <c r="E76" s="3">
-        <v>58300</v>
+        <v>55600</v>
       </c>
       <c r="F76" s="3">
-        <v>55400</v>
+        <v>56100</v>
       </c>
       <c r="G76" s="3">
-        <v>53000</v>
+        <v>56900</v>
       </c>
       <c r="H76" s="3">
-        <v>53000</v>
+        <v>54100</v>
       </c>
       <c r="I76" s="3">
+        <v>51800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>51800</v>
+      </c>
+      <c r="K76" s="3">
         <v>47900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>47800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>41100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>40900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>37100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>36800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>35000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1584200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1650100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1812000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1877800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>1856800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>1689400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>1637100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>1673100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>1602600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>1594000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>1465100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>1426600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>1388000</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6195,191 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1100</v>
       </c>
-      <c r="G81" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="J81" s="3">
         <v>-700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-700</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-800</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-600</v>
       </c>
       <c r="N81" s="3">
         <v>-800</v>
       </c>
       <c r="O81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-1100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-70600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-156700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-99100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>22200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-83400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>39000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-12500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-36100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>16300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>79900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>12700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>12800</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,16 +6408,18 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F83" s="3">
         <v>100</v>
@@ -6055,46 +6452,52 @@
         <v>100</v>
       </c>
       <c r="P83" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>100</v>
+      </c>
+      <c r="R83" s="3">
         <v>55300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>51800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>49800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>31000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>27000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>23800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>21100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>20400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>16900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>13900</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>13100</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>12800</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AD83" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6576,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6662,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6748,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6834,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6920,100 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1600</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
       </c>
       <c r="H89" s="3">
         <v>-1500</v>
       </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="K89" s="3">
         <v>800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-1600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-71500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>3600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-19900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>59500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-4900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>7900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>22500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>62300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>35200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>47100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>-44600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>110000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>39800</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,88 +7042,96 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="E91" s="3">
-        <v>1200</v>
+        <v>-200</v>
       </c>
       <c r="F91" s="3">
-        <v>-1300</v>
+        <v>-600</v>
       </c>
       <c r="G91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O91" s="3">
         <v>-500</v>
       </c>
-      <c r="H91" s="3">
-        <v>-600</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-600</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-500</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>2300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-36500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-38800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-59700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-61000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-55300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-35100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-42200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-38000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-23700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-31600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-20400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-25500</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AD91" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7210,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7296,100 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-800</v>
       </c>
-      <c r="F94" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-2400</v>
-      </c>
       <c r="H94" s="3">
-        <v>-3400</v>
+        <v>-1200</v>
       </c>
       <c r="I94" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-2300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-2200</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-600</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-500</v>
       </c>
       <c r="N94" s="3">
         <v>-600</v>
       </c>
       <c r="O94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q94" s="3">
         <v>2300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-128300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-231000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-145000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-89200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-174000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-60400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-163200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-156100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-73700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-61100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-18200</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-266300</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>-29300</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7418,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7500,14 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7586,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7672,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,88 +7758,100 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>500</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
-        <v>3500</v>
-      </c>
-      <c r="F100" s="3">
-        <v>3200</v>
-      </c>
       <c r="G100" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H100" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I100" s="3">
         <v>1500</v>
       </c>
-      <c r="H100" s="3">
-        <v>5500</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>5800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>3900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>1500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-2000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-49700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>22000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>87700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>8100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>1646700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>1800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>82900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>26100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-5200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>196900</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>754900</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7395,122 +7892,134 @@
         <v>0</v>
       </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>1900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-13700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-1100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-11000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>6400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>1600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-8800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>7500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>300</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>300</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>5300</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AD101" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>1100</v>
       </c>
-      <c r="F102" s="3">
-        <v>500</v>
-      </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
+        <v>400</v>
+      </c>
+      <c r="I102" s="3">
         <v>-900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-1700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-2000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>2200</v>
-      </c>
-      <c r="M102" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N102" s="3">
-        <v>200</v>
       </c>
       <c r="O102" s="3">
         <v>-200</v>
       </c>
       <c r="P102" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R102" s="3">
         <v>-247500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-219100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-78200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-32500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>1474100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-50200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-147700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-3400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-13800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-18800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-63000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>46000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>767000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
   <si>
     <t>LN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,126 +665,130 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -831,46 +835,49 @@
         <v>0</v>
       </c>
       <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
         <v>552000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>544800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>533100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>687700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>482600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>547900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>453900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>419500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>389000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>456300</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>348100</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>338300</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>320200</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -955,8 +962,11 @@
       <c r="AD9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1041,8 +1051,11 @@
       <c r="AD10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,40 +1262,43 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>600</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>5</v>
@@ -1292,8 +1312,8 @@
       <c r="Q14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1331,8 +1351,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1343,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G15" s="3">
         <v>100</v>
@@ -1379,46 +1402,49 @@
         <v>100</v>
       </c>
       <c r="R15" s="3">
+        <v>100</v>
+      </c>
+      <c r="S15" s="3">
         <v>55300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>51800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>49800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>31000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>27000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>23800</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>21100</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>20400</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>16900</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>13900</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>13100</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>12800</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,94 +1472,98 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>700</v>
-      </c>
-      <c r="K17" s="3">
-        <v>1200</v>
       </c>
       <c r="L17" s="3">
         <v>1200</v>
       </c>
       <c r="M17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N17" s="3">
         <v>700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>606800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>678600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>609000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>599300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>515800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>465500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>442600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>414100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>336100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>324300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>312400</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>324100</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>276500</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1541,85 +1571,88 @@
         <v>5</v>
       </c>
       <c r="E18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-700</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-1200</v>
       </c>
       <c r="L18" s="3">
         <v>-1200</v>
       </c>
       <c r="M18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="N18" s="3">
         <v>-700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-54800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-133800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-75800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>88400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-33200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>82500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>11300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>5400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>52900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>132000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>35700</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>14200</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>43700</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,8 +1683,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1659,11 +1693,11 @@
         <v>5</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1677,11 +1711,11 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1695,49 +1729,52 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-19500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-31700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-32500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-54600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-30500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-20900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-12500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-33000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-14600</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-10900</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-4100</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>9900</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1745,85 +1782,88 @@
         <v>5</v>
       </c>
       <c r="E21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-19000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-113700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-58500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>64800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-36800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>85400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>19800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-7200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>55200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>135000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>44700</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>36900</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>53300</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1908,94 +1948,100 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-74300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-165500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-108300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>33800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-63700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>61600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-27600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>38300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>121100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>31600</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>24200</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>40600</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2042,46 +2088,49 @@
         <v>0</v>
       </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>10300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-5300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>19400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>25400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>28200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>14800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>8300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>23500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>40400</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>17100</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>9600</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-84600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-166300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-103000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>14400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-89100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>33400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-16000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-35900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>14800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>80600</v>
-      </c>
-      <c r="AB26" s="3">
-        <v>14500</v>
       </c>
       <c r="AC26" s="3">
         <v>14500</v>
       </c>
       <c r="AD26" s="3">
+        <v>14500</v>
+      </c>
+      <c r="AE26" s="3">
         <v>25900</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-70500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-156600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-99200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>18700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-83400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>39000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-12500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-36100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>16300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>79900</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>12800</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>14800</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>25300</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2481,11 +2542,11 @@
         <v>0</v>
       </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>3500</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
       <c r="W29" s="3">
         <v>0</v>
       </c>
@@ -2505,13 +2566,16 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
         <v>-1900</v>
       </c>
-      <c r="AD29" s="3">
+      <c r="AE29" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,8 +2749,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2691,11 +2761,11 @@
         <v>5</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2709,11 +2779,11 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2727,135 +2797,141 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>19500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>31700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>32500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>54600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>30500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>20900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>12500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>33000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>14600</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>10900</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>4100</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-9900</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-70600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-156700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-99100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>22200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-83400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>39000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-12500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-36100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>16300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>79900</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>12700</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>12800</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-70600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-156700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-99100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>22200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-83400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>39000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-12500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-36100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>16300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>79900</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>12700</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>12800</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,94 +3267,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E41" s="3">
         <v>200</v>
       </c>
       <c r="F41" s="3">
+        <v>200</v>
+      </c>
+      <c r="G41" s="3">
         <v>400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1924700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2172200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2391300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2425900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2419300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>924800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>969700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1117400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1120800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1134600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1131700</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>1194800</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>1148800</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3315,54 +3405,57 @@
         <v>0</v>
       </c>
       <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
         <v>260300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>230900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>216800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>28000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>39100</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>32500</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>27800</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>7700</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>26000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>43900</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>35700</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>44500</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>800</v>
+      </c>
+      <c r="E43" s="3">
         <v>1000</v>
-      </c>
-      <c r="E43" s="3">
-        <v>900</v>
       </c>
       <c r="F43" s="3">
         <v>900</v>
@@ -3371,16 +3464,16 @@
         <v>900</v>
       </c>
       <c r="H43" s="3">
+        <v>900</v>
+      </c>
+      <c r="I43" s="3">
         <v>700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>500</v>
-      </c>
-      <c r="K43" s="3">
-        <v>400</v>
       </c>
       <c r="L43" s="3">
         <v>400</v>
@@ -3389,58 +3482,61 @@
         <v>400</v>
       </c>
       <c r="N43" s="3">
+        <v>400</v>
+      </c>
+      <c r="O43" s="3">
         <v>300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>394500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>380400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>397700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>364200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>383800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>349400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>355800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>389600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>328500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>302600</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>282700</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>249800</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>224500</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3487,60 +3583,63 @@
         <v>0</v>
       </c>
       <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
         <v>60400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>37000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>50600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>46100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>56300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>29500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>26000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>31200</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>26400</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>22800</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>12400</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>8500</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E45" s="3">
         <v>300</v>
       </c>
       <c r="F45" s="3">
+        <v>300</v>
+      </c>
+      <c r="G45" s="3">
         <v>400</v>
-      </c>
-      <c r="G45" s="3">
-        <v>300</v>
       </c>
       <c r="H45" s="3">
         <v>300</v>
@@ -3552,13 +3651,13 @@
         <v>300</v>
       </c>
       <c r="K45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>5</v>
+      <c r="M45" s="3">
+        <v>200</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>5</v>
@@ -3572,133 +3671,139 @@
       <c r="Q45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S45" s="3">
         <v>101300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>99300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>120900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>208700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>205700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>200900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>200600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>177500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>86800</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>54300</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>60500</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>52000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>41400</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E46" s="3">
         <v>1600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2741200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2919800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3177300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3072900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3104200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1537200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1579900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1723500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1588400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1558300</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1523100</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>1549600</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>1422700</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3745,132 +3850,138 @@
         <v>0</v>
       </c>
       <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
         <v>1121400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1061300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>907700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>820600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>685800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>611300</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>526600</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>456500</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>433300</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>419800</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>283500</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>355900</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>169200</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>55700</v>
+      </c>
+      <c r="E48" s="3">
         <v>56100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>56400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>56100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>55300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>54600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>53400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>51700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>49700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>46700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>42800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>40000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>39500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>38200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>37900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>785300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>789700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>710600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>233400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>215200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>174000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>162900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>136700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>123600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>115800</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>118400</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>80100</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>73500</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3895,11 +4006,11 @@
       <c r="J49" s="3">
         <v>0</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -3917,46 +4028,49 @@
         <v>0</v>
       </c>
       <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
         <v>241000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>247700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>221900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>211400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>215900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>207000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>208500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>210200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>123100</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>67400</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>44400</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>46600</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>44900</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,8 +4244,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4175,46 +4295,49 @@
         <v>0</v>
       </c>
       <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
         <v>208800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>186400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>181500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>255200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>245600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>215300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>215400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>216200</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>293700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>285000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>321400</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>239300</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>224100</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>57600</v>
+      </c>
+      <c r="E54" s="3">
         <v>57700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>57900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>57800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>58200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>56300</v>
       </c>
-      <c r="I54" s="3">
-        <v>54400</v>
-      </c>
       <c r="J54" s="3">
+        <v>54500</v>
+      </c>
+      <c r="K54" s="3">
         <v>53700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>50800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>49500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>43500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>42600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>39800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>38600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>38100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5097500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5204900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5199000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4593400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4466700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2744900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2693300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2743100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2562000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>2446300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>2290800</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>2271500</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>1934400</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,56 +4579,57 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
         <v>1300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>400</v>
       </c>
-      <c r="R57" s="3">
-        <v>0</v>
-      </c>
       <c r="S57" s="3">
         <v>0</v>
       </c>
@@ -4535,31 +4666,34 @@
       <c r="AD57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>400</v>
+      </c>
+      <c r="E58" s="3">
         <v>600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>400</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>200</v>
-      </c>
-      <c r="J58" s="3">
-        <v>300</v>
       </c>
       <c r="K58" s="3">
         <v>300</v>
@@ -4574,227 +4708,236 @@
         <v>300</v>
       </c>
       <c r="O58" s="3">
+        <v>300</v>
+      </c>
+      <c r="P58" s="3">
         <v>400</v>
-      </c>
-      <c r="P58" s="3">
-        <v>300</v>
       </c>
       <c r="Q58" s="3">
         <v>300</v>
       </c>
       <c r="R58" s="3">
+        <v>300</v>
+      </c>
+      <c r="S58" s="3">
         <v>108500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>106100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>90800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>217800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>215900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>201700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>202700</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>201300</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>199700</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>180400</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>185100</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>194500</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>400</v>
+      </c>
+      <c r="E59" s="3">
         <v>700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>300</v>
-      </c>
-      <c r="K59" s="3">
-        <v>700</v>
       </c>
       <c r="L59" s="3">
         <v>700</v>
       </c>
       <c r="M59" s="3">
+        <v>700</v>
+      </c>
+      <c r="N59" s="3">
         <v>900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1276900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1297200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1232500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>945400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>850200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>716500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>705700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>715500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>614400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>560400</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>535600</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>572200</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>466900</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E60" s="3">
         <v>2500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1385300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1403400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1323300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1163300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1066100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>918200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>908400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>916800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>814100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>740800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>720700</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>766700</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>469200</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4802,7 +4945,7 @@
         <v>200</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -4820,67 +4963,70 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>100</v>
-      </c>
-      <c r="L61" s="3">
-        <v>200</v>
       </c>
       <c r="M61" s="3">
         <v>200</v>
       </c>
       <c r="N61" s="3">
+        <v>200</v>
+      </c>
+      <c r="O61" s="3">
         <v>300</v>
-      </c>
-      <c r="O61" s="3">
-        <v>400</v>
       </c>
       <c r="P61" s="3">
         <v>400</v>
       </c>
       <c r="Q61" s="3">
+        <v>400</v>
+      </c>
+      <c r="R61" s="3">
         <v>500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1816800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1817300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1751000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1341700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1318500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>3000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>5400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1400</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>400</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>300</v>
       </c>
-      <c r="AC61" s="3">
-        <v>0</v>
-      </c>
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4927,46 +5073,49 @@
         <v>0</v>
       </c>
       <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
         <v>141600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>134000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>131800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>120000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>116700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>102800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>108100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>103400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>108100</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>103300</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>101200</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>76600</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>74700</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E66" s="3">
         <v>2700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3513400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3554800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3387000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2715600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2609900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1055500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1056200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1070000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>959500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>852300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>825700</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>844900</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>546500</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-79300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-78600</v>
       </c>
-      <c r="E72" s="3">
-        <v>-77900</v>
-      </c>
       <c r="F72" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="G72" s="3">
         <v>-77400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-76500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-76200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-75800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-73900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-75500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-75000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-72300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-70200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-69600</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-67400</v>
       </c>
       <c r="Q72" s="3">
         <v>-67400</v>
       </c>
       <c r="R72" s="3">
+        <v>-67400</v>
+      </c>
+      <c r="S72" s="3">
         <v>-379300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-308800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-152500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-52400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-94400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-10900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-49700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-38800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-2700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-19000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-97000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-109800</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-122700</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>56000</v>
+      </c>
+      <c r="E76" s="3">
         <v>55000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>55600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>56100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>56900</v>
       </c>
-      <c r="H76" s="3">
-        <v>54100</v>
-      </c>
       <c r="I76" s="3">
-        <v>51800</v>
+        <v>54200</v>
       </c>
       <c r="J76" s="3">
         <v>51800</v>
       </c>
       <c r="K76" s="3">
+        <v>51800</v>
+      </c>
+      <c r="L76" s="3">
         <v>47900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>47800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>41100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>40900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>37100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>36800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>35000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1584200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1650100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1812000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1877800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1856800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1689400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1637100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1673100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1602600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1594000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>1465100</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>1426600</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>1388000</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-70600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-156700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-99100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>22200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-83400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>39000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-12500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-36100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>16300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>79900</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>12700</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>12800</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6422,7 +6621,7 @@
         <v>0</v>
       </c>
       <c r="F83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G83" s="3">
         <v>100</v>
@@ -6458,46 +6657,49 @@
         <v>100</v>
       </c>
       <c r="R83" s="3">
+        <v>100</v>
+      </c>
+      <c r="S83" s="3">
         <v>55300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>51800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>49800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>31000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>27000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>23800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>21100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>20400</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>16900</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>13900</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>13100</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>12800</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1500</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-1500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-71500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-19900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>59500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-4900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>7900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>22500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>62300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>35200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>47100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-44600</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>110000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>39800</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,94 +7264,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-200</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-600</v>
       </c>
       <c r="G91" s="3">
         <v>-600</v>
       </c>
       <c r="H91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I91" s="3">
         <v>-900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2400</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>2300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-36500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-38800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-59700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-61000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-55300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-35100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-42200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-38000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-23700</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-31600</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-20400</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-25500</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,94 +7529,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>400</v>
+      </c>
+      <c r="E94" s="3">
         <v>600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>2300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-128300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-231000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-145000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-89200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-174000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-60400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-163200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-156100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-73700</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-61100</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-18200</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-266300</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-29300</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,94 +8007,100 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>3400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>3100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>5400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>5800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>3900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-49700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>22000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>87700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>8100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1646700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>1800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>82900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>26100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-5200</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-500</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>196900</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>754900</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7898,128 +8147,134 @@
         <v>0</v>
       </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>1900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-13700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-1100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-11000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>6400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>1600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-8800</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>7500</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-1500</v>
-      </c>
-      <c r="AA101" s="3">
-        <v>300</v>
       </c>
       <c r="AB101" s="3">
         <v>300</v>
       </c>
       <c r="AC101" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD101" s="3">
         <v>5300</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-247500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-219100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-78200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-32500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1474100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-50200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-147700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-3400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-13800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-18800</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-63000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>46000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>767000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
   <si>
     <t>LN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,130 +665,134 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -838,46 +842,49 @@
         <v>0</v>
       </c>
       <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
         <v>552000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>544800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>533100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>687700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>482600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>547900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>453900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>419500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>389000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>456300</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>348100</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>338300</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>320200</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -965,8 +972,11 @@
       <c r="AE9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1054,8 +1064,11 @@
       <c r="AE10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,8 +1282,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1276,32 +1296,32 @@
       <c r="E14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>600</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>5</v>
@@ -1315,8 +1335,8 @@
       <c r="R14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1354,8 +1374,11 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1369,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H15" s="3">
         <v>100</v>
@@ -1405,46 +1428,49 @@
         <v>100</v>
       </c>
       <c r="S15" s="3">
+        <v>100</v>
+      </c>
+      <c r="T15" s="3">
         <v>55300</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>51800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>49800</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>31000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>27000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>23800</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>21100</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>20400</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>16900</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>13900</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>13100</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>12800</v>
       </c>
-      <c r="AE15" s="3">
+      <c r="AF15" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,97 +1499,101 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="E17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1400</v>
       </c>
-      <c r="I17" s="3">
-        <v>1100</v>
-      </c>
       <c r="J17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K17" s="3">
         <v>2200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>700</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1200</v>
       </c>
       <c r="M17" s="3">
         <v>1200</v>
       </c>
       <c r="N17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O17" s="3">
         <v>700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>606800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>678600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>609000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>599300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>515800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>465500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>442600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>414100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>336100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>324300</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>312400</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>324100</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>276500</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1571,88 +1601,91 @@
         <v>5</v>
       </c>
       <c r="E18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1400</v>
       </c>
-      <c r="I18" s="3">
-        <v>-1100</v>
-      </c>
       <c r="J18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-2200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-700</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-1200</v>
       </c>
       <c r="M18" s="3">
         <v>-1200</v>
       </c>
       <c r="N18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="O18" s="3">
         <v>-700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-54800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-133800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-75800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>88400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-33200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>82500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>11300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>5400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>52900</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>132000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>35700</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>14200</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>43700</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,8 +1717,9 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1696,11 +1730,11 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1714,11 +1748,11 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1732,49 +1766,52 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-19500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-31700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-32500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-54600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-30500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-20900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-12500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-33000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-14600</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-10900</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-4100</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>9900</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1782,88 +1819,91 @@
         <v>5</v>
       </c>
       <c r="E21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-19000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-113700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-58500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>64800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-36800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>85400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>19800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-7200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>55200</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>135000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>44700</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>36900</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>53300</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1951,97 +1991,103 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J23" s="3">
         <v>-1100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="K23" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="O23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-600</v>
       </c>
-      <c r="F23" s="3">
-        <v>-500</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="R23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="S23" s="3">
         <v>-1100</v>
       </c>
-      <c r="J23" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-700</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="T23" s="3">
+        <v>-74300</v>
+      </c>
+      <c r="U23" s="3">
+        <v>-165500</v>
+      </c>
+      <c r="V23" s="3">
+        <v>-108300</v>
+      </c>
+      <c r="W23" s="3">
+        <v>33800</v>
+      </c>
+      <c r="X23" s="3">
+        <v>-63700</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>61600</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-1200</v>
       </c>
-      <c r="N23" s="3">
-        <v>-700</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-800</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-600</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-800</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-74300</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-165500</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-108300</v>
-      </c>
-      <c r="V23" s="3">
-        <v>33800</v>
-      </c>
-      <c r="W23" s="3">
-        <v>-63700</v>
-      </c>
-      <c r="X23" s="3">
-        <v>61600</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-27600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>38300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>121100</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>31600</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>24200</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>40600</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2091,46 +2137,49 @@
         <v>0</v>
       </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>10300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-5300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>19400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>25400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>28200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>14800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>8300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>23500</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>40400</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>17100</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>9600</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J26" s="3">
         <v>-1100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="K26" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="O26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-600</v>
       </c>
-      <c r="F26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="R26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="S26" s="3">
         <v>-1100</v>
       </c>
-      <c r="J26" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-700</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-700</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-800</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-600</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-800</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-84600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-166300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-103000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>14400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-89100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>33400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-16000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-35900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>14800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>80600</v>
-      </c>
-      <c r="AC26" s="3">
-        <v>14500</v>
       </c>
       <c r="AD26" s="3">
         <v>14500</v>
       </c>
       <c r="AE26" s="3">
+        <v>14500</v>
+      </c>
+      <c r="AF26" s="3">
         <v>25900</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J27" s="3">
         <v>-1100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="K27" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="O27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-600</v>
       </c>
-      <c r="F27" s="3">
-        <v>-500</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="R27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="S27" s="3">
         <v>-1100</v>
       </c>
-      <c r="J27" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-700</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-700</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-800</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-600</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-800</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-70500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-156600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-99200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>18700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-83400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>39000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-12500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-36100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>16300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>79900</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>12800</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>14800</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>25300</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2545,11 +2606,11 @@
         <v>0</v>
       </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>3500</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
       <c r="X29" s="3">
         <v>0</v>
       </c>
@@ -2569,13 +2630,16 @@
         <v>0</v>
       </c>
       <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3">
         <v>-1900</v>
       </c>
-      <c r="AE29" s="3">
+      <c r="AF29" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,8 +2819,11 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2764,11 +2834,11 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2782,11 +2852,11 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2800,138 +2870,144 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>19500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>31700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>32500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>54600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>30500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>20900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>12500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>33000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>14600</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>10900</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>4100</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-9900</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J33" s="3">
         <v>-1100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="K33" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="O33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-600</v>
       </c>
-      <c r="F33" s="3">
-        <v>-500</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="R33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="S33" s="3">
         <v>-1100</v>
       </c>
-      <c r="J33" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-700</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-700</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-800</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-600</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-800</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-70600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-156700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-99100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>22200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-83400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>39000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-12500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-36100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>16300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>79900</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>12700</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>12800</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J35" s="3">
         <v>-1100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="K35" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="O35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-600</v>
       </c>
-      <c r="F35" s="3">
-        <v>-500</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="R35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="S35" s="3">
         <v>-1100</v>
       </c>
-      <c r="J35" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-700</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-700</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-800</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-600</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-800</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-70600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-156700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-99100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>22200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-83400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>39000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-12500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-36100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>16300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>79900</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>12700</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>12800</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,97 +3354,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
         <v>600</v>
-      </c>
-      <c r="E41" s="3">
-        <v>200</v>
       </c>
       <c r="F41" s="3">
         <v>200</v>
       </c>
       <c r="G41" s="3">
+        <v>300</v>
+      </c>
+      <c r="H41" s="3">
         <v>400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1924700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2172200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2391300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2425900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2419300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>924800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>969700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1117400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1120800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1134600</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>1131700</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>1194800</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>1148800</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3408,46 +3498,49 @@
         <v>0</v>
       </c>
       <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
         <v>260300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>230900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>216800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>28000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>39100</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>32500</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>27800</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>7700</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>26000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>43900</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>35700</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>44500</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3455,28 +3548,28 @@
         <v>800</v>
       </c>
       <c r="E43" s="3">
+        <v>800</v>
+      </c>
+      <c r="F43" s="3">
         <v>1000</v>
       </c>
-      <c r="F43" s="3">
-        <v>900</v>
-      </c>
       <c r="G43" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="H43" s="3">
         <v>900</v>
       </c>
       <c r="I43" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="J43" s="3">
+        <v>800</v>
+      </c>
+      <c r="K43" s="3">
         <v>600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>500</v>
-      </c>
-      <c r="L43" s="3">
-        <v>400</v>
       </c>
       <c r="M43" s="3">
         <v>400</v>
@@ -3485,58 +3578,61 @@
         <v>400</v>
       </c>
       <c r="O43" s="3">
+        <v>400</v>
+      </c>
+      <c r="P43" s="3">
         <v>300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>394500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>380400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>397700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>364200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>383800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>349400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>355800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>389600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>328500</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>302600</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>282700</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>249800</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>224500</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3586,63 +3682,66 @@
         <v>0</v>
       </c>
       <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
         <v>60400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>37000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>50600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>46100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>56300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>29500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>26000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>31200</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>26400</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>22800</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>12400</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>8500</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>400</v>
+      </c>
+      <c r="E45" s="3">
         <v>500</v>
-      </c>
-      <c r="E45" s="3">
-        <v>300</v>
       </c>
       <c r="F45" s="3">
         <v>300</v>
       </c>
       <c r="G45" s="3">
+        <v>300</v>
+      </c>
+      <c r="H45" s="3">
         <v>400</v>
-      </c>
-      <c r="H45" s="3">
-        <v>300</v>
       </c>
       <c r="I45" s="3">
         <v>300</v>
@@ -3654,13 +3753,13 @@
         <v>300</v>
       </c>
       <c r="L45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>5</v>
+      <c r="N45" s="3">
+        <v>200</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>5</v>
@@ -3674,136 +3773,142 @@
       <c r="R45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S45" s="3">
+      <c r="S45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T45" s="3">
         <v>101300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>99300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>120900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>208700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>205700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>200900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>200600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>177500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>86800</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>54300</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>60500</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>52000</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>41400</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="E46" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F46" s="3">
         <v>1600</v>
       </c>
-      <c r="F46" s="3">
-        <v>1500</v>
-      </c>
       <c r="G46" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H46" s="3">
         <v>1700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2741200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2919800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3177300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3072900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3104200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1537200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1579900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1723500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1588400</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1558300</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>1523100</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>1549600</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>1422700</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3853,135 +3958,141 @@
         <v>0</v>
       </c>
       <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
         <v>1121400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1061300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>907700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>820600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>685800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>611300</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>526600</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>456500</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>433300</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>419800</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>283500</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>355900</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>169200</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>55700</v>
+        <v>56700</v>
       </c>
       <c r="E48" s="3">
-        <v>56100</v>
+        <v>56800</v>
       </c>
       <c r="F48" s="3">
-        <v>56400</v>
+        <v>57200</v>
       </c>
       <c r="G48" s="3">
-        <v>56100</v>
+        <v>57400</v>
       </c>
       <c r="H48" s="3">
-        <v>55300</v>
+        <v>57100</v>
       </c>
       <c r="I48" s="3">
-        <v>54600</v>
+        <v>56300</v>
       </c>
       <c r="J48" s="3">
+        <v>55600</v>
+      </c>
+      <c r="K48" s="3">
         <v>53400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>51700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>49700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>46700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>42800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>40000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>39500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>38200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>37900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>785300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>789700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>710600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>233400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>215200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>174000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>162900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>136700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>123600</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>115800</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>118400</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>80100</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>73500</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4009,11 +4120,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -4031,46 +4142,49 @@
         <v>0</v>
       </c>
       <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
         <v>241000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>247700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>221900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>211400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>215900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>207000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>208500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>210200</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>123100</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>67400</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>44400</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>46600</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>44900</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,8 +4364,11 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4298,46 +4418,49 @@
         <v>0</v>
       </c>
       <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
         <v>208800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>186400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>181500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>255200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>245600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>215300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>215400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>216200</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>293700</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>285000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>321400</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>239300</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>224100</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,97 +4548,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>57600</v>
+        <v>58200</v>
       </c>
       <c r="E54" s="3">
-        <v>57700</v>
+        <v>58600</v>
       </c>
       <c r="F54" s="3">
-        <v>57900</v>
+        <v>58800</v>
       </c>
       <c r="G54" s="3">
-        <v>57800</v>
+        <v>59000</v>
       </c>
       <c r="H54" s="3">
-        <v>58200</v>
+        <v>58800</v>
       </c>
       <c r="I54" s="3">
-        <v>56300</v>
+        <v>59300</v>
       </c>
       <c r="J54" s="3">
+        <v>57300</v>
+      </c>
+      <c r="K54" s="3">
         <v>54500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>53700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>50800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>49500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>43500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>42600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>39800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>38600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>38100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5097500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5204900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5199000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4593400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4466700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2744900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2693300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2743100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>2562000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>2446300</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>2290800</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>2271500</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>1934400</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,59 +4710,60 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
         <v>500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>400</v>
       </c>
-      <c r="S57" s="3">
-        <v>0</v>
-      </c>
       <c r="T57" s="3">
         <v>0</v>
       </c>
@@ -4669,34 +4800,37 @@
       <c r="AE57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>300</v>
+      </c>
+      <c r="E58" s="3">
         <v>400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>400</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>200</v>
-      </c>
-      <c r="K58" s="3">
-        <v>300</v>
       </c>
       <c r="L58" s="3">
         <v>300</v>
@@ -4711,233 +4845,242 @@
         <v>300</v>
       </c>
       <c r="P58" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q58" s="3">
         <v>400</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>300</v>
       </c>
       <c r="R58" s="3">
         <v>300</v>
       </c>
       <c r="S58" s="3">
+        <v>300</v>
+      </c>
+      <c r="T58" s="3">
         <v>108500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>106100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>90800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>217800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>215900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>201700</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>202700</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>201300</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>199700</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>180400</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>185100</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>194500</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>600</v>
+      </c>
+      <c r="E59" s="3">
         <v>400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>300</v>
-      </c>
-      <c r="L59" s="3">
-        <v>700</v>
       </c>
       <c r="M59" s="3">
         <v>700</v>
       </c>
       <c r="N59" s="3">
+        <v>700</v>
+      </c>
+      <c r="O59" s="3">
         <v>900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1276900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1297200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1232500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>945400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>850200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>716500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>705700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>715500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>614400</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>560400</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>535600</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>572200</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>466900</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I60" s="3">
         <v>1300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="J60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K60" s="3">
+        <v>2700</v>
+      </c>
+      <c r="L60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="N60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="P60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="R60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S60" s="3">
         <v>2500</v>
       </c>
-      <c r="F60" s="3">
-        <v>2300</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1600</v>
-      </c>
-      <c r="H60" s="3">
-        <v>1200</v>
-      </c>
-      <c r="I60" s="3">
-        <v>2100</v>
-      </c>
-      <c r="J60" s="3">
-        <v>2700</v>
-      </c>
-      <c r="K60" s="3">
-        <v>1900</v>
-      </c>
-      <c r="L60" s="3">
-        <v>2800</v>
-      </c>
-      <c r="M60" s="3">
-        <v>1500</v>
-      </c>
-      <c r="N60" s="3">
-        <v>2100</v>
-      </c>
-      <c r="O60" s="3">
-        <v>1400</v>
-      </c>
-      <c r="P60" s="3">
-        <v>2300</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>1400</v>
-      </c>
-      <c r="R60" s="3">
-        <v>2500</v>
-      </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1385300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1403400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1323300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1163300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1066100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>918200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>908400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>916800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>814100</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>740800</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>720700</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>766700</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>469200</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4948,7 +5091,7 @@
         <v>200</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -4966,67 +5109,70 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>100</v>
-      </c>
-      <c r="M61" s="3">
-        <v>200</v>
       </c>
       <c r="N61" s="3">
         <v>200</v>
       </c>
       <c r="O61" s="3">
+        <v>200</v>
+      </c>
+      <c r="P61" s="3">
         <v>300</v>
-      </c>
-      <c r="P61" s="3">
-        <v>400</v>
       </c>
       <c r="Q61" s="3">
         <v>400</v>
       </c>
       <c r="R61" s="3">
+        <v>400</v>
+      </c>
+      <c r="S61" s="3">
         <v>500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1816800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1817300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1751000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1341700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1318500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>3000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>5400</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1400</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>400</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>300</v>
       </c>
-      <c r="AD61" s="3">
-        <v>0</v>
-      </c>
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -5076,46 +5222,49 @@
         <v>0</v>
       </c>
       <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
         <v>141600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>134000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>131800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>120000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>116700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>102800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>108100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>103400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>108100</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>103300</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>101200</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>76600</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>74700</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,97 +5536,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="E66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J66" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K66" s="3">
         <v>2700</v>
       </c>
-      <c r="F66" s="3">
-        <v>2300</v>
-      </c>
-      <c r="G66" s="3">
-        <v>1600</v>
-      </c>
-      <c r="H66" s="3">
-        <v>1300</v>
-      </c>
-      <c r="I66" s="3">
-        <v>2100</v>
-      </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M66" s="3">
+        <v>2900</v>
+      </c>
+      <c r="N66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="P66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Q66" s="3">
         <v>2700</v>
       </c>
-      <c r="K66" s="3">
-        <v>1900</v>
-      </c>
-      <c r="L66" s="3">
-        <v>2900</v>
-      </c>
-      <c r="M66" s="3">
-        <v>1700</v>
-      </c>
-      <c r="N66" s="3">
-        <v>2400</v>
-      </c>
-      <c r="O66" s="3">
-        <v>1700</v>
-      </c>
-      <c r="P66" s="3">
-        <v>2700</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3513400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3554800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3387000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2715600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2609900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1055500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1056200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1070000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>959500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>852300</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>825700</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>844900</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>546500</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-79300</v>
+        <v>-81300</v>
       </c>
       <c r="E72" s="3">
-        <v>-78600</v>
+        <v>-80800</v>
       </c>
       <c r="F72" s="3">
+        <v>-80000</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-79400</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-78900</v>
+      </c>
+      <c r="I72" s="3">
         <v>-78000</v>
       </c>
-      <c r="G72" s="3">
-        <v>-77400</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-76500</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-76200</v>
-      </c>
       <c r="J72" s="3">
+        <v>-77600</v>
+      </c>
+      <c r="K72" s="3">
         <v>-75800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-73900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-75500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-75000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-72300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-70200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-69600</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-67400</v>
       </c>
       <c r="R72" s="3">
         <v>-67400</v>
       </c>
       <c r="S72" s="3">
+        <v>-67400</v>
+      </c>
+      <c r="T72" s="3">
         <v>-379300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-308800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-152500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-52400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-94400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-10900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-49700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-38800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-2700</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-19000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-97000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-109800</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-122700</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>56500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>57100</v>
+      </c>
+      <c r="F76" s="3">
         <v>56000</v>
       </c>
-      <c r="E76" s="3">
-        <v>55000</v>
-      </c>
-      <c r="F76" s="3">
-        <v>55600</v>
-      </c>
       <c r="G76" s="3">
-        <v>56100</v>
+        <v>56700</v>
       </c>
       <c r="H76" s="3">
-        <v>56900</v>
+        <v>57200</v>
       </c>
       <c r="I76" s="3">
-        <v>54200</v>
+        <v>58000</v>
       </c>
       <c r="J76" s="3">
-        <v>51800</v>
+        <v>55100</v>
       </c>
       <c r="K76" s="3">
         <v>51800</v>
       </c>
       <c r="L76" s="3">
+        <v>51800</v>
+      </c>
+      <c r="M76" s="3">
         <v>47900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>47800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>41100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>40900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>37100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>36800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>35000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1584200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1650100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1812000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1877800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1856800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1689400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1637100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1673100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1602600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>1594000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>1465100</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>1426600</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>1388000</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J81" s="3">
         <v>-1100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="K81" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="O81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-600</v>
       </c>
-      <c r="F81" s="3">
-        <v>-500</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="R81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="S81" s="3">
         <v>-1100</v>
       </c>
-      <c r="J81" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-700</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-700</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-800</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-600</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-800</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-70600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-156700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-99100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>22200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-83400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>39000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-12500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-36100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>16300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>79900</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>12700</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>12800</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,8 +6807,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6624,7 +6823,7 @@
         <v>0</v>
       </c>
       <c r="G83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H83" s="3">
         <v>100</v>
@@ -6660,46 +6859,49 @@
         <v>100</v>
       </c>
       <c r="S83" s="3">
+        <v>100</v>
+      </c>
+      <c r="T83" s="3">
         <v>55300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>51800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>49800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>31000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>27000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>23800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>21100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>20400</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>16900</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>13900</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>13100</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>12800</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,97 +7357,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-600</v>
       </c>
-      <c r="F89" s="3">
-        <v>-300</v>
-      </c>
       <c r="G89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1500</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-1500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-71500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-19900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>59500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-4900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>7900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>22500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>62300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>35200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>47100</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-44600</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>110000</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>39800</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,97 +7485,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-200</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-600</v>
       </c>
       <c r="H91" s="3">
         <v>-600</v>
       </c>
       <c r="I91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J91" s="3">
         <v>-900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2400</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>2300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-36500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-38800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-59700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-61000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-55300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-35100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-42200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-38000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-23700</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-31600</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-20400</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-25500</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,97 +7759,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-800</v>
       </c>
-      <c r="I94" s="3">
-        <v>-1200</v>
-      </c>
       <c r="J94" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>2300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-128300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-231000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-145000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-89200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-174000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-60400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-163200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-156100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-73700</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-61100</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-18200</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-266300</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-29300</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,97 +8253,103 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
         <v>2000</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>3400</v>
-      </c>
       <c r="I100" s="3">
-        <v>3100</v>
+        <v>3500</v>
       </c>
       <c r="J100" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K100" s="3">
         <v>1500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>5400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>5800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>3900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-49700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>22000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>87700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>8100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1646700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>1800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>82900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>26100</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-5200</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-500</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>196900</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>754900</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8150,131 +8399,137 @@
         <v>0</v>
       </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>1900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-13700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-1100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-11000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>6400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>1600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-8800</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>7500</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-1500</v>
-      </c>
-      <c r="AB101" s="3">
-        <v>300</v>
       </c>
       <c r="AC101" s="3">
         <v>300</v>
       </c>
       <c r="AD101" s="3">
+        <v>300</v>
+      </c>
+      <c r="AE101" s="3">
         <v>5300</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E102" s="3">
         <v>300</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1100</v>
       </c>
-      <c r="I102" s="3">
-        <v>400</v>
-      </c>
       <c r="J102" s="3">
+        <v>500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-247500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-219100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-78200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-32500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1474100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-50200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-147700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-3400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-13800</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-18800</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-63000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>46000</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>767000</v>
       </c>
     </row>
